--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC311"/>
+  <dimension ref="A1:AC310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6553338</v>
+        <v>6553761</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,40 +12293,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M133">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12335,34 +12335,34 @@
         <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553761</v>
+        <v>6553338</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,40 +12382,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M134">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N134">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
         <v>1.975</v>
@@ -12424,34 +12424,34 @@
         <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,61 +14785,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L161">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N161">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X161">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14848,13 +14848,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,61 +14874,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M162">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14937,13 +14937,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,58 +16921,58 @@
         <v>45171.625</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>47</v>
       </c>
       <c r="K185">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N185">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O185">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q185">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16981,16 +16981,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,58 +17010,58 @@
         <v>45171.625</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>1</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M186">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N186">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P186">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17070,16 +17070,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6978755</v>
+        <v>6979546</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27509,49 +27509,49 @@
         <v>28</v>
       </c>
       <c r="E304" s="2">
-        <v>45339.41666666666</v>
+        <v>45339.51041666666</v>
       </c>
       <c r="F304" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G304" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K304">
-        <v>6.5</v>
+        <v>1.181</v>
       </c>
       <c r="L304">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M304">
-        <v>1.363</v>
+        <v>11</v>
       </c>
       <c r="N304">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="O304">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P304">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="Q304">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R304">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S304">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U304">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V304">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
         <v>0</v>
@@ -27574,7 +27574,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6979546</v>
+        <v>6979548</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27583,49 +27583,49 @@
         <v>28</v>
       </c>
       <c r="E305" s="2">
-        <v>45339.51041666666</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F305" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K305">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="L305">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M305">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N305">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O305">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P305">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q305">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R305">
+        <v>1.95</v>
+      </c>
+      <c r="S305">
         <v>1.85</v>
       </c>
-      <c r="S305">
-        <v>1.95</v>
-      </c>
       <c r="T305">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U305">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V305">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27648,7 +27648,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6979548</v>
+        <v>6979544</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27657,43 +27657,43 @@
         <v>28</v>
       </c>
       <c r="E306" s="2">
-        <v>45339.60416666666</v>
+        <v>45340.375</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G306" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K306">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L306">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M306">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N306">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O306">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P306">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q306">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R306">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S306">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T306">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U306">
         <v>1.975</v>
@@ -27722,7 +27722,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6979544</v>
+        <v>6979550</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27731,49 +27731,49 @@
         <v>28</v>
       </c>
       <c r="E307" s="2">
-        <v>45340.375</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G307" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K307">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L307">
         <v>3.25</v>
       </c>
       <c r="M307">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N307">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O307">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P307">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q307">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S307">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6979550</v>
+        <v>6979547</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27805,49 +27805,49 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G308" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K308">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L308">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M308">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N308">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O308">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P308">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R308">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S308">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U308">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V308">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27882,46 +27882,46 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G309" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K309">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L309">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M309">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N309">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O309">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P309">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q309">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R309">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S309">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T309">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V309">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -27944,7 +27944,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6979545</v>
+        <v>6979549</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -27953,49 +27953,49 @@
         <v>28</v>
       </c>
       <c r="E310" s="2">
-        <v>45340.54166666666</v>
+        <v>45341.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G310" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K310">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L310">
         <v>3.25</v>
       </c>
       <c r="M310">
+        <v>3</v>
+      </c>
+      <c r="N310">
+        <v>2.1</v>
+      </c>
+      <c r="O310">
         <v>3.25</v>
       </c>
-      <c r="N310">
-        <v>1.85</v>
-      </c>
-      <c r="O310">
-        <v>3.3</v>
-      </c>
       <c r="P310">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q310">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S310">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V310">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28010,80 +28010,6 @@
         <v>0</v>
       </c>
       <c r="AA310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:27">
-      <c r="A311" s="1">
-        <v>309</v>
-      </c>
-      <c r="B311">
-        <v>6979549</v>
-      </c>
-      <c r="C311" t="s">
-        <v>28</v>
-      </c>
-      <c r="D311" t="s">
-        <v>28</v>
-      </c>
-      <c r="E311" s="2">
-        <v>45341.54166666666</v>
-      </c>
-      <c r="F311" t="s">
-        <v>40</v>
-      </c>
-      <c r="G311" t="s">
-        <v>34</v>
-      </c>
-      <c r="K311">
-        <v>2.1</v>
-      </c>
-      <c r="L311">
-        <v>3.25</v>
-      </c>
-      <c r="M311">
-        <v>3</v>
-      </c>
-      <c r="N311">
-        <v>2.1</v>
-      </c>
-      <c r="O311">
-        <v>3.25</v>
-      </c>
-      <c r="P311">
-        <v>3</v>
-      </c>
-      <c r="Q311">
-        <v>-0.25</v>
-      </c>
-      <c r="R311">
-        <v>1.875</v>
-      </c>
-      <c r="S311">
-        <v>1.925</v>
-      </c>
-      <c r="T311">
-        <v>2.25</v>
-      </c>
-      <c r="U311">
-        <v>1.875</v>
-      </c>
-      <c r="V311">
-        <v>1.925</v>
-      </c>
-      <c r="W311">
-        <v>0</v>
-      </c>
-      <c r="X311">
-        <v>0</v>
-      </c>
-      <c r="Y311">
-        <v>0</v>
-      </c>
-      <c r="Z311">
-        <v>0</v>
-      </c>
-      <c r="AA311">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC310"/>
+  <dimension ref="A1:AC308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6553760</v>
+        <v>6553337</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P125">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>1.975</v>
+      </c>
+      <c r="T125">
+        <v>1.75</v>
+      </c>
+      <c r="U125">
         <v>1.775</v>
       </c>
-      <c r="S125">
+      <c r="V125">
         <v>2.025</v>
       </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.85</v>
-      </c>
-      <c r="V125">
-        <v>1.95</v>
-      </c>
       <c r="W125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
+        <v>0.3875</v>
+      </c>
+      <c r="AC125">
         <v>-0.5</v>
-      </c>
-      <c r="AC125">
-        <v>0.475</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6553337</v>
+        <v>6553336</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L126">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N126">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.975</v>
+      </c>
+      <c r="V126">
         <v>1.825</v>
       </c>
-      <c r="S126">
-        <v>1.975</v>
-      </c>
-      <c r="T126">
-        <v>1.75</v>
-      </c>
-      <c r="U126">
-        <v>1.775</v>
-      </c>
-      <c r="V126">
-        <v>2.025</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X126">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6553336</v>
+        <v>6553760</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,58 +11759,58 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L127">
+        <v>3.3</v>
+      </c>
+      <c r="M127">
         <v>3.75</v>
       </c>
-      <c r="M127">
-        <v>4.75</v>
-      </c>
       <c r="N127">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6553761</v>
+        <v>6553762</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,49 +12293,49 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L133">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
         <v>1.875</v>
@@ -12344,25 +12344,25 @@
         <v>1.925</v>
       </c>
       <c r="W133">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553338</v>
+        <v>6553761</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,40 +12382,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
         <v>1.975</v>
@@ -12424,34 +12424,34 @@
         <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6553762</v>
+        <v>6553338</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,10 +12471,10 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12486,40 +12486,40 @@
         <v>48</v>
       </c>
       <c r="K135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N135">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O135">
         <v>3.1</v>
       </c>
       <c r="P135">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,58 +13272,58 @@
         <v>45136.57986111111</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>47</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L144">
+        <v>3.2</v>
+      </c>
+      <c r="M144">
         <v>3.6</v>
       </c>
-      <c r="M144">
-        <v>5</v>
-      </c>
       <c r="N144">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13332,16 +13332,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,58 +13361,58 @@
         <v>45136.57986111111</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>47</v>
       </c>
       <c r="K145">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>1.533</v>
+      </c>
+      <c r="O145">
         <v>3.6</v>
       </c>
-      <c r="N145">
-        <v>1.909</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13421,16 +13421,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,46 +13450,46 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>49</v>
       </c>
       <c r="K146">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L146">
+        <v>3.1</v>
+      </c>
+      <c r="M146">
         <v>3</v>
       </c>
-      <c r="M146">
-        <v>2.4</v>
-      </c>
       <c r="N146">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
@@ -13504,22 +13504,22 @@
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,46 +13539,46 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
         <v>49</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L147">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M147">
+        <v>2.4</v>
+      </c>
+      <c r="N147">
+        <v>2.7</v>
+      </c>
+      <c r="O147">
         <v>3</v>
       </c>
-      <c r="N147">
-        <v>2.5</v>
-      </c>
-      <c r="O147">
-        <v>3.1</v>
-      </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
         <v>2.25</v>
@@ -13593,22 +13593,22 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,56 +15853,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>48</v>
       </c>
       <c r="K173">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
+        <v>1.825</v>
+      </c>
+      <c r="V173">
         <v>1.975</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.875</v>
-      </c>
-      <c r="V173">
-        <v>1.925</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15910,19 +15910,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.925</v>
+      </c>
+      <c r="AB173">
         <v>0.825</v>
       </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,56 +15942,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>48</v>
       </c>
       <c r="K174">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L174">
+        <v>3.75</v>
+      </c>
+      <c r="M174">
+        <v>4.5</v>
+      </c>
+      <c r="N174">
+        <v>1.909</v>
+      </c>
+      <c r="O174">
+        <v>3.1</v>
+      </c>
+      <c r="P174">
         <v>4</v>
       </c>
-      <c r="M174">
-        <v>1.533</v>
-      </c>
-      <c r="N174">
-        <v>4</v>
-      </c>
-      <c r="O174">
-        <v>3.3</v>
-      </c>
-      <c r="P174">
-        <v>1.85</v>
-      </c>
       <c r="Q174">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
         <v>1.875</v>
       </c>
-      <c r="S174">
+      <c r="V174">
         <v>1.925</v>
       </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
-      <c r="V174">
-        <v>1.975</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
@@ -15999,19 +15999,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.825</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.925</v>
-      </c>
-      <c r="AB174">
-        <v>0.825</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,58 +16921,58 @@
         <v>45171.625</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>1</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>47</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M185">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N185">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P185">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16981,16 +16981,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,58 +17010,58 @@
         <v>45171.625</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L186">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M186">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N186">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O186">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P186">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q186">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W186">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17070,16 +17070,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,58 +18523,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>47</v>
       </c>
       <c r="K203">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M203">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18583,16 +18583,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC203">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,58 +18612,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>47</v>
       </c>
       <c r="K204">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N204">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P204">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W204">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18672,16 +18672,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA204">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6979546</v>
+        <v>6979544</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27509,49 +27509,49 @@
         <v>28</v>
       </c>
       <c r="E304" s="2">
-        <v>45339.51041666666</v>
+        <v>45340.375</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G304" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K304">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L304">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="M304">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N304">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="O304">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P304">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="Q304">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S304">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T304">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
         <v>0</v>
@@ -27574,7 +27574,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6979548</v>
+        <v>6979550</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27583,49 +27583,49 @@
         <v>28</v>
       </c>
       <c r="E305" s="2">
-        <v>45339.60416666666</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K305">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L305">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M305">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N305">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O305">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P305">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q305">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R305">
+        <v>1.85</v>
+      </c>
+      <c r="S305">
         <v>1.95</v>
       </c>
-      <c r="S305">
-        <v>1.85</v>
-      </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27648,7 +27648,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6979544</v>
+        <v>6979547</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27657,49 +27657,49 @@
         <v>28</v>
       </c>
       <c r="E306" s="2">
-        <v>45340.375</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F306" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G306" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K306">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="L306">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M306">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N306">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O306">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P306">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q306">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R306">
+        <v>1.825</v>
+      </c>
+      <c r="S306">
+        <v>1.975</v>
+      </c>
+      <c r="T306">
+        <v>2.75</v>
+      </c>
+      <c r="U306">
         <v>1.9</v>
       </c>
-      <c r="S306">
+      <c r="V306">
         <v>1.9</v>
-      </c>
-      <c r="T306">
-        <v>2.5</v>
-      </c>
-      <c r="U306">
-        <v>1.975</v>
-      </c>
-      <c r="V306">
-        <v>1.825</v>
       </c>
       <c r="W306">
         <v>0</v>
@@ -27722,7 +27722,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6979550</v>
+        <v>6979545</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27731,49 +27731,49 @@
         <v>28</v>
       </c>
       <c r="E307" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G307" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K307">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L307">
         <v>3.25</v>
       </c>
       <c r="M307">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N307">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O307">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P307">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R307">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S307">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U307">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V307">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6979547</v>
+        <v>6979549</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27805,49 +27805,49 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45340.54166666666</v>
+        <v>45341.54166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G308" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K308">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M308">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N308">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P308">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q308">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R308">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S308">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T308">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V308">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27862,154 +27862,6 @@
         <v>0</v>
       </c>
       <c r="AA308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:27">
-      <c r="A309" s="1">
-        <v>307</v>
-      </c>
-      <c r="B309">
-        <v>6979545</v>
-      </c>
-      <c r="C309" t="s">
-        <v>28</v>
-      </c>
-      <c r="D309" t="s">
-        <v>28</v>
-      </c>
-      <c r="E309" s="2">
-        <v>45340.54166666666</v>
-      </c>
-      <c r="F309" t="s">
-        <v>31</v>
-      </c>
-      <c r="G309" t="s">
-        <v>43</v>
-      </c>
-      <c r="K309">
-        <v>2</v>
-      </c>
-      <c r="L309">
-        <v>3.25</v>
-      </c>
-      <c r="M309">
-        <v>3.25</v>
-      </c>
-      <c r="N309">
-        <v>1.85</v>
-      </c>
-      <c r="O309">
-        <v>3.3</v>
-      </c>
-      <c r="P309">
-        <v>3.6</v>
-      </c>
-      <c r="Q309">
-        <v>-0.5</v>
-      </c>
-      <c r="R309">
-        <v>1.85</v>
-      </c>
-      <c r="S309">
-        <v>1.95</v>
-      </c>
-      <c r="T309">
-        <v>2.5</v>
-      </c>
-      <c r="U309">
-        <v>1.975</v>
-      </c>
-      <c r="V309">
-        <v>1.825</v>
-      </c>
-      <c r="W309">
-        <v>0</v>
-      </c>
-      <c r="X309">
-        <v>0</v>
-      </c>
-      <c r="Y309">
-        <v>0</v>
-      </c>
-      <c r="Z309">
-        <v>0</v>
-      </c>
-      <c r="AA309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:27">
-      <c r="A310" s="1">
-        <v>308</v>
-      </c>
-      <c r="B310">
-        <v>6979549</v>
-      </c>
-      <c r="C310" t="s">
-        <v>28</v>
-      </c>
-      <c r="D310" t="s">
-        <v>28</v>
-      </c>
-      <c r="E310" s="2">
-        <v>45341.54166666666</v>
-      </c>
-      <c r="F310" t="s">
-        <v>40</v>
-      </c>
-      <c r="G310" t="s">
-        <v>34</v>
-      </c>
-      <c r="K310">
-        <v>2.1</v>
-      </c>
-      <c r="L310">
-        <v>3.25</v>
-      </c>
-      <c r="M310">
-        <v>3</v>
-      </c>
-      <c r="N310">
-        <v>2.1</v>
-      </c>
-      <c r="O310">
-        <v>3.25</v>
-      </c>
-      <c r="P310">
-        <v>3</v>
-      </c>
-      <c r="Q310">
-        <v>-0.25</v>
-      </c>
-      <c r="R310">
-        <v>1.825</v>
-      </c>
-      <c r="S310">
-        <v>1.975</v>
-      </c>
-      <c r="T310">
-        <v>2.25</v>
-      </c>
-      <c r="U310">
-        <v>1.9</v>
-      </c>
-      <c r="V310">
-        <v>1.9</v>
-      </c>
-      <c r="W310">
-        <v>0</v>
-      </c>
-      <c r="X310">
-        <v>0</v>
-      </c>
-      <c r="Y310">
-        <v>0</v>
-      </c>
-      <c r="Z310">
-        <v>0</v>
-      </c>
-      <c r="AA310">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>IMT Novi Belgrade</t>
+  </si>
+  <si>
+    <t>Crvena Zvezda</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC308"/>
+  <dimension ref="A1:AC311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>2.1</v>
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>2.3</v>
@@ -824,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -913,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>1.166</v>
@@ -1002,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>3.3</v>
@@ -1091,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>9</v>
@@ -1180,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>3.1</v>
@@ -1269,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>2.25</v>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2.45</v>
@@ -1447,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>1.6</v>
@@ -1536,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>1.45</v>
@@ -1625,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -1714,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>1.25</v>
@@ -1803,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>1.142</v>
@@ -1892,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1981,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>1.85</v>
@@ -2070,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>3.75</v>
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>3.2</v>
@@ -2248,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>1.75</v>
@@ -2337,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>1.25</v>
@@ -2426,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>2.3</v>
@@ -2515,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>2.05</v>
@@ -2604,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2693,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>6.5</v>
@@ -2782,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>2.3</v>
@@ -2871,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
         <v>1.95</v>
@@ -2960,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3049,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>1.4</v>
@@ -3138,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>8.5</v>
@@ -3227,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>1.4</v>
@@ -3316,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3405,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3494,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>2.6</v>
@@ -3583,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>2.75</v>
@@ -3672,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>2.5</v>
@@ -3850,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>3.3</v>
@@ -3939,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>3.2</v>
@@ -4028,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>2.375</v>
@@ -4117,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4206,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>1.5</v>
@@ -4295,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
         <v>2.1</v>
@@ -4384,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>3.25</v>
@@ -4473,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>1.8</v>
@@ -4562,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46">
         <v>2.2</v>
@@ -4651,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>2.5</v>
@@ -4740,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>5.75</v>
@@ -4829,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49">
         <v>1.2</v>
@@ -4918,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>2.2</v>
@@ -5007,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>2.2</v>
@@ -5096,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>2.1</v>
@@ -5161,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5161146</v>
+        <v>5161614</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5176,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>49</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
+        <v>3.4</v>
+      </c>
+      <c r="N53">
+        <v>1.5</v>
+      </c>
+      <c r="O53">
         <v>3.6</v>
       </c>
-      <c r="N53">
-        <v>1.95</v>
-      </c>
-      <c r="O53">
-        <v>3</v>
-      </c>
       <c r="P53">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S53">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5161614</v>
+        <v>5161146</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5265,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y54">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5363,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.166</v>
@@ -5452,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5541,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>3.1</v>
@@ -5630,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>1.2</v>
@@ -5719,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -5808,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5897,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>3.1</v>
@@ -5986,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>1.285</v>
@@ -6075,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>2.1</v>
@@ -6164,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>9</v>
@@ -6253,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>1.4</v>
@@ -6342,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.625</v>
@@ -6431,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6520,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68">
         <v>1.909</v>
@@ -6609,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6698,7 +6701,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>1.055</v>
@@ -6787,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>3.75</v>
@@ -6876,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>4.2</v>
@@ -6965,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>4</v>
@@ -7054,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74">
         <v>1.75</v>
@@ -7143,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>1.2</v>
@@ -7208,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5161152</v>
+        <v>5161630</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,76 +7223,76 @@
         <v>45021.57291666666</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="L76">
+        <v>5.5</v>
+      </c>
+      <c r="M76">
+        <v>1.181</v>
+      </c>
+      <c r="N76">
+        <v>9.5</v>
+      </c>
+      <c r="O76">
+        <v>4.75</v>
+      </c>
+      <c r="P76">
+        <v>1.25</v>
+      </c>
+      <c r="Q76">
+        <v>1.75</v>
+      </c>
+      <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
         <v>3</v>
       </c>
-      <c r="M76">
-        <v>2.5</v>
-      </c>
-      <c r="N76">
-        <v>1.7</v>
-      </c>
-      <c r="O76">
-        <v>3.4</v>
-      </c>
-      <c r="P76">
-        <v>4.2</v>
-      </c>
-      <c r="Q76">
-        <v>-0.5</v>
-      </c>
-      <c r="R76">
-        <v>1.775</v>
-      </c>
-      <c r="S76">
-        <v>2.025</v>
-      </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5161630</v>
+        <v>5161152</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7312,76 @@
         <v>45021.57291666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="O77">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y77">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7410,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>1.666</v>
@@ -7499,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2.05</v>
@@ -7564,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5161632</v>
+        <v>5161153</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7579,76 @@
         <v>45023.5</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="N80">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T80">
         <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB80">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5161153</v>
+        <v>5161632</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7668,76 @@
         <v>45023.5</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M81">
+        <v>3.75</v>
+      </c>
+      <c r="N81">
         <v>1.85</v>
       </c>
-      <c r="N81">
-        <v>4.5</v>
-      </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q81">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y81">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB81">
         <v>-0.5</v>
       </c>
-      <c r="AA81">
-        <v>0.5</v>
-      </c>
-      <c r="AB81">
-        <v>0.8</v>
-      </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7766,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K82">
         <v>2.25</v>
@@ -7831,7 +7834,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5161638</v>
+        <v>6502618</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,58 +7846,58 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="N83">
-        <v>2.7</v>
+        <v>1.125</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="P83">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
+        <v>3.25</v>
+      </c>
+      <c r="U83">
         <v>1.8</v>
       </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2</v>
-      </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>1.7</v>
+        <v>0.125</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7903,16 +7906,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6502618</v>
+        <v>5161638</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7935,58 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84">
+        <v>2.3</v>
+      </c>
+      <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
+        <v>2.9</v>
+      </c>
+      <c r="N84">
+        <v>2.7</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>2.5</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>47</v>
-      </c>
-      <c r="K84">
-        <v>1.1</v>
-      </c>
-      <c r="L84">
-        <v>8</v>
-      </c>
-      <c r="M84">
-        <v>17</v>
-      </c>
-      <c r="N84">
-        <v>1.125</v>
-      </c>
-      <c r="O84">
-        <v>7.5</v>
-      </c>
-      <c r="P84">
-        <v>19</v>
-      </c>
-      <c r="Q84">
-        <v>-2.25</v>
-      </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
         <v>1.8</v>
       </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
       <c r="W84">
-        <v>0.125</v>
+        <v>1.7</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7995,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA84">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8033,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>1.666</v>
@@ -8122,7 +8125,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>4.333</v>
@@ -8211,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>1.727</v>
@@ -8300,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>2.25</v>
@@ -8389,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>1.75</v>
@@ -8478,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.4</v>
@@ -8567,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>2.2</v>
@@ -8656,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8745,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93">
         <v>1.666</v>
@@ -8834,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>1.125</v>
@@ -8923,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>2.2</v>
@@ -9012,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>1.8</v>
@@ -9077,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6553764</v>
+        <v>6553763</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9092,76 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>49</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.95</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6553763</v>
+        <v>6553764</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9181,76 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K98">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>4.2</v>
+        <v>2.35</v>
       </c>
       <c r="N98">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="O98">
         <v>3.5</v>
       </c>
       <c r="P98">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
         <v>1.95</v>
       </c>
-      <c r="V98">
-        <v>1.85</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6557852</v>
+        <v>6553755</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,49 +9270,49 @@
         <v>45042.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>49</v>
       </c>
       <c r="K99">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
+        <v>2.9</v>
+      </c>
+      <c r="M99">
         <v>3.1</v>
       </c>
-      <c r="M99">
-        <v>2.05</v>
-      </c>
       <c r="N99">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9321,16 +9324,16 @@
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9344,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6553755</v>
+        <v>6557852</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,49 +9359,49 @@
         <v>45042.5625</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L100">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N100">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
         <v>2</v>
@@ -9410,16 +9413,16 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y100">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
@@ -9457,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>2.1</v>
@@ -9546,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -9724,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -9813,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.363</v>
@@ -9878,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6553333</v>
+        <v>6557854</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,73 +9893,73 @@
         <v>45046.5</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>48</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L106">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9967,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6557854</v>
+        <v>6553333</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,73 +9982,73 @@
         <v>45046.5</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107" t="s">
+        <v>49</v>
+      </c>
+      <c r="K107">
+        <v>1.909</v>
+      </c>
+      <c r="L107">
+        <v>3.25</v>
+      </c>
+      <c r="M107">
+        <v>3.5</v>
+      </c>
+      <c r="N107">
+        <v>1.8</v>
+      </c>
+      <c r="O107">
+        <v>3.3</v>
+      </c>
+      <c r="P107">
         <v>4</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>47</v>
-      </c>
-      <c r="K107">
-        <v>1.285</v>
-      </c>
-      <c r="L107">
-        <v>5</v>
-      </c>
-      <c r="M107">
-        <v>7.5</v>
-      </c>
-      <c r="N107">
-        <v>1.363</v>
-      </c>
-      <c r="O107">
-        <v>4.75</v>
-      </c>
-      <c r="P107">
-        <v>6.5</v>
-      </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10080,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>2.4</v>
@@ -10169,7 +10172,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>2.375</v>
@@ -10258,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>2.5</v>
@@ -10347,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>2.25</v>
@@ -10436,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10525,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10614,7 +10617,7 @@
         <v>4</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>3.9</v>
@@ -10703,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>1.833</v>
@@ -10792,7 +10795,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>11</v>
@@ -10881,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>1.4</v>
@@ -10946,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6553758</v>
+        <v>6553334</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10961,76 @@
         <v>45055.55208333334</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K118">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N118">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6553334</v>
+        <v>6553758</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11050,76 @@
         <v>45055.55208333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L119">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N119">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11148,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.363</v>
@@ -11237,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>1.3</v>
@@ -11326,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>1.181</v>
@@ -11415,7 +11418,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>2.875</v>
@@ -11504,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>1.2</v>
@@ -11593,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11682,7 +11685,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>1.571</v>
@@ -11771,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.85</v>
@@ -11860,7 +11863,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K128">
         <v>6</v>
@@ -11949,7 +11952,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
         <v>2.9</v>
@@ -12038,7 +12041,7 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>4.333</v>
@@ -12127,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>5.5</v>
@@ -12192,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6553339</v>
+        <v>6553338</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12207,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N132">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12305,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>1.95</v>
@@ -12370,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553761</v>
+        <v>6553339</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12385,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>5</v>
+      </c>
+      <c r="N134">
+        <v>1.727</v>
+      </c>
+      <c r="O134">
+        <v>3.4</v>
+      </c>
+      <c r="P134">
         <v>4.5</v>
       </c>
-      <c r="M134">
-        <v>7</v>
-      </c>
-      <c r="N134">
-        <v>1.4</v>
-      </c>
-      <c r="O134">
-        <v>4.333</v>
-      </c>
-      <c r="P134">
-        <v>6.5</v>
-      </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6553338</v>
+        <v>6553761</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,13 +12474,13 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12486,25 +12489,25 @@
         <v>48</v>
       </c>
       <c r="K135">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N135">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
         <v>1.975</v>
@@ -12513,34 +12516,34 @@
         <v>1.825</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6556917</v>
+        <v>6556912</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,46 +12563,46 @@
         <v>45073.5</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K136">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P136">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>2.25</v>
@@ -12614,22 +12617,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y136">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6556912</v>
+        <v>6553341</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,40 +12652,40 @@
         <v>45073.5</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R137">
         <v>1.9</v>
@@ -12700,19 +12703,19 @@
         <v>1.8</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X137">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
         <v>1</v>
@@ -12750,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>5.5</v>
@@ -12815,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6553341</v>
+        <v>6556917</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,46 +12830,46 @@
         <v>45073.5</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.25</v>
@@ -12878,25 +12881,25 @@
         <v>1.8</v>
       </c>
       <c r="W139">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12928,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>1.166</v>
@@ -12993,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6553775</v>
+        <v>6557300</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13008,76 @@
         <v>45074.5</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6557300</v>
+        <v>6553775</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13097,76 @@
         <v>45074.5</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N142">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13195,7 +13198,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>1.055</v>
@@ -13284,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
         <v>1.909</v>
@@ -13373,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.571</v>
@@ -13462,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K146">
         <v>2.2</v>
@@ -13551,7 +13554,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>2.75</v>
@@ -13640,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>2.1</v>
@@ -13729,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
         <v>1.909</v>
@@ -13818,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>1.166</v>
@@ -13907,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>2.1</v>
@@ -13996,7 +13999,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.8</v>
@@ -14085,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K153">
         <v>2.4</v>
@@ -14174,7 +14177,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
         <v>2.4</v>
@@ -14263,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>1.062</v>
@@ -14352,7 +14355,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
         <v>3.4</v>
@@ -14441,7 +14444,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K157">
         <v>3.4</v>
@@ -14530,7 +14533,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K158">
         <v>2.8</v>
@@ -14619,7 +14622,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>2.4</v>
@@ -14708,7 +14711,7 @@
         <v>4</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>19</v>
@@ -14773,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,61 +14788,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K161">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M161">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N161">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P161">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14848,13 +14851,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14865,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,61 +14877,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L162">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O162">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14937,13 +14940,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14975,7 +14978,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K163">
         <v>1.4</v>
@@ -15064,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K164">
         <v>3.1</v>
@@ -15153,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>1.3</v>
@@ -15242,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.1</v>
@@ -15331,7 +15334,7 @@
         <v>4</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>1.75</v>
@@ -15420,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>3.4</v>
@@ -15509,7 +15512,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>1.571</v>
@@ -15598,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>1.071</v>
@@ -15687,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K171">
         <v>3</v>
@@ -15776,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K172">
         <v>1.615</v>
@@ -15841,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15856,76 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" t="s">
+        <v>49</v>
+      </c>
+      <c r="K173">
+        <v>1.7</v>
+      </c>
+      <c r="L173">
+        <v>3.75</v>
+      </c>
+      <c r="M173">
+        <v>4.5</v>
+      </c>
+      <c r="N173">
+        <v>1.909</v>
+      </c>
+      <c r="O173">
+        <v>3.1</v>
+      </c>
+      <c r="P173">
+        <v>4</v>
+      </c>
+      <c r="Q173">
+        <v>-0.5</v>
+      </c>
+      <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
+        <v>1.825</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>1.875</v>
+      </c>
+      <c r="V173">
+        <v>1.925</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
         <v>3</v>
       </c>
-      <c r="J173" t="s">
-        <v>48</v>
-      </c>
-      <c r="K173">
-        <v>5.25</v>
-      </c>
-      <c r="L173">
-        <v>4</v>
-      </c>
-      <c r="M173">
-        <v>1.533</v>
-      </c>
-      <c r="N173">
-        <v>4</v>
-      </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
-      <c r="P173">
-        <v>1.85</v>
-      </c>
-      <c r="Q173">
-        <v>0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.875</v>
-      </c>
-      <c r="S173">
-        <v>1.925</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.825</v>
-      </c>
-      <c r="V173">
-        <v>1.975</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.825</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.925</v>
-      </c>
-      <c r="AB173">
-        <v>0.825</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,56 +15945,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N174">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O174">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>1.825</v>
+      </c>
+      <c r="V174">
         <v>1.975</v>
       </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>1.875</v>
-      </c>
-      <c r="V174">
-        <v>1.925</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
@@ -15999,19 +16002,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.925</v>
+      </c>
+      <c r="AB174">
         <v>0.825</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K175">
         <v>2.2</v>
@@ -16132,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>1.444</v>
@@ -16221,7 +16224,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>12</v>
@@ -16310,7 +16313,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>2.75</v>
@@ -16399,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>1.666</v>
@@ -16464,7 +16467,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16479,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L180">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
+        <v>1.5</v>
+      </c>
+      <c r="O180">
+        <v>3.6</v>
+      </c>
+      <c r="P180">
+        <v>6</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>1.85</v>
+      </c>
+      <c r="S180">
         <v>1.95</v>
       </c>
-      <c r="O180">
-        <v>3</v>
-      </c>
-      <c r="P180">
-        <v>3.75</v>
-      </c>
-      <c r="Q180">
-        <v>-0.5</v>
-      </c>
-      <c r="R180">
-        <v>2</v>
-      </c>
-      <c r="S180">
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
         <v>1.8</v>
       </c>
-      <c r="T180">
-        <v>2</v>
-      </c>
-      <c r="U180">
-        <v>1.85</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
+        <v>0.95</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.8</v>
-      </c>
-      <c r="AB180">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16568,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
         <v>49</v>
       </c>
       <c r="K181">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L181">
+        <v>3.1</v>
+      </c>
+      <c r="M181">
+        <v>2.875</v>
+      </c>
+      <c r="N181">
+        <v>1.95</v>
+      </c>
+      <c r="O181">
+        <v>3</v>
+      </c>
+      <c r="P181">
         <v>3.75</v>
       </c>
-      <c r="M181">
-        <v>7.5</v>
-      </c>
-      <c r="N181">
-        <v>1.5</v>
-      </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
-      <c r="P181">
-        <v>6</v>
-      </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
         <v>1.85</v>
       </c>
-      <c r="S181">
+      <c r="V181">
         <v>1.95</v>
       </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>2</v>
-      </c>
-      <c r="V181">
-        <v>1.8</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16666,7 +16669,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>1.333</v>
@@ -16755,7 +16758,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>3.4</v>
@@ -16844,7 +16847,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>2.3</v>
@@ -16933,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>1.062</v>
@@ -17022,7 +17025,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>2.3</v>
@@ -17111,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>1.5</v>
@@ -17200,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17289,7 +17292,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>5</v>
@@ -17378,7 +17381,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K190">
         <v>4</v>
@@ -17467,7 +17470,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>6.6</v>
@@ -17532,7 +17535,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,40 +17547,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H192">
+        <v>6</v>
+      </c>
+      <c r="I192">
         <v>3</v>
       </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M192">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N192">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O192">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P192">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R192">
         <v>2</v>
@@ -17586,16 +17589,16 @@
         <v>1.8</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17610,7 +17613,7 @@
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17621,7 +17624,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,40 +17636,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L193">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N193">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O193">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P193">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q193">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
         <v>2</v>
@@ -17675,16 +17678,16 @@
         <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17699,7 +17702,7 @@
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17734,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K194">
         <v>3.5</v>
@@ -17823,7 +17826,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>1.727</v>
@@ -17912,7 +17915,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>1.833</v>
@@ -18001,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K197">
         <v>1.727</v>
@@ -18090,7 +18093,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K198">
         <v>1.181</v>
@@ -18179,7 +18182,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>2.375</v>
@@ -18268,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K200">
         <v>2.15</v>
@@ -18357,7 +18360,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>2.15</v>
@@ -18446,7 +18449,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>5.5</v>
@@ -18535,7 +18538,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>1.4</v>
@@ -18624,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K204">
         <v>2.3</v>
@@ -18713,7 +18716,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>1.444</v>
@@ -18802,7 +18805,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K206">
         <v>3.4</v>
@@ -18891,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K207">
         <v>1.05</v>
@@ -18980,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K208">
         <v>4</v>
@@ -19069,7 +19072,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>2.1</v>
@@ -19158,7 +19161,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>6</v>
@@ -19247,7 +19250,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>2.25</v>
@@ -19336,7 +19339,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>2.1</v>
@@ -19425,7 +19428,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K213">
         <v>2.05</v>
@@ -19514,7 +19517,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K214">
         <v>1.65</v>
@@ -19603,7 +19606,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K215">
         <v>3.4</v>
@@ -19692,7 +19695,7 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K216">
         <v>1.833</v>
@@ -19781,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>1.2</v>
@@ -19870,7 +19873,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K218">
         <v>11</v>
@@ -19935,7 +19938,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19950,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
         <v>49</v>
       </c>
       <c r="K219">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L219">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M219">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N219">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P219">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q219">
         <v>-1.25</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
+        <v>1.85</v>
+      </c>
+      <c r="V219">
         <v>1.95</v>
       </c>
-      <c r="V219">
-        <v>1.85</v>
-      </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20039,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L220">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N220">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O220">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q220">
         <v>-1.25</v>
       </c>
       <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>1.8</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.95</v>
+      </c>
+      <c r="V220">
         <v>1.85</v>
       </c>
-      <c r="S220">
-        <v>1.95</v>
-      </c>
-      <c r="T220">
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
         <v>2.75</v>
       </c>
-      <c r="U220">
-        <v>1.85</v>
-      </c>
-      <c r="V220">
-        <v>1.95</v>
-      </c>
-      <c r="W220">
-        <v>-1</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
       <c r="Y220">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20137,7 +20140,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K221">
         <v>2.625</v>
@@ -20226,7 +20229,7 @@
         <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>2.2</v>
@@ -20315,7 +20318,7 @@
         <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>3.8</v>
@@ -20404,7 +20407,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K224">
         <v>1.5</v>
@@ -20493,7 +20496,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K225">
         <v>2.8</v>
@@ -20558,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,73 +20573,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>49</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>3.25</v>
+      </c>
+      <c r="M226">
+        <v>3.25</v>
+      </c>
+      <c r="N226">
+        <v>2.55</v>
+      </c>
+      <c r="O226">
+        <v>3.2</v>
+      </c>
+      <c r="P226">
+        <v>2.55</v>
+      </c>
+      <c r="Q226">
         <v>0</v>
       </c>
-      <c r="J226" t="s">
-        <v>47</v>
-      </c>
-      <c r="K226">
+      <c r="R226">
+        <v>1.9</v>
+      </c>
+      <c r="S226">
+        <v>1.9</v>
+      </c>
+      <c r="T226">
         <v>2.25</v>
       </c>
-      <c r="L226">
-        <v>3</v>
-      </c>
-      <c r="M226">
-        <v>3</v>
-      </c>
-      <c r="N226">
-        <v>1.363</v>
-      </c>
-      <c r="O226">
-        <v>3.8</v>
-      </c>
-      <c r="P226">
-        <v>9</v>
-      </c>
-      <c r="Q226">
-        <v>-1.25</v>
-      </c>
-      <c r="R226">
-        <v>1.825</v>
-      </c>
-      <c r="S226">
-        <v>1.975</v>
-      </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
       <c r="U226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W226">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z226">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20647,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,73 +20662,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
         <v>48</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L227">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M227">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N227">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P227">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R227">
+        <v>1.825</v>
+      </c>
+      <c r="S227">
+        <v>1.975</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
         <v>1.9</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.9</v>
       </c>
-      <c r="T227">
-        <v>2.25</v>
-      </c>
-      <c r="U227">
-        <v>1.875</v>
-      </c>
-      <c r="V227">
-        <v>1.925</v>
-      </c>
       <c r="W227">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB227">
-        <v>0.875</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20760,7 +20763,7 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K228">
         <v>2.5</v>
@@ -20849,7 +20852,7 @@
         <v>4</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K229">
         <v>5.75</v>
@@ -20938,7 +20941,7 @@
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K230">
         <v>2.2</v>
@@ -21027,7 +21030,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K231">
         <v>2</v>
@@ -21092,7 +21095,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,76 +21107,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K232">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L232">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M232">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N232">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O232">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P232">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q232">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
+        <v>1.825</v>
+      </c>
+      <c r="S232">
         <v>1.975</v>
       </c>
-      <c r="S232">
-        <v>1.825</v>
-      </c>
       <c r="T232">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y232">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
+        <v>-1</v>
+      </c>
+      <c r="AA232">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA232">
-        <v>-1</v>
-      </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21184,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21196,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
         <v>49</v>
       </c>
       <c r="K233">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L233">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M233">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N233">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O233">
+        <v>7.5</v>
+      </c>
+      <c r="P233">
+        <v>1.125</v>
+      </c>
+      <c r="Q233">
+        <v>2.25</v>
+      </c>
+      <c r="R233">
+        <v>1.975</v>
+      </c>
+      <c r="S233">
+        <v>1.825</v>
+      </c>
+      <c r="T233">
         <v>3.5</v>
       </c>
-      <c r="P233">
-        <v>5</v>
-      </c>
-      <c r="Q233">
-        <v>-0.75</v>
-      </c>
-      <c r="R233">
+      <c r="U233">
         <v>1.825</v>
       </c>
-      <c r="S233">
+      <c r="V233">
         <v>1.975</v>
       </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>2</v>
-      </c>
-      <c r="V233">
-        <v>1.8</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA233">
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB233">
-        <v>-1</v>
-      </c>
-      <c r="AC233">
-        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21294,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K234">
         <v>2.05</v>
@@ -21383,7 +21386,7 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K235">
         <v>2</v>
@@ -21472,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K236">
         <v>1.3</v>
@@ -21561,7 +21564,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K237">
         <v>1.5</v>
@@ -21650,7 +21653,7 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K238">
         <v>1.25</v>
@@ -21739,7 +21742,7 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K239">
         <v>1.071</v>
@@ -21828,7 +21831,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K240">
         <v>1.4</v>
@@ -21917,7 +21920,7 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K241">
         <v>2.3</v>
@@ -22006,7 +22009,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K242">
         <v>2.2</v>
@@ -22095,7 +22098,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K243">
         <v>6.5</v>
@@ -22184,7 +22187,7 @@
         <v>3</v>
       </c>
       <c r="J244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K244">
         <v>2.1</v>
@@ -22273,7 +22276,7 @@
         <v>4</v>
       </c>
       <c r="J245" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K245">
         <v>2.3</v>
@@ -22362,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K246">
         <v>2.375</v>
@@ -22451,7 +22454,7 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K247">
         <v>2.1</v>
@@ -22540,7 +22543,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K248">
         <v>2.2</v>
@@ -22629,7 +22632,7 @@
         <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K249">
         <v>2.5</v>
@@ -22718,7 +22721,7 @@
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K250">
         <v>7.5</v>
@@ -22807,7 +22810,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K251">
         <v>2</v>
@@ -22896,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K252">
         <v>2.25</v>
@@ -22985,7 +22988,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K253">
         <v>1.444</v>
@@ -23074,7 +23077,7 @@
         <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K254">
         <v>2.1</v>
@@ -23163,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K255">
         <v>3.6</v>
@@ -23252,7 +23255,7 @@
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K256">
         <v>2</v>
@@ -23341,7 +23344,7 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K257">
         <v>2.6</v>
@@ -23430,7 +23433,7 @@
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K258">
         <v>7</v>
@@ -23519,7 +23522,7 @@
         <v>4</v>
       </c>
       <c r="J259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K259">
         <v>1.533</v>
@@ -23608,7 +23611,7 @@
         <v>4</v>
       </c>
       <c r="J260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K260">
         <v>2.25</v>
@@ -23697,7 +23700,7 @@
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K261">
         <v>3</v>
@@ -23786,7 +23789,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K262">
         <v>2.3</v>
@@ -23875,7 +23878,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
         <v>2.2</v>
@@ -23964,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K264">
         <v>1.95</v>
@@ -24053,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K265">
         <v>1.833</v>
@@ -24118,7 +24121,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,49 +24133,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G266" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K266">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M266">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N266">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O266">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P266">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q266">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S266">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T266">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U266">
         <v>1.775</v>
@@ -24181,7 +24184,7 @@
         <v>2.025</v>
       </c>
       <c r="W266">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24190,16 +24193,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA266">
+        <v>-1</v>
+      </c>
+      <c r="AB266">
+        <v>-1</v>
+      </c>
+      <c r="AC266">
         <v>1.025</v>
-      </c>
-      <c r="AA266">
-        <v>-1</v>
-      </c>
-      <c r="AB266">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC266">
-        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24207,7 +24210,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24219,49 +24222,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G267" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K267">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L267">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M267">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N267">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O267">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P267">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R267">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S267">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T267">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U267">
         <v>1.775</v>
@@ -24270,7 +24273,7 @@
         <v>2.025</v>
       </c>
       <c r="W267">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24279,16 +24282,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC267">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24320,7 +24323,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K268">
         <v>2.4</v>
@@ -24409,7 +24412,7 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K269">
         <v>1.533</v>
@@ -24498,7 +24501,7 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K270">
         <v>9</v>
@@ -24587,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K271">
         <v>1.444</v>
@@ -24676,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K272">
         <v>3.5</v>
@@ -24765,7 +24768,7 @@
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K273">
         <v>1.055</v>
@@ -24854,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K274">
         <v>2.2</v>
@@ -24943,7 +24946,7 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K275">
         <v>2.5</v>
@@ -25032,7 +25035,7 @@
         <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K276">
         <v>3.5</v>
@@ -25121,7 +25124,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K277">
         <v>2.5</v>
@@ -25210,7 +25213,7 @@
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K278">
         <v>5</v>
@@ -25299,7 +25302,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K279">
         <v>1.55</v>
@@ -25388,7 +25391,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K280">
         <v>1.666</v>
@@ -25477,7 +25480,7 @@
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K281">
         <v>2</v>
@@ -25542,7 +25545,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25554,55 +25557,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K282">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L282">
         <v>3.2</v>
       </c>
       <c r="M282">
+        <v>3.1</v>
+      </c>
+      <c r="N282">
         <v>2.4</v>
       </c>
-      <c r="N282">
-        <v>3</v>
-      </c>
       <c r="O282">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P282">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q282">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25611,19 +25614,19 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC282">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25631,7 +25634,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,55 +25646,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K283">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L283">
         <v>3.2</v>
       </c>
       <c r="M283">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N283">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O283">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P283">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S283">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T283">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V283">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W283">
         <v>-1</v>
@@ -25700,19 +25703,19 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB283">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25744,7 +25747,7 @@
         <v>4</v>
       </c>
       <c r="J284" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K284">
         <v>9</v>
@@ -25833,7 +25836,7 @@
         <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K285">
         <v>1.285</v>
@@ -25922,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K286">
         <v>1.5</v>
@@ -26011,7 +26014,7 @@
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K287">
         <v>1.5</v>
@@ -26100,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K288">
         <v>1.727</v>
@@ -26189,7 +26192,7 @@
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K289">
         <v>3.75</v>
@@ -26278,7 +26281,7 @@
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K290">
         <v>1.8</v>
@@ -26367,7 +26370,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K291">
         <v>1.727</v>
@@ -26456,7 +26459,7 @@
         <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K292">
         <v>3.1</v>
@@ -26545,7 +26548,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K293">
         <v>1.4</v>
@@ -26634,7 +26637,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K294">
         <v>2.25</v>
@@ -26723,7 +26726,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K295">
         <v>1.222</v>
@@ -26812,7 +26815,7 @@
         <v>3</v>
       </c>
       <c r="J296" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K296">
         <v>3.75</v>
@@ -26901,7 +26904,7 @@
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K297">
         <v>2.5</v>
@@ -26990,7 +26993,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K298">
         <v>5.75</v>
@@ -27079,7 +27082,7 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K299">
         <v>1.45</v>
@@ -27168,7 +27171,7 @@
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K300">
         <v>1.09</v>
@@ -27257,7 +27260,7 @@
         <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K301">
         <v>2.15</v>
@@ -27346,7 +27349,7 @@
         <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K302">
         <v>3.4</v>
@@ -27435,7 +27438,7 @@
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K303">
         <v>2.2</v>
@@ -27500,7 +27503,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6979544</v>
+        <v>6978755</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27509,34 +27512,43 @@
         <v>28</v>
       </c>
       <c r="E304" s="2">
-        <v>45340.375</v>
+        <v>45339.41666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G304" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>3</v>
+      </c>
+      <c r="J304" t="s">
+        <v>49</v>
       </c>
       <c r="K304">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L304">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M304">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N304">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O304">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P304">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="Q304">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R304">
         <v>1.925</v>
@@ -27545,36 +27557,42 @@
         <v>1.875</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U304">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V304">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W304">
+        <v>-1</v>
+      </c>
+      <c r="X304">
+        <v>-1</v>
+      </c>
+      <c r="Y304">
+        <v>0.222</v>
+      </c>
+      <c r="Z304">
+        <v>-1</v>
+      </c>
+      <c r="AA304">
+        <v>0.875</v>
+      </c>
+      <c r="AB304">
         <v>0</v>
       </c>
-      <c r="X304">
-        <v>0</v>
-      </c>
-      <c r="Y304">
-        <v>0</v>
-      </c>
-      <c r="Z304">
-        <v>0</v>
-      </c>
-      <c r="AA304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:27">
+      <c r="AC304">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6979550</v>
+        <v>6979546</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27583,72 +27601,87 @@
         <v>28</v>
       </c>
       <c r="E305" s="2">
-        <v>45340.45833333334</v>
+        <v>45339.51041666666</v>
       </c>
       <c r="F305" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G305" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="H305">
+        <v>5</v>
+      </c>
+      <c r="I305">
+        <v>2</v>
+      </c>
+      <c r="J305" t="s">
+        <v>48</v>
       </c>
       <c r="K305">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L305">
+        <v>5.75</v>
+      </c>
+      <c r="M305">
+        <v>11</v>
+      </c>
+      <c r="N305">
+        <v>1.222</v>
+      </c>
+      <c r="O305">
+        <v>5.75</v>
+      </c>
+      <c r="P305">
+        <v>8.5</v>
+      </c>
+      <c r="Q305">
+        <v>-1.75</v>
+      </c>
+      <c r="R305">
+        <v>1.825</v>
+      </c>
+      <c r="S305">
+        <v>1.975</v>
+      </c>
+      <c r="T305">
         <v>3.25</v>
       </c>
-      <c r="M305">
-        <v>2.8</v>
-      </c>
-      <c r="N305">
-        <v>2</v>
-      </c>
-      <c r="O305">
-        <v>3.3</v>
-      </c>
-      <c r="P305">
-        <v>3.1</v>
-      </c>
-      <c r="Q305">
-        <v>-0.25</v>
-      </c>
-      <c r="R305">
-        <v>1.85</v>
-      </c>
-      <c r="S305">
-        <v>1.95</v>
-      </c>
-      <c r="T305">
-        <v>2.5</v>
-      </c>
       <c r="U305">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V305">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="X305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB305">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC305">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6979547</v>
+        <v>6979548</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27657,72 +27690,87 @@
         <v>28</v>
       </c>
       <c r="E306" s="2">
-        <v>45340.54166666666</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F306" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G306" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="H306">
+        <v>2</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306" t="s">
+        <v>48</v>
       </c>
       <c r="K306">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="L306">
         <v>4.333</v>
       </c>
       <c r="M306">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N306">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O306">
         <v>4.333</v>
       </c>
       <c r="P306">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q306">
         <v>-1.25</v>
       </c>
       <c r="R306">
+        <v>1.975</v>
+      </c>
+      <c r="S306">
         <v>1.825</v>
-      </c>
-      <c r="S306">
-        <v>1.975</v>
       </c>
       <c r="T306">
         <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V306">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W306">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:27">
+        <v>0.4125</v>
+      </c>
+      <c r="AB306">
+        <v>0.5</v>
+      </c>
+      <c r="AC306">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6979545</v>
+        <v>6979544</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27731,72 +27779,87 @@
         <v>28</v>
       </c>
       <c r="E307" s="2">
-        <v>45340.54166666666</v>
+        <v>45340.375</v>
       </c>
       <c r="F307" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G307" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="H307">
+        <v>2</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307" t="s">
+        <v>48</v>
       </c>
       <c r="K307">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L307">
         <v>3.25</v>
       </c>
       <c r="M307">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N307">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O307">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P307">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q307">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R307">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S307">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T307">
         <v>2.5</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB307">
+        <v>0.95</v>
+      </c>
+      <c r="AC307">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6979549</v>
+        <v>6979550</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27805,31 +27868,40 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45341.54166666666</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308" t="s">
+        <v>49</v>
       </c>
       <c r="K308">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L308">
         <v>3.25</v>
       </c>
       <c r="M308">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N308">
         <v>2.05</v>
       </c>
       <c r="O308">
+        <v>3.1</v>
+      </c>
+      <c r="P308">
         <v>3.3</v>
-      </c>
-      <c r="P308">
-        <v>3.1</v>
       </c>
       <c r="Q308">
         <v>-0.25</v>
@@ -27841,27 +27913,285 @@
         <v>1.975</v>
       </c>
       <c r="T308">
+        <v>2</v>
+      </c>
+      <c r="U308">
+        <v>1.75</v>
+      </c>
+      <c r="V308">
+        <v>2.05</v>
+      </c>
+      <c r="W308">
+        <v>-1</v>
+      </c>
+      <c r="X308">
+        <v>-1</v>
+      </c>
+      <c r="Y308">
+        <v>2.3</v>
+      </c>
+      <c r="Z308">
+        <v>-1</v>
+      </c>
+      <c r="AA308">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB308">
+        <v>-1</v>
+      </c>
+      <c r="AC308">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>6979547</v>
+      </c>
+      <c r="C309" t="s">
+        <v>28</v>
+      </c>
+      <c r="D309" t="s">
+        <v>28</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45340.54166666666</v>
+      </c>
+      <c r="F309" t="s">
+        <v>39</v>
+      </c>
+      <c r="G309" t="s">
+        <v>37</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309" t="s">
+        <v>48</v>
+      </c>
+      <c r="K309">
+        <v>1.333</v>
+      </c>
+      <c r="L309">
+        <v>4.333</v>
+      </c>
+      <c r="M309">
+        <v>7.5</v>
+      </c>
+      <c r="N309">
+        <v>1.25</v>
+      </c>
+      <c r="O309">
+        <v>4.75</v>
+      </c>
+      <c r="P309">
+        <v>10</v>
+      </c>
+      <c r="Q309">
+        <v>-1.5</v>
+      </c>
+      <c r="R309">
+        <v>1.85</v>
+      </c>
+      <c r="S309">
+        <v>1.95</v>
+      </c>
+      <c r="T309">
+        <v>2.5</v>
+      </c>
+      <c r="U309">
+        <v>1.8</v>
+      </c>
+      <c r="V309">
+        <v>2</v>
+      </c>
+      <c r="W309">
+        <v>0.25</v>
+      </c>
+      <c r="X309">
+        <v>-1</v>
+      </c>
+      <c r="Y309">
+        <v>-1</v>
+      </c>
+      <c r="Z309">
+        <v>-1</v>
+      </c>
+      <c r="AA309">
+        <v>0.95</v>
+      </c>
+      <c r="AB309">
+        <v>-1</v>
+      </c>
+      <c r="AC309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>6979545</v>
+      </c>
+      <c r="C310" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45340.54166666666</v>
+      </c>
+      <c r="F310" t="s">
+        <v>31</v>
+      </c>
+      <c r="G310" t="s">
+        <v>43</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310" t="s">
+        <v>48</v>
+      </c>
+      <c r="K310">
+        <v>2</v>
+      </c>
+      <c r="L310">
+        <v>3.25</v>
+      </c>
+      <c r="M310">
+        <v>3.25</v>
+      </c>
+      <c r="N310">
+        <v>1.727</v>
+      </c>
+      <c r="O310">
+        <v>3.3</v>
+      </c>
+      <c r="P310">
+        <v>4.2</v>
+      </c>
+      <c r="Q310">
+        <v>-0.5</v>
+      </c>
+      <c r="R310">
+        <v>1.825</v>
+      </c>
+      <c r="S310">
+        <v>1.975</v>
+      </c>
+      <c r="T310">
         <v>2.25</v>
       </c>
-      <c r="U308">
-        <v>1.875</v>
-      </c>
-      <c r="V308">
-        <v>1.925</v>
-      </c>
-      <c r="W308">
+      <c r="U310">
+        <v>1.825</v>
+      </c>
+      <c r="V310">
+        <v>1.975</v>
+      </c>
+      <c r="W310">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X310">
+        <v>-1</v>
+      </c>
+      <c r="Y310">
+        <v>-1</v>
+      </c>
+      <c r="Z310">
+        <v>0.825</v>
+      </c>
+      <c r="AA310">
+        <v>-1</v>
+      </c>
+      <c r="AB310">
+        <v>-1</v>
+      </c>
+      <c r="AC310">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>6979549</v>
+      </c>
+      <c r="C311" t="s">
+        <v>28</v>
+      </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45341.54166666666</v>
+      </c>
+      <c r="F311" t="s">
+        <v>40</v>
+      </c>
+      <c r="G311" t="s">
+        <v>34</v>
+      </c>
+      <c r="K311">
+        <v>2.1</v>
+      </c>
+      <c r="L311">
+        <v>3.25</v>
+      </c>
+      <c r="M311">
+        <v>3</v>
+      </c>
+      <c r="N311">
+        <v>2.05</v>
+      </c>
+      <c r="O311">
+        <v>3.25</v>
+      </c>
+      <c r="P311">
+        <v>3.1</v>
+      </c>
+      <c r="Q311">
+        <v>-0.25</v>
+      </c>
+      <c r="R311">
+        <v>1.825</v>
+      </c>
+      <c r="S311">
+        <v>1.975</v>
+      </c>
+      <c r="T311">
+        <v>2.25</v>
+      </c>
+      <c r="U311">
+        <v>1.9</v>
+      </c>
+      <c r="V311">
+        <v>1.9</v>
+      </c>
+      <c r="W311">
         <v>0</v>
       </c>
-      <c r="X308">
+      <c r="X311">
         <v>0</v>
       </c>
-      <c r="Y308">
+      <c r="Y311">
         <v>0</v>
       </c>
-      <c r="Z308">
+      <c r="Z311">
         <v>0</v>
       </c>
-      <c r="AA308">
+      <c r="AA311">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>Vojvodina</t>
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5161589</v>
+        <v>5161591</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,73 +1530,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>1.45</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M12">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="N12">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC12">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5161591</v>
+        <v>5161589</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,73 +1619,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>1.45</v>
+      </c>
+      <c r="L13">
+        <v>3.6</v>
+      </c>
+      <c r="M13">
+        <v>7.5</v>
+      </c>
+      <c r="N13">
+        <v>1.55</v>
+      </c>
+      <c r="O13">
+        <v>3.5</v>
+      </c>
+      <c r="P13">
         <v>6</v>
       </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>5.25</v>
-      </c>
-      <c r="M13">
-        <v>1.222</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-      <c r="O13">
-        <v>5.25</v>
-      </c>
-      <c r="P13">
-        <v>1.2</v>
-      </c>
       <c r="Q13">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>44980.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3218,7 +3218,7 @@
         <v>44982.5</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3577,7 +3577,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3933,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4731,7 +4731,7 @@
         <v>44992.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5161614</v>
+        <v>5161146</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,76 +5176,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S53">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5161146</v>
+        <v>5161614</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,76 +5265,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
+        <v>3.4</v>
+      </c>
+      <c r="N54">
+        <v>1.5</v>
+      </c>
+      <c r="O54">
         <v>3.6</v>
       </c>
-      <c r="N54">
-        <v>1.95</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
       <c r="P54">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S54">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>44</v>
@@ -6247,7 +6247,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6600,7 +6600,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>43</v>
@@ -6870,7 +6870,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5161630</v>
+        <v>5161152</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>45021.57291666666</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y76">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5161152</v>
+        <v>5161630</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45021.57291666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="L77">
+        <v>5.5</v>
+      </c>
+      <c r="M77">
+        <v>1.181</v>
+      </c>
+      <c r="N77">
+        <v>9.5</v>
+      </c>
+      <c r="O77">
+        <v>4.75</v>
+      </c>
+      <c r="P77">
+        <v>1.25</v>
+      </c>
+      <c r="Q77">
+        <v>1.75</v>
+      </c>
+      <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
+        <v>1.975</v>
+      </c>
+      <c r="T77">
         <v>3</v>
       </c>
-      <c r="M77">
-        <v>2.5</v>
-      </c>
-      <c r="N77">
-        <v>1.7</v>
-      </c>
-      <c r="O77">
-        <v>3.4</v>
-      </c>
-      <c r="P77">
-        <v>4.2</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.775</v>
-      </c>
-      <c r="S77">
-        <v>2.025</v>
-      </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7668,7 +7668,7 @@
         <v>45023.5</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
         <v>41</v>
@@ -7834,7 +7834,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6502618</v>
+        <v>5161638</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7846,58 +7846,58 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
       </c>
       <c r="K83">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="L83">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.125</v>
+        <v>2.7</v>
       </c>
       <c r="O83">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q83">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="V83">
-        <v>2</v>
-      </c>
       <c r="W83">
-        <v>0.125</v>
+        <v>1.7</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7906,16 +7906,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7923,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5161638</v>
+        <v>6502618</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7935,58 +7935,58 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="N84">
-        <v>2.7</v>
+        <v>1.125</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
+        <v>3.25</v>
+      </c>
+      <c r="U84">
         <v>1.8</v>
       </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>1.7</v>
+        <v>0.125</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7995,16 +7995,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8113,10 +8113,10 @@
         <v>45027.54166666666</v>
       </c>
       <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" t="s">
         <v>40</v>
-      </c>
-      <c r="G86" t="s">
-        <v>39</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6544515</v>
+        <v>6544513</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
         <v>3</v>
       </c>
-      <c r="M90">
-        <v>2.75</v>
-      </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O90">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.775</v>
+      </c>
+      <c r="V90">
         <v>2.025</v>
       </c>
-      <c r="S90">
-        <v>1.775</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1.025</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6544513</v>
+        <v>6544515</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
+        <v>2.8</v>
+      </c>
+      <c r="O91">
+        <v>2.8</v>
+      </c>
+      <c r="P91">
         <v>2.45</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.625</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
+        <v>2.025</v>
+      </c>
+      <c r="S91">
+        <v>1.775</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="S91">
-        <v>1.975</v>
-      </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.775</v>
-      </c>
-      <c r="V91">
-        <v>2.025</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8828,7 +8828,7 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -9095,7 +9095,7 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>45043.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9807,7 +9807,7 @@
         <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10249,7 +10249,7 @@
         <v>45047.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10608,7 +10608,7 @@
         <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10783,7 +10783,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -11317,10 +11317,10 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F122" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" t="s">
         <v>39</v>
-      </c>
-      <c r="G122" t="s">
-        <v>40</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12118,7 +12118,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6553762</v>
+        <v>6553761</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,49 +12296,49 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="L133">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M133">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
         <v>1.875</v>
@@ -12347,25 +12347,25 @@
         <v>1.925</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553339</v>
+        <v>6553762</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,76 +12385,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N134">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
         <v>1.8</v>
       </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6553761</v>
+        <v>6553339</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,76 +12474,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>5</v>
+      </c>
+      <c r="N135">
+        <v>1.727</v>
+      </c>
+      <c r="O135">
+        <v>3.4</v>
+      </c>
+      <c r="P135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>7</v>
-      </c>
-      <c r="N135">
-        <v>1.4</v>
-      </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>6.5</v>
-      </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6556912</v>
+        <v>6553340</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,73 +12563,73 @@
         <v>45073.5</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>2</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K136">
+        <v>5.5</v>
+      </c>
+      <c r="L136">
         <v>3.4</v>
       </c>
-      <c r="L136">
-        <v>2.9</v>
-      </c>
       <c r="M136">
+        <v>1.571</v>
+      </c>
+      <c r="N136">
+        <v>7.5</v>
+      </c>
+      <c r="O136">
+        <v>3.75</v>
+      </c>
+      <c r="P136">
+        <v>1.4</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
         <v>2.1</v>
       </c>
-      <c r="N136">
-        <v>3.1</v>
-      </c>
-      <c r="O136">
-        <v>3.1</v>
-      </c>
-      <c r="P136">
-        <v>2.15</v>
-      </c>
-      <c r="Q136">
-        <v>0.25</v>
-      </c>
-      <c r="R136">
-        <v>1.9</v>
-      </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X136">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.45</v>
+        <v>1.1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6553340</v>
+        <v>6556912</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,73 +12741,73 @@
         <v>45073.5</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N138">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q138">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1.1</v>
+        <v>0.45</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12922,7 +12922,7 @@
         <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6557300</v>
+        <v>6553775</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45074.5</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X141">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6553775</v>
+        <v>6557300</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45074.5</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L142">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,58 +13275,58 @@
         <v>45136.57986111111</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>1.533</v>
+      </c>
+      <c r="O144">
         <v>3.6</v>
       </c>
-      <c r="N144">
-        <v>1.909</v>
-      </c>
-      <c r="O144">
-        <v>3.1</v>
-      </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13335,16 +13335,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,58 +13364,58 @@
         <v>45136.57986111111</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L145">
+        <v>3.2</v>
+      </c>
+      <c r="M145">
         <v>3.6</v>
       </c>
-      <c r="M145">
-        <v>5</v>
-      </c>
       <c r="N145">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13424,16 +13424,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
         <v>43</v>
@@ -13542,7 +13542,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13990,7 +13990,7 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,58 +14791,58 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L161">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N161">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X161">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14851,13 +14851,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14865,7 +14865,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,58 +14880,58 @@
         <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M162">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14940,13 +14940,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15681,7 +15681,7 @@
         <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,56 +15856,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
+        <v>1.825</v>
+      </c>
+      <c r="V173">
         <v>1.975</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.875</v>
-      </c>
-      <c r="V173">
-        <v>1.925</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15913,19 +15913,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.925</v>
+      </c>
+      <c r="AB173">
         <v>0.825</v>
       </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,56 +15945,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>49</v>
       </c>
       <c r="K174">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L174">
+        <v>3.75</v>
+      </c>
+      <c r="M174">
+        <v>4.5</v>
+      </c>
+      <c r="N174">
+        <v>1.909</v>
+      </c>
+      <c r="O174">
+        <v>3.1</v>
+      </c>
+      <c r="P174">
         <v>4</v>
       </c>
-      <c r="M174">
-        <v>1.533</v>
-      </c>
-      <c r="N174">
-        <v>4</v>
-      </c>
-      <c r="O174">
-        <v>3.3</v>
-      </c>
-      <c r="P174">
-        <v>1.85</v>
-      </c>
       <c r="Q174">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
         <v>1.875</v>
       </c>
-      <c r="S174">
+      <c r="V174">
         <v>1.925</v>
       </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
-      <c r="V174">
-        <v>1.975</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
@@ -16002,19 +16002,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.825</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.925</v>
-      </c>
-      <c r="AB174">
-        <v>0.825</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
@@ -16212,7 +16212,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16749,7 +16749,7 @@
         <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16838,7 +16838,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,58 +16924,58 @@
         <v>45171.625</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N185">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O185">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q185">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16984,16 +16984,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17013,58 +17013,58 @@
         <v>45171.625</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M186">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N186">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P186">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17535,7 +17535,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,37 +17550,37 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H192">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>48</v>
       </c>
       <c r="K192">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L192">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M192">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N192">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O192">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P192">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q192">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
         <v>2</v>
@@ -17589,16 +17589,16 @@
         <v>1.8</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17613,7 +17613,7 @@
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17624,7 +17624,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,37 +17639,37 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H193">
+        <v>6</v>
+      </c>
+      <c r="I193">
         <v>3</v>
-      </c>
-      <c r="I193">
-        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N193">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O193">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P193">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R193">
         <v>2</v>
@@ -17678,16 +17678,16 @@
         <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W193">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17702,7 +17702,7 @@
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -18351,7 +18351,7 @@
         <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,58 +18526,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L203">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N203">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O203">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P203">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V203">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W203">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,16 +18586,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC203">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,58 +18615,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>48</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M204">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N204">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O204">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P204">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,16 +18675,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19327,7 +19327,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
         <v>35</v>
@@ -19950,7 +19950,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
         <v>33</v>
@@ -20042,7 +20042,7 @@
         <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20484,10 +20484,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F225" t="s">
+        <v>39</v>
+      </c>
+      <c r="G225" t="s">
         <v>40</v>
-      </c>
-      <c r="G225" t="s">
-        <v>39</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20573,73 +20573,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M226">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N226">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O226">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P226">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
+        <v>1.825</v>
+      </c>
+      <c r="S226">
+        <v>1.975</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
         <v>1.9</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.9</v>
       </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>1.875</v>
-      </c>
-      <c r="V226">
-        <v>1.925</v>
-      </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB226">
-        <v>0.875</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,73 +20662,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>49</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>3.25</v>
+      </c>
+      <c r="M227">
+        <v>3.25</v>
+      </c>
+      <c r="N227">
+        <v>2.55</v>
+      </c>
+      <c r="O227">
+        <v>3.2</v>
+      </c>
+      <c r="P227">
+        <v>2.55</v>
+      </c>
+      <c r="Q227">
         <v>0</v>
       </c>
-      <c r="J227" t="s">
-        <v>48</v>
-      </c>
-      <c r="K227">
+      <c r="R227">
+        <v>1.9</v>
+      </c>
+      <c r="S227">
+        <v>1.9</v>
+      </c>
+      <c r="T227">
         <v>2.25</v>
       </c>
-      <c r="L227">
-        <v>3</v>
-      </c>
-      <c r="M227">
-        <v>3</v>
-      </c>
-      <c r="N227">
-        <v>1.363</v>
-      </c>
-      <c r="O227">
-        <v>3.8</v>
-      </c>
-      <c r="P227">
-        <v>9</v>
-      </c>
-      <c r="Q227">
-        <v>-1.25</v>
-      </c>
-      <c r="R227">
-        <v>1.825</v>
-      </c>
-      <c r="S227">
-        <v>1.975</v>
-      </c>
-      <c r="T227">
-        <v>2.5</v>
-      </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z227">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -21095,7 +21095,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21107,76 +21107,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L232">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M232">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N232">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O232">
+        <v>7.5</v>
+      </c>
+      <c r="P232">
+        <v>1.125</v>
+      </c>
+      <c r="Q232">
+        <v>2.25</v>
+      </c>
+      <c r="R232">
+        <v>1.975</v>
+      </c>
+      <c r="S232">
+        <v>1.825</v>
+      </c>
+      <c r="T232">
         <v>3.5</v>
       </c>
-      <c r="P232">
-        <v>5</v>
-      </c>
-      <c r="Q232">
-        <v>-0.75</v>
-      </c>
-      <c r="R232">
+      <c r="U232">
         <v>1.825</v>
       </c>
-      <c r="S232">
+      <c r="V232">
         <v>1.975</v>
       </c>
-      <c r="T232">
-        <v>2.5</v>
-      </c>
-      <c r="U232">
-        <v>2</v>
-      </c>
-      <c r="V232">
-        <v>1.8</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA232">
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB232">
-        <v>-1</v>
-      </c>
-      <c r="AC232">
-        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21184,7 +21184,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21196,76 +21196,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L233">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M233">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N233">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O233">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q233">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
+        <v>1.825</v>
+      </c>
+      <c r="S233">
         <v>1.975</v>
       </c>
-      <c r="S233">
-        <v>1.825</v>
-      </c>
       <c r="T233">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y233">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA233">
-        <v>-1</v>
-      </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21466,7 +21466,7 @@
         <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -21552,7 +21552,7 @@
         <v>45228.625</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
         <v>35</v>
@@ -21644,7 +21644,7 @@
         <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G242" t="s">
         <v>31</v>
@@ -22534,7 +22534,7 @@
         <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -23065,7 +23065,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G254" t="s">
         <v>41</v>
@@ -23513,7 +23513,7 @@
         <v>42</v>
       </c>
       <c r="G259" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23869,7 +23869,7 @@
         <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H263">
         <v>4</v>
@@ -24121,7 +24121,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24133,49 +24133,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F266" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G266" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
         <v>48</v>
       </c>
       <c r="K266">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L266">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M266">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N266">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O266">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P266">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q266">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R266">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S266">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U266">
         <v>1.775</v>
@@ -24184,7 +24184,7 @@
         <v>2.025</v>
       </c>
       <c r="W266">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24193,16 +24193,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC266">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24210,7 +24210,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24222,49 +24222,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G267" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
         <v>48</v>
       </c>
       <c r="K267">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M267">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N267">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O267">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P267">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q267">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S267">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T267">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
         <v>1.775</v>
@@ -24273,7 +24273,7 @@
         <v>2.025</v>
       </c>
       <c r="W267">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24282,16 +24282,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA267">
+        <v>-1</v>
+      </c>
+      <c r="AB267">
+        <v>-1</v>
+      </c>
+      <c r="AC267">
         <v>1.025</v>
-      </c>
-      <c r="AA267">
-        <v>-1</v>
-      </c>
-      <c r="AB267">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC267">
-        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>45262.625</v>
       </c>
       <c r="F268" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G268" t="s">
         <v>46</v>
@@ -24578,7 +24578,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G271" t="s">
         <v>31</v>
@@ -24670,7 +24670,7 @@
         <v>30</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25468,7 +25468,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G281" t="s">
         <v>45</v>
@@ -25545,7 +25545,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25557,55 +25557,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G282" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
         <v>49</v>
       </c>
       <c r="K282">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L282">
         <v>3.2</v>
       </c>
       <c r="M282">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N282">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O282">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R282">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25614,19 +25614,19 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB282">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25634,7 +25634,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25646,55 +25646,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>49</v>
       </c>
       <c r="K283">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L283">
         <v>3.2</v>
       </c>
       <c r="M283">
+        <v>3.1</v>
+      </c>
+      <c r="N283">
         <v>2.4</v>
       </c>
-      <c r="N283">
-        <v>3</v>
-      </c>
       <c r="O283">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P283">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q283">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S283">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W283">
         <v>-1</v>
@@ -25703,19 +25703,19 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25913,7 +25913,7 @@
         <v>45278.5</v>
       </c>
       <c r="F286" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G286" t="s">
         <v>43</v>
@@ -26447,7 +26447,7 @@
         <v>45281.625</v>
       </c>
       <c r="F292" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G292" t="s">
         <v>41</v>
@@ -26714,7 +26714,7 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F295" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G295" t="s">
         <v>34</v>
@@ -27162,7 +27162,7 @@
         <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H300">
         <v>2</v>
@@ -27340,7 +27340,7 @@
         <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -27948,7 +27948,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27960,10 +27960,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G309" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27975,43 +27975,43 @@
         <v>48</v>
       </c>
       <c r="K309">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L309">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M309">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N309">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O309">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P309">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q309">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R309">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W309">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28020,16 +28020,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28037,7 +28037,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28049,10 +28049,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G310" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28064,43 +28064,43 @@
         <v>48</v>
       </c>
       <c r="K310">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L310">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M310">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N310">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O310">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P310">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q310">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R310">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S310">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T310">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W310">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28109,16 +28109,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,11 +28138,20 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F311" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G311" t="s">
         <v>34</v>
       </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
+        <v>2</v>
+      </c>
+      <c r="J311" t="s">
+        <v>49</v>
+      </c>
       <c r="K311">
         <v>2.1</v>
       </c>
@@ -28153,46 +28162,52 @@
         <v>3</v>
       </c>
       <c r="N311">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O311">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P311">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R311">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S311">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T311">
         <v>2.25</v>
       </c>
       <c r="U311">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V311">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB311">
+        <v>0.95</v>
+      </c>
+      <c r="AC311">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
     <t>Vojvodina</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC311"/>
+  <dimension ref="A1:AC319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5161591</v>
+        <v>5161589</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,73 +1530,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12">
+        <v>1.45</v>
+      </c>
+      <c r="L12">
+        <v>3.6</v>
+      </c>
+      <c r="M12">
+        <v>7.5</v>
+      </c>
+      <c r="N12">
+        <v>1.55</v>
+      </c>
+      <c r="O12">
+        <v>3.5</v>
+      </c>
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>5.25</v>
-      </c>
-      <c r="M12">
-        <v>1.222</v>
-      </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-      <c r="O12">
-        <v>5.25</v>
-      </c>
-      <c r="P12">
-        <v>1.2</v>
-      </c>
       <c r="Q12">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5161589</v>
+        <v>5161591</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,73 +1619,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>1.45</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M13">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="N13">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z13">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>44980.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3218,7 +3218,7 @@
         <v>44982.5</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3577,7 +3577,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3933,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4731,7 +4731,7 @@
         <v>44992.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5161146</v>
+        <v>5161614</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,76 +5176,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
+        <v>3.4</v>
+      </c>
+      <c r="N53">
+        <v>1.5</v>
+      </c>
+      <c r="O53">
         <v>3.6</v>
       </c>
-      <c r="N53">
-        <v>1.95</v>
-      </c>
-      <c r="O53">
-        <v>3</v>
-      </c>
       <c r="P53">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S53">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5161614</v>
+        <v>5161146</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,76 +5265,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y54">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>44</v>
@@ -6247,7 +6247,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6600,7 +6600,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>43</v>
@@ -6870,7 +6870,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>45023.5</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
         <v>41</v>
@@ -8113,10 +8113,10 @@
         <v>45027.54166666666</v>
       </c>
       <c r="F86" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" t="s">
         <v>39</v>
-      </c>
-      <c r="G86" t="s">
-        <v>40</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8558,7 +8558,7 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8828,7 +8828,7 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -9095,7 +9095,7 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>45043.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9807,7 +9807,7 @@
         <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10249,7 +10249,7 @@
         <v>45047.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10608,7 +10608,7 @@
         <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10783,7 +10783,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -11317,10 +11317,10 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s">
         <v>40</v>
-      </c>
-      <c r="G122" t="s">
-        <v>39</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6553337</v>
+        <v>6553336</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,76 +11584,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N125">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
         <v>1.825</v>
       </c>
-      <c r="S125">
-        <v>1.975</v>
-      </c>
-      <c r="T125">
-        <v>1.75</v>
-      </c>
-      <c r="U125">
-        <v>1.775</v>
-      </c>
-      <c r="V125">
-        <v>2.025</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6553336</v>
+        <v>6553337</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N126">
+        <v>2.15</v>
+      </c>
+      <c r="O126">
+        <v>2.8</v>
+      </c>
+      <c r="P126">
+        <v>3.5</v>
+      </c>
+      <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>1.825</v>
+      </c>
+      <c r="S126">
+        <v>1.975</v>
+      </c>
+      <c r="T126">
+        <v>1.75</v>
+      </c>
+      <c r="U126">
+        <v>1.775</v>
+      </c>
+      <c r="V126">
+        <v>2.025</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
         <v>1.8</v>
       </c>
-      <c r="O126">
-        <v>3.5</v>
-      </c>
-      <c r="P126">
-        <v>3.6</v>
-      </c>
-      <c r="Q126">
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>-0.5</v>
       </c>
-      <c r="R126">
-        <v>1.8</v>
-      </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.975</v>
-      </c>
-      <c r="V126">
-        <v>1.825</v>
-      </c>
-      <c r="W126">
-        <v>0.8</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.8</v>
-      </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12118,7 +12118,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6553338</v>
+        <v>6553339</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,76 +12207,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>50</v>
+      </c>
+      <c r="K132">
+        <v>1.6</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>5</v>
+      </c>
+      <c r="N132">
+        <v>1.727</v>
+      </c>
+      <c r="O132">
+        <v>3.4</v>
+      </c>
+      <c r="P132">
+        <v>4.5</v>
+      </c>
+      <c r="Q132">
+        <v>-0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.8</v>
+      </c>
+      <c r="S132">
+        <v>2</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1.775</v>
+      </c>
+      <c r="V132">
+        <v>2.025</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>2.4</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>1</v>
       </c>
-      <c r="J132" t="s">
-        <v>49</v>
-      </c>
-      <c r="K132">
-        <v>1.85</v>
-      </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
-      <c r="M132">
-        <v>3.8</v>
-      </c>
-      <c r="N132">
-        <v>2.25</v>
-      </c>
-      <c r="O132">
-        <v>3.1</v>
-      </c>
-      <c r="P132">
-        <v>3</v>
-      </c>
-      <c r="Q132">
-        <v>-0.25</v>
-      </c>
-      <c r="R132">
-        <v>1.975</v>
-      </c>
-      <c r="S132">
-        <v>1.825</v>
-      </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>1.825</v>
-      </c>
-      <c r="V132">
-        <v>1.975</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
-        <v>2</v>
-      </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
-      <c r="AA132">
-        <v>0.825</v>
-      </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6553761</v>
+        <v>6553338</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,40 +12296,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L133">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12338,34 +12338,34 @@
         <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553762</v>
+        <v>6553761</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,49 +12385,49 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="L134">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.875</v>
@@ -12436,25 +12436,25 @@
         <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6553339</v>
+        <v>6553762</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,76 +12474,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M135">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
         <v>1.8</v>
       </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6553341</v>
+        <v>6556917</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,46 +12652,46 @@
         <v>45073.5</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L137">
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
         <v>2.25</v>
@@ -12703,25 +12703,25 @@
         <v>1.8</v>
       </c>
       <c r="W137">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6556917</v>
+        <v>6553341</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,46 +12830,46 @@
         <v>45073.5</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L139">
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N139">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.25</v>
@@ -12881,25 +12881,25 @@
         <v>1.8</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6553775</v>
+        <v>6557300</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45074.5</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6557300</v>
+        <v>6553775</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45074.5</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N142">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
         <v>43</v>
@@ -13542,7 +13542,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,76 +13720,76 @@
         <v>45137.625</v>
       </c>
       <c r="F149" t="s">
+        <v>32</v>
+      </c>
+      <c r="G149" t="s">
+        <v>41</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>48</v>
+      </c>
+      <c r="K149">
+        <v>1.166</v>
+      </c>
+      <c r="L149">
+        <v>6</v>
+      </c>
+      <c r="M149">
+        <v>11</v>
+      </c>
+      <c r="N149">
+        <v>1.05</v>
+      </c>
+      <c r="O149">
+        <v>13</v>
+      </c>
+      <c r="P149">
         <v>34</v>
       </c>
-      <c r="G149" t="s">
-        <v>45</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>1.909</v>
-      </c>
-      <c r="L149">
-        <v>3.2</v>
-      </c>
-      <c r="M149">
-        <v>3.6</v>
-      </c>
-      <c r="N149">
-        <v>1.909</v>
-      </c>
-      <c r="O149">
-        <v>3.2</v>
-      </c>
-      <c r="P149">
+      <c r="Q149">
+        <v>-3</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
         <v>3.75</v>
       </c>
-      <c r="Q149">
-        <v>-0.5</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
+      <c r="U149">
         <v>1.8</v>
       </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.975</v>
-      </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
         <v>0.8</v>
       </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
       <c r="AC149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,76 +13809,76 @@
         <v>45137.625</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M150">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N150">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O150">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P150">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q150">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
         <v>1.8</v>
       </c>
-      <c r="S150">
-        <v>2</v>
-      </c>
       <c r="T150">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
         <v>0.8</v>
       </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
       <c r="AB150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,58 +14791,58 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K161">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M161">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N161">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P161">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14851,13 +14851,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14865,7 +14865,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,58 +14880,58 @@
         <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L162">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O162">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14940,13 +14940,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15681,7 +15681,7 @@
         <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,56 +15856,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L173">
+        <v>3.75</v>
+      </c>
+      <c r="M173">
+        <v>4.5</v>
+      </c>
+      <c r="N173">
+        <v>1.909</v>
+      </c>
+      <c r="O173">
+        <v>3.1</v>
+      </c>
+      <c r="P173">
         <v>4</v>
       </c>
-      <c r="M173">
-        <v>1.533</v>
-      </c>
-      <c r="N173">
-        <v>4</v>
-      </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
-      <c r="P173">
-        <v>1.85</v>
-      </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
+        <v>1.825</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
         <v>1.875</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.925</v>
       </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.825</v>
-      </c>
-      <c r="V173">
-        <v>1.975</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15913,19 +15913,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.825</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.925</v>
-      </c>
-      <c r="AB173">
-        <v>0.825</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,56 +15945,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
         <v>49</v>
       </c>
       <c r="K174">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N174">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O174">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>1.825</v>
+      </c>
+      <c r="V174">
         <v>1.975</v>
       </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>1.875</v>
-      </c>
-      <c r="V174">
-        <v>1.925</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
@@ -16002,19 +16002,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.925</v>
+      </c>
+      <c r="AB174">
         <v>0.825</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
@@ -16212,7 +16212,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16467,7 +16467,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16479,76 +16479,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L180">
+        <v>3.1</v>
+      </c>
+      <c r="M180">
+        <v>2.875</v>
+      </c>
+      <c r="N180">
+        <v>1.95</v>
+      </c>
+      <c r="O180">
+        <v>3</v>
+      </c>
+      <c r="P180">
         <v>3.75</v>
       </c>
-      <c r="M180">
-        <v>7.5</v>
-      </c>
-      <c r="N180">
-        <v>1.5</v>
-      </c>
-      <c r="O180">
-        <v>3.6</v>
-      </c>
-      <c r="P180">
-        <v>6</v>
-      </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>1.8</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
         <v>1.85</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.95</v>
       </c>
-      <c r="T180">
-        <v>2.5</v>
-      </c>
-      <c r="U180">
-        <v>2</v>
-      </c>
-      <c r="V180">
-        <v>1.8</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,76 +16568,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N181">
+        <v>1.5</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>6</v>
+      </c>
+      <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
         <v>1.95</v>
       </c>
-      <c r="O181">
-        <v>3</v>
-      </c>
-      <c r="P181">
-        <v>3.75</v>
-      </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.8</v>
       </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.85</v>
-      </c>
-      <c r="V181">
-        <v>1.95</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y181">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
+        <v>0.95</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
         <v>0.8</v>
-      </c>
-      <c r="AB181">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC181">
-        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16749,7 +16749,7 @@
         <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16838,7 +16838,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,58 +16924,58 @@
         <v>45171.625</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>1</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M185">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N185">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P185">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16984,16 +16984,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17013,58 +17013,58 @@
         <v>45171.625</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L186">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M186">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N186">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O186">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P186">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q186">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W186">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17547,7 +17547,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
         <v>44</v>
@@ -17636,7 +17636,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
         <v>45</v>
@@ -18351,7 +18351,7 @@
         <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,58 +18526,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M203">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,16 +18586,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC203">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,58 +18615,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>48</v>
       </c>
       <c r="K204">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N204">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P204">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W204">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,16 +18675,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA204">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19327,7 +19327,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G212" t="s">
         <v>35</v>
@@ -19950,7 +19950,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
         <v>33</v>
@@ -20042,7 +20042,7 @@
         <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20484,10 +20484,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F225" t="s">
+        <v>40</v>
+      </c>
+      <c r="G225" t="s">
         <v>39</v>
-      </c>
-      <c r="G225" t="s">
-        <v>40</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20573,73 +20573,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>3.25</v>
+      </c>
+      <c r="M226">
+        <v>3.25</v>
+      </c>
+      <c r="N226">
+        <v>2.55</v>
+      </c>
+      <c r="O226">
+        <v>3.2</v>
+      </c>
+      <c r="P226">
+        <v>2.55</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>1.9</v>
+      </c>
+      <c r="S226">
+        <v>1.9</v>
+      </c>
+      <c r="T226">
         <v>2.25</v>
       </c>
-      <c r="L226">
-        <v>3</v>
-      </c>
-      <c r="M226">
-        <v>3</v>
-      </c>
-      <c r="N226">
-        <v>1.363</v>
-      </c>
-      <c r="O226">
-        <v>3.8</v>
-      </c>
-      <c r="P226">
-        <v>9</v>
-      </c>
-      <c r="Q226">
-        <v>-1.25</v>
-      </c>
-      <c r="R226">
-        <v>1.825</v>
-      </c>
-      <c r="S226">
-        <v>1.975</v>
-      </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
       <c r="U226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W226">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z226">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,73 +20662,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L227">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M227">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N227">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P227">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R227">
+        <v>1.825</v>
+      </c>
+      <c r="S227">
+        <v>1.975</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
         <v>1.9</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.9</v>
       </c>
-      <c r="T227">
-        <v>2.25</v>
-      </c>
-      <c r="U227">
-        <v>1.875</v>
-      </c>
-      <c r="V227">
-        <v>1.925</v>
-      </c>
       <c r="W227">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB227">
-        <v>0.875</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -21095,7 +21095,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21107,76 +21107,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K232">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L232">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M232">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N232">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O232">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P232">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q232">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
+        <v>1.825</v>
+      </c>
+      <c r="S232">
         <v>1.975</v>
       </c>
-      <c r="S232">
-        <v>1.825</v>
-      </c>
       <c r="T232">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y232">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
+        <v>-1</v>
+      </c>
+      <c r="AA232">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA232">
-        <v>-1</v>
-      </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21184,7 +21184,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21196,76 +21196,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L233">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M233">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N233">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O233">
+        <v>7.5</v>
+      </c>
+      <c r="P233">
+        <v>1.125</v>
+      </c>
+      <c r="Q233">
+        <v>2.25</v>
+      </c>
+      <c r="R233">
+        <v>1.975</v>
+      </c>
+      <c r="S233">
+        <v>1.825</v>
+      </c>
+      <c r="T233">
         <v>3.5</v>
       </c>
-      <c r="P233">
-        <v>5</v>
-      </c>
-      <c r="Q233">
-        <v>-0.75</v>
-      </c>
-      <c r="R233">
+      <c r="U233">
         <v>1.825</v>
       </c>
-      <c r="S233">
+      <c r="V233">
         <v>1.975</v>
       </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>2</v>
-      </c>
-      <c r="V233">
-        <v>1.8</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA233">
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB233">
-        <v>-1</v>
-      </c>
-      <c r="AC233">
-        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21466,7 +21466,7 @@
         <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -21552,7 +21552,7 @@
         <v>45228.625</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
         <v>35</v>
@@ -21644,7 +21644,7 @@
         <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
         <v>31</v>
@@ -22534,7 +22534,7 @@
         <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -23065,7 +23065,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G254" t="s">
         <v>41</v>
@@ -23513,7 +23513,7 @@
         <v>42</v>
       </c>
       <c r="G259" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23869,7 +23869,7 @@
         <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H263">
         <v>4</v>
@@ -24311,7 +24311,7 @@
         <v>45262.625</v>
       </c>
       <c r="F268" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G268" t="s">
         <v>46</v>
@@ -24578,7 +24578,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G271" t="s">
         <v>31</v>
@@ -24670,7 +24670,7 @@
         <v>30</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25468,7 +25468,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G281" t="s">
         <v>45</v>
@@ -25545,7 +25545,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25557,55 +25557,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
         <v>49</v>
       </c>
       <c r="K282">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L282">
         <v>3.2</v>
       </c>
       <c r="M282">
+        <v>3.1</v>
+      </c>
+      <c r="N282">
         <v>2.4</v>
       </c>
-      <c r="N282">
-        <v>3</v>
-      </c>
       <c r="O282">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P282">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q282">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25614,19 +25614,19 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC282">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25634,7 +25634,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25646,55 +25646,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
         <v>1</v>
-      </c>
-      <c r="I283">
-        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>49</v>
       </c>
       <c r="K283">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L283">
         <v>3.2</v>
       </c>
       <c r="M283">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N283">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O283">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P283">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S283">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T283">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V283">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W283">
         <v>-1</v>
@@ -25703,19 +25703,19 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB283">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25913,7 +25913,7 @@
         <v>45278.5</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G286" t="s">
         <v>43</v>
@@ -26447,7 +26447,7 @@
         <v>45281.625</v>
       </c>
       <c r="F292" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G292" t="s">
         <v>41</v>
@@ -26714,7 +26714,7 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G295" t="s">
         <v>34</v>
@@ -27162,7 +27162,7 @@
         <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H300">
         <v>2</v>
@@ -27340,7 +27340,7 @@
         <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -27948,7 +27948,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27960,10 +27960,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G309" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27975,43 +27975,43 @@
         <v>48</v>
       </c>
       <c r="K309">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L309">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M309">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N309">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O309">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P309">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q309">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R309">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S309">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T309">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V309">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W309">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28020,16 +28020,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28037,7 +28037,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28049,10 +28049,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G310" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28064,43 +28064,43 @@
         <v>48</v>
       </c>
       <c r="K310">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L310">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M310">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N310">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O310">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P310">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q310">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S310">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W310">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28109,16 +28109,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA310">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F311" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G311" t="s">
         <v>34</v>
@@ -28208,6 +28208,598 @@
       </c>
       <c r="AC311">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>6979556</v>
+      </c>
+      <c r="C312" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45345.54166666666</v>
+      </c>
+      <c r="F312" t="s">
+        <v>46</v>
+      </c>
+      <c r="G312" t="s">
+        <v>31</v>
+      </c>
+      <c r="K312">
+        <v>2.5</v>
+      </c>
+      <c r="L312">
+        <v>3.1</v>
+      </c>
+      <c r="M312">
+        <v>2.625</v>
+      </c>
+      <c r="N312">
+        <v>2.5</v>
+      </c>
+      <c r="O312">
+        <v>3</v>
+      </c>
+      <c r="P312">
+        <v>2.7</v>
+      </c>
+      <c r="Q312">
+        <v>0</v>
+      </c>
+      <c r="R312">
+        <v>1.825</v>
+      </c>
+      <c r="S312">
+        <v>1.975</v>
+      </c>
+      <c r="T312">
+        <v>2.5</v>
+      </c>
+      <c r="U312">
+        <v>2.05</v>
+      </c>
+      <c r="V312">
+        <v>1.75</v>
+      </c>
+      <c r="W312">
+        <v>0</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <v>0</v>
+      </c>
+      <c r="Z312">
+        <v>0</v>
+      </c>
+      <c r="AA312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>7861638</v>
+      </c>
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313" t="s">
+        <v>28</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45346.40625</v>
+      </c>
+      <c r="F313" t="s">
+        <v>37</v>
+      </c>
+      <c r="G313" t="s">
+        <v>42</v>
+      </c>
+      <c r="K313">
+        <v>7</v>
+      </c>
+      <c r="L313">
+        <v>4.5</v>
+      </c>
+      <c r="M313">
+        <v>1.333</v>
+      </c>
+      <c r="N313">
+        <v>6.5</v>
+      </c>
+      <c r="O313">
+        <v>4.5</v>
+      </c>
+      <c r="P313">
+        <v>1.363</v>
+      </c>
+      <c r="Q313">
+        <v>1.25</v>
+      </c>
+      <c r="R313">
+        <v>1.975</v>
+      </c>
+      <c r="S313">
+        <v>1.825</v>
+      </c>
+      <c r="T313">
+        <v>2.75</v>
+      </c>
+      <c r="U313">
+        <v>1.975</v>
+      </c>
+      <c r="V313">
+        <v>1.825</v>
+      </c>
+      <c r="W313">
+        <v>0</v>
+      </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
+      <c r="Y313">
+        <v>0</v>
+      </c>
+      <c r="Z313">
+        <v>0</v>
+      </c>
+      <c r="AA313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:29">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>7861639</v>
+      </c>
+      <c r="C314" t="s">
+        <v>28</v>
+      </c>
+      <c r="D314" t="s">
+        <v>28</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F314" t="s">
+        <v>47</v>
+      </c>
+      <c r="G314" t="s">
+        <v>38</v>
+      </c>
+      <c r="K314">
+        <v>1.222</v>
+      </c>
+      <c r="L314">
+        <v>5.5</v>
+      </c>
+      <c r="M314">
+        <v>9</v>
+      </c>
+      <c r="N314">
+        <v>1.222</v>
+      </c>
+      <c r="O314">
+        <v>5.5</v>
+      </c>
+      <c r="P314">
+        <v>9</v>
+      </c>
+      <c r="Q314">
+        <v>-1.75</v>
+      </c>
+      <c r="R314">
+        <v>1.875</v>
+      </c>
+      <c r="S314">
+        <v>1.925</v>
+      </c>
+      <c r="T314">
+        <v>3</v>
+      </c>
+      <c r="U314">
+        <v>1.825</v>
+      </c>
+      <c r="V314">
+        <v>1.975</v>
+      </c>
+      <c r="W314">
+        <v>0</v>
+      </c>
+      <c r="X314">
+        <v>0</v>
+      </c>
+      <c r="Y314">
+        <v>0</v>
+      </c>
+      <c r="Z314">
+        <v>0</v>
+      </c>
+      <c r="AA314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>6979554</v>
+      </c>
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+      <c r="D315" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F315" t="s">
+        <v>45</v>
+      </c>
+      <c r="G315" t="s">
+        <v>39</v>
+      </c>
+      <c r="K315">
+        <v>3.75</v>
+      </c>
+      <c r="L315">
+        <v>3.4</v>
+      </c>
+      <c r="M315">
+        <v>1.8</v>
+      </c>
+      <c r="N315">
+        <v>3.75</v>
+      </c>
+      <c r="O315">
+        <v>3.4</v>
+      </c>
+      <c r="P315">
+        <v>1.833</v>
+      </c>
+      <c r="Q315">
+        <v>0.5</v>
+      </c>
+      <c r="R315">
+        <v>1.925</v>
+      </c>
+      <c r="S315">
+        <v>1.875</v>
+      </c>
+      <c r="T315">
+        <v>2.5</v>
+      </c>
+      <c r="U315">
+        <v>1.925</v>
+      </c>
+      <c r="V315">
+        <v>1.875</v>
+      </c>
+      <c r="W315">
+        <v>0</v>
+      </c>
+      <c r="X315">
+        <v>0</v>
+      </c>
+      <c r="Y315">
+        <v>0</v>
+      </c>
+      <c r="Z315">
+        <v>0</v>
+      </c>
+      <c r="AA315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>7861640</v>
+      </c>
+      <c r="C316" t="s">
+        <v>28</v>
+      </c>
+      <c r="D316" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F316" t="s">
+        <v>43</v>
+      </c>
+      <c r="G316" t="s">
+        <v>30</v>
+      </c>
+      <c r="K316">
+        <v>2.4</v>
+      </c>
+      <c r="L316">
+        <v>3</v>
+      </c>
+      <c r="M316">
+        <v>2.75</v>
+      </c>
+      <c r="N316">
+        <v>2.375</v>
+      </c>
+      <c r="O316">
+        <v>3</v>
+      </c>
+      <c r="P316">
+        <v>2.8</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>1.75</v>
+      </c>
+      <c r="S316">
+        <v>2.05</v>
+      </c>
+      <c r="T316">
+        <v>2.5</v>
+      </c>
+      <c r="U316">
+        <v>2.025</v>
+      </c>
+      <c r="V316">
+        <v>1.775</v>
+      </c>
+      <c r="W316">
+        <v>0</v>
+      </c>
+      <c r="X316">
+        <v>0</v>
+      </c>
+      <c r="Y316">
+        <v>0</v>
+      </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
+      <c r="AA316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>7861641</v>
+      </c>
+      <c r="C317" t="s">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>28</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45347.52083333334</v>
+      </c>
+      <c r="F317" t="s">
+        <v>34</v>
+      </c>
+      <c r="G317" t="s">
+        <v>35</v>
+      </c>
+      <c r="K317">
+        <v>2.375</v>
+      </c>
+      <c r="L317">
+        <v>3.2</v>
+      </c>
+      <c r="M317">
+        <v>2.625</v>
+      </c>
+      <c r="N317">
+        <v>2.375</v>
+      </c>
+      <c r="O317">
+        <v>3.2</v>
+      </c>
+      <c r="P317">
+        <v>2.7</v>
+      </c>
+      <c r="Q317">
+        <v>0</v>
+      </c>
+      <c r="R317">
+        <v>1.775</v>
+      </c>
+      <c r="S317">
+        <v>2.025</v>
+      </c>
+      <c r="T317">
+        <v>2.5</v>
+      </c>
+      <c r="U317">
+        <v>1.975</v>
+      </c>
+      <c r="V317">
+        <v>1.825</v>
+      </c>
+      <c r="W317">
+        <v>0</v>
+      </c>
+      <c r="X317">
+        <v>0</v>
+      </c>
+      <c r="Y317">
+        <v>0</v>
+      </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
+      <c r="AA317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>7861642</v>
+      </c>
+      <c r="C318" t="s">
+        <v>28</v>
+      </c>
+      <c r="D318" t="s">
+        <v>28</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45347.60416666666</v>
+      </c>
+      <c r="F318" t="s">
+        <v>41</v>
+      </c>
+      <c r="G318" t="s">
+        <v>33</v>
+      </c>
+      <c r="K318">
+        <v>1.666</v>
+      </c>
+      <c r="L318">
+        <v>3.6</v>
+      </c>
+      <c r="M318">
+        <v>4.2</v>
+      </c>
+      <c r="N318">
+        <v>1.65</v>
+      </c>
+      <c r="O318">
+        <v>3.6</v>
+      </c>
+      <c r="P318">
+        <v>4.333</v>
+      </c>
+      <c r="Q318">
+        <v>-0.75</v>
+      </c>
+      <c r="R318">
+        <v>1.875</v>
+      </c>
+      <c r="S318">
+        <v>1.925</v>
+      </c>
+      <c r="T318">
+        <v>2.5</v>
+      </c>
+      <c r="U318">
+        <v>1.825</v>
+      </c>
+      <c r="V318">
+        <v>1.975</v>
+      </c>
+      <c r="W318">
+        <v>0</v>
+      </c>
+      <c r="X318">
+        <v>0</v>
+      </c>
+      <c r="Y318">
+        <v>0</v>
+      </c>
+      <c r="Z318">
+        <v>0</v>
+      </c>
+      <c r="AA318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>6979552</v>
+      </c>
+      <c r="C319" t="s">
+        <v>28</v>
+      </c>
+      <c r="D319" t="s">
+        <v>28</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45348.52083333334</v>
+      </c>
+      <c r="F319" t="s">
+        <v>44</v>
+      </c>
+      <c r="G319" t="s">
+        <v>40</v>
+      </c>
+      <c r="K319">
+        <v>2.375</v>
+      </c>
+      <c r="L319">
+        <v>3.25</v>
+      </c>
+      <c r="M319">
+        <v>2.625</v>
+      </c>
+      <c r="N319">
+        <v>2.25</v>
+      </c>
+      <c r="O319">
+        <v>3.25</v>
+      </c>
+      <c r="P319">
+        <v>2.8</v>
+      </c>
+      <c r="Q319">
+        <v>-0.25</v>
+      </c>
+      <c r="R319">
+        <v>2.025</v>
+      </c>
+      <c r="S319">
+        <v>1.775</v>
+      </c>
+      <c r="T319">
+        <v>2.5</v>
+      </c>
+      <c r="U319">
+        <v>2</v>
+      </c>
+      <c r="V319">
+        <v>1.8</v>
+      </c>
+      <c r="W319">
+        <v>0</v>
+      </c>
+      <c r="X319">
+        <v>0</v>
+      </c>
+      <c r="Y319">
+        <v>0</v>
+      </c>
+      <c r="Z319">
+        <v>0</v>
+      </c>
+      <c r="AA319">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -133,10 +133,10 @@
     <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>Vojvodina</t>
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5161589</v>
+        <v>5161591</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,73 +1530,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>1.45</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M12">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="N12">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC12">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5161591</v>
+        <v>5161589</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,73 +1619,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>1.45</v>
+      </c>
+      <c r="L13">
+        <v>3.6</v>
+      </c>
+      <c r="M13">
+        <v>7.5</v>
+      </c>
+      <c r="N13">
+        <v>1.55</v>
+      </c>
+      <c r="O13">
+        <v>3.5</v>
+      </c>
+      <c r="P13">
         <v>6</v>
       </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>5.25</v>
-      </c>
-      <c r="M13">
-        <v>1.222</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-      <c r="O13">
-        <v>5.25</v>
-      </c>
-      <c r="P13">
-        <v>1.2</v>
-      </c>
       <c r="Q13">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>44980.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3218,7 +3218,7 @@
         <v>44982.5</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3577,7 +3577,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3933,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4731,7 +4731,7 @@
         <v>44992.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5179,7 +5179,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>44</v>
@@ -6247,7 +6247,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6600,7 +6600,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>43</v>
@@ -6870,7 +6870,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5161152</v>
+        <v>5161630</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>45021.57291666666</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="L76">
+        <v>5.5</v>
+      </c>
+      <c r="M76">
+        <v>1.181</v>
+      </c>
+      <c r="N76">
+        <v>9.5</v>
+      </c>
+      <c r="O76">
+        <v>4.75</v>
+      </c>
+      <c r="P76">
+        <v>1.25</v>
+      </c>
+      <c r="Q76">
+        <v>1.75</v>
+      </c>
+      <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
         <v>3</v>
       </c>
-      <c r="M76">
-        <v>2.5</v>
-      </c>
-      <c r="N76">
-        <v>1.7</v>
-      </c>
-      <c r="O76">
-        <v>3.4</v>
-      </c>
-      <c r="P76">
-        <v>4.2</v>
-      </c>
-      <c r="Q76">
-        <v>-0.5</v>
-      </c>
-      <c r="R76">
-        <v>1.775</v>
-      </c>
-      <c r="S76">
-        <v>2.025</v>
-      </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5161630</v>
+        <v>5161152</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45021.57291666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="O77">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y77">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5161153</v>
+        <v>5161632</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45023.5</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
+        <v>3.75</v>
+      </c>
+      <c r="N80">
         <v>1.85</v>
       </c>
-      <c r="N80">
-        <v>4.5</v>
-      </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q80">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
         <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y80">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB80">
         <v>-0.5</v>
       </c>
-      <c r="AA80">
-        <v>0.5</v>
-      </c>
-      <c r="AB80">
-        <v>0.8</v>
-      </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5161632</v>
+        <v>5161153</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45023.5</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L81">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="N81">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB81">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8113,10 +8113,10 @@
         <v>45027.54166666666</v>
       </c>
       <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" t="s">
         <v>40</v>
-      </c>
-      <c r="G86" t="s">
-        <v>39</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8558,7 +8558,7 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8828,7 +8828,7 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -9080,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6553763</v>
+        <v>6553764</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,76 +9092,76 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K97">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L97">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>2.35</v>
       </c>
       <c r="N97">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
         <v>1.95</v>
       </c>
-      <c r="V97">
-        <v>1.85</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6553764</v>
+        <v>6553763</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,76 +9181,76 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="N98">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="O98">
         <v>3.5</v>
       </c>
       <c r="P98">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6553755</v>
+        <v>6557852</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,49 +9270,49 @@
         <v>45042.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N99">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9324,16 +9324,16 @@
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y99">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6557852</v>
+        <v>6553755</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,49 +9359,49 @@
         <v>45042.5625</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
+        <v>2.9</v>
+      </c>
+      <c r="M100">
         <v>3.1</v>
       </c>
-      <c r="M100">
-        <v>2.05</v>
-      </c>
       <c r="N100">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
         <v>2</v>
@@ -9413,16 +9413,16 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
         <v>-1</v>
@@ -9626,7 +9626,7 @@
         <v>45043.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9807,7 +9807,7 @@
         <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6557854</v>
+        <v>6553333</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,73 +9893,73 @@
         <v>45046.5</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>49</v>
+      </c>
+      <c r="K106">
+        <v>1.909</v>
+      </c>
+      <c r="L106">
+        <v>3.25</v>
+      </c>
+      <c r="M106">
+        <v>3.5</v>
+      </c>
+      <c r="N106">
+        <v>1.8</v>
+      </c>
+      <c r="O106">
+        <v>3.3</v>
+      </c>
+      <c r="P106">
         <v>4</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>48</v>
-      </c>
-      <c r="K106">
-        <v>1.285</v>
-      </c>
-      <c r="L106">
-        <v>5</v>
-      </c>
-      <c r="M106">
-        <v>7.5</v>
-      </c>
-      <c r="N106">
-        <v>1.363</v>
-      </c>
-      <c r="O106">
-        <v>4.75</v>
-      </c>
-      <c r="P106">
-        <v>6.5</v>
-      </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6553333</v>
+        <v>6557854</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,73 +9982,73 @@
         <v>45046.5</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10249,7 +10249,7 @@
         <v>45047.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10608,7 +10608,7 @@
         <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10783,7 +10783,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -11317,10 +11317,10 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F122" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" t="s">
         <v>39</v>
-      </c>
-      <c r="G122" t="s">
-        <v>40</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12118,7 +12118,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6553338</v>
+        <v>6553762</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,10 +12296,10 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12311,40 +12311,40 @@
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M133">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12353,19 +12353,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6553762</v>
+        <v>6553338</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,10 +12474,10 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12489,40 +12489,40 @@
         <v>49</v>
       </c>
       <c r="K135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N135">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O135">
         <v>3.1</v>
       </c>
       <c r="P135">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12531,19 +12531,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6553340</v>
+        <v>6556917</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,76 +12563,76 @@
         <v>45073.5</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>2.5</v>
+      </c>
+      <c r="N136">
+        <v>2.3</v>
+      </c>
+      <c r="O136">
         <v>3.4</v>
       </c>
-      <c r="M136">
-        <v>1.571</v>
-      </c>
-      <c r="N136">
-        <v>7.5</v>
-      </c>
-      <c r="O136">
-        <v>3.75</v>
-      </c>
       <c r="P136">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q136">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z136">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6556917</v>
+        <v>6553340</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,76 +12652,76 @@
         <v>45073.5</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N137">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6556912</v>
+        <v>6553341</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,40 +12741,40 @@
         <v>45073.5</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K138">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="L138">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N138">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R138">
         <v>1.9</v>
@@ -12792,19 +12792,19 @@
         <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
         <v>1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6553341</v>
+        <v>6556912</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,40 +12830,40 @@
         <v>45073.5</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M139">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N139">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
         <v>1.9</v>
@@ -12881,19 +12881,19 @@
         <v>1.8</v>
       </c>
       <c r="W139">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
         <v>1</v>
@@ -12922,7 +12922,7 @@
         <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6557300</v>
+        <v>6553775</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45074.5</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X141">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6553775</v>
+        <v>6557300</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45074.5</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L142">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
         <v>43</v>
@@ -13542,7 +13542,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13990,7 +13990,7 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14788,7 +14788,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14877,7 +14877,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
         <v>30</v>
@@ -15681,7 +15681,7 @@
         <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15948,7 +15948,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16123,7 +16123,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
@@ -16212,7 +16212,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16749,7 +16749,7 @@
         <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16838,7 +16838,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17547,7 +17547,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
         <v>44</v>
@@ -17636,7 +17636,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
         <v>45</v>
@@ -18351,7 +18351,7 @@
         <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,58 +18526,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L203">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N203">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O203">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P203">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V203">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W203">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,16 +18586,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC203">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,58 +18615,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>48</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M204">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N204">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O204">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P204">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,16 +18675,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19327,7 +19327,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
         <v>35</v>
@@ -19950,7 +19950,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
         <v>33</v>
@@ -20042,7 +20042,7 @@
         <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20484,10 +20484,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F225" t="s">
+        <v>39</v>
+      </c>
+      <c r="G225" t="s">
         <v>40</v>
-      </c>
-      <c r="G225" t="s">
-        <v>39</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20573,73 +20573,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M226">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N226">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O226">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P226">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
+        <v>1.825</v>
+      </c>
+      <c r="S226">
+        <v>1.975</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
         <v>1.9</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.9</v>
       </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>1.875</v>
-      </c>
-      <c r="V226">
-        <v>1.925</v>
-      </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB226">
-        <v>0.875</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,73 +20662,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>3.25</v>
+      </c>
+      <c r="M227">
+        <v>3.25</v>
+      </c>
+      <c r="N227">
+        <v>2.55</v>
+      </c>
+      <c r="O227">
+        <v>3.2</v>
+      </c>
+      <c r="P227">
+        <v>2.55</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>1.9</v>
+      </c>
+      <c r="S227">
+        <v>1.9</v>
+      </c>
+      <c r="T227">
         <v>2.25</v>
       </c>
-      <c r="L227">
-        <v>3</v>
-      </c>
-      <c r="M227">
-        <v>3</v>
-      </c>
-      <c r="N227">
-        <v>1.363</v>
-      </c>
-      <c r="O227">
-        <v>3.8</v>
-      </c>
-      <c r="P227">
-        <v>9</v>
-      </c>
-      <c r="Q227">
-        <v>-1.25</v>
-      </c>
-      <c r="R227">
-        <v>1.825</v>
-      </c>
-      <c r="S227">
-        <v>1.975</v>
-      </c>
-      <c r="T227">
-        <v>2.5</v>
-      </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z227">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -21466,7 +21466,7 @@
         <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -21552,7 +21552,7 @@
         <v>45228.625</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
         <v>35</v>
@@ -21644,7 +21644,7 @@
         <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G242" t="s">
         <v>31</v>
@@ -22534,7 +22534,7 @@
         <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -23065,7 +23065,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G254" t="s">
         <v>41</v>
@@ -23513,7 +23513,7 @@
         <v>42</v>
       </c>
       <c r="G259" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23869,7 +23869,7 @@
         <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H263">
         <v>4</v>
@@ -24121,7 +24121,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24133,49 +24133,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G266" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="s">
         <v>48</v>
       </c>
       <c r="K266">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M266">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N266">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O266">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P266">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q266">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S266">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T266">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U266">
         <v>1.775</v>
@@ -24184,7 +24184,7 @@
         <v>2.025</v>
       </c>
       <c r="W266">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24193,16 +24193,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA266">
+        <v>-1</v>
+      </c>
+      <c r="AB266">
+        <v>-1</v>
+      </c>
+      <c r="AC266">
         <v>1.025</v>
-      </c>
-      <c r="AA266">
-        <v>-1</v>
-      </c>
-      <c r="AB266">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC266">
-        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24210,7 +24210,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24222,49 +24222,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G267" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267">
         <v>1</v>
-      </c>
-      <c r="I267">
-        <v>0</v>
       </c>
       <c r="J267" t="s">
         <v>48</v>
       </c>
       <c r="K267">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L267">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M267">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N267">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O267">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P267">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R267">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S267">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T267">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U267">
         <v>1.775</v>
@@ -24273,7 +24273,7 @@
         <v>2.025</v>
       </c>
       <c r="W267">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24282,16 +24282,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC267">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>45262.625</v>
       </c>
       <c r="F268" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G268" t="s">
         <v>46</v>
@@ -24578,7 +24578,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G271" t="s">
         <v>31</v>
@@ -24670,7 +24670,7 @@
         <v>30</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25468,7 +25468,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G281" t="s">
         <v>45</v>
@@ -25913,7 +25913,7 @@
         <v>45278.5</v>
       </c>
       <c r="F286" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G286" t="s">
         <v>43</v>
@@ -26447,7 +26447,7 @@
         <v>45281.625</v>
       </c>
       <c r="F292" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G292" t="s">
         <v>41</v>
@@ -26714,7 +26714,7 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F295" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G295" t="s">
         <v>34</v>
@@ -27162,7 +27162,7 @@
         <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H300">
         <v>2</v>
@@ -27340,7 +27340,7 @@
         <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -27948,7 +27948,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27960,10 +27960,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G309" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27975,43 +27975,43 @@
         <v>48</v>
       </c>
       <c r="K309">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L309">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M309">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N309">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O309">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P309">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q309">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R309">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W309">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28020,16 +28020,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28037,7 +28037,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28049,10 +28049,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G310" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28064,43 +28064,43 @@
         <v>48</v>
       </c>
       <c r="K310">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L310">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M310">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N310">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O310">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P310">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q310">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R310">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S310">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T310">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W310">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28109,16 +28109,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F311" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G311" t="s">
         <v>34</v>
@@ -28452,7 +28452,7 @@
         <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K315">
         <v>3.75</v>
@@ -28748,7 +28748,7 @@
         <v>44</v>
       </c>
       <c r="G319" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K319">
         <v>2.375</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6544513</v>
+        <v>6544515</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N90">
+        <v>2.8</v>
+      </c>
+      <c r="O90">
+        <v>2.8</v>
+      </c>
+      <c r="P90">
         <v>2.45</v>
       </c>
-      <c r="O90">
-        <v>3.1</v>
-      </c>
-      <c r="P90">
-        <v>2.625</v>
-      </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
+        <v>2.025</v>
+      </c>
+      <c r="S90">
+        <v>1.775</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
         <v>1.825</v>
       </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>2.25</v>
-      </c>
-      <c r="U90">
-        <v>1.775</v>
-      </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6544515</v>
+        <v>6544513</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
+        <v>3.1</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.75</v>
-      </c>
       <c r="N91">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
+        <v>1.975</v>
+      </c>
+      <c r="T91">
+        <v>2.25</v>
+      </c>
+      <c r="U91">
+        <v>1.775</v>
+      </c>
+      <c r="V91">
         <v>2.025</v>
       </c>
-      <c r="S91">
-        <v>1.775</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>1.025</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6553334</v>
+        <v>6553758</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,76 +10961,76 @@
         <v>45055.55208333334</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6553758</v>
+        <v>6553334</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45055.55208333334</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N119">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6553336</v>
+        <v>6553337</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,76 +11584,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N125">
+        <v>2.15</v>
+      </c>
+      <c r="O125">
+        <v>2.8</v>
+      </c>
+      <c r="P125">
+        <v>3.5</v>
+      </c>
+      <c r="Q125">
+        <v>-0.25</v>
+      </c>
+      <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>1.975</v>
+      </c>
+      <c r="T125">
+        <v>1.75</v>
+      </c>
+      <c r="U125">
+        <v>1.775</v>
+      </c>
+      <c r="V125">
+        <v>2.025</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
         <v>1.8</v>
       </c>
-      <c r="O125">
-        <v>3.5</v>
-      </c>
-      <c r="P125">
-        <v>3.6</v>
-      </c>
-      <c r="Q125">
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.975</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
-      <c r="W125">
-        <v>0.8</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.8</v>
-      </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6553337</v>
+        <v>6553760</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L126">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N126">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O126">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P126">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X126">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>-0.5</v>
       </c>
-      <c r="AA126">
-        <v>0.4875</v>
-      </c>
-      <c r="AB126">
-        <v>0.3875</v>
-      </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6553760</v>
+        <v>6553336</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,58 +11762,58 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>48</v>
       </c>
       <c r="K127">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11822,16 +11822,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC127">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6557297</v>
+        <v>6553773</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="N130">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="O130">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q130">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6553773</v>
+        <v>6557297</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,76 +12118,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
+        <v>4.333</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>1.571</v>
+      </c>
+      <c r="N131">
+        <v>5.75</v>
+      </c>
+      <c r="O131">
         <v>5.5</v>
       </c>
-      <c r="L131">
-        <v>4.5</v>
-      </c>
-      <c r="M131">
-        <v>1.4</v>
-      </c>
-      <c r="N131">
-        <v>3.8</v>
-      </c>
-      <c r="O131">
-        <v>4.75</v>
-      </c>
       <c r="P131">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6553339</v>
+        <v>6553762</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,76 +12207,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M132">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N132">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
         <v>1.8</v>
       </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6553762</v>
+        <v>6553339</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,76 +12296,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>50</v>
+      </c>
+      <c r="K133">
+        <v>1.6</v>
+      </c>
+      <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
+        <v>1.727</v>
+      </c>
+      <c r="O133">
+        <v>3.4</v>
+      </c>
+      <c r="P133">
+        <v>4.5</v>
+      </c>
+      <c r="Q133">
+        <v>-0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
+        <v>2.025</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.4</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>1</v>
       </c>
-      <c r="J133" t="s">
-        <v>49</v>
-      </c>
-      <c r="K133">
-        <v>1.95</v>
-      </c>
-      <c r="L133">
-        <v>3.1</v>
-      </c>
-      <c r="M133">
-        <v>3.6</v>
-      </c>
-      <c r="N133">
-        <v>2.2</v>
-      </c>
-      <c r="O133">
-        <v>3.1</v>
-      </c>
-      <c r="P133">
-        <v>3.1</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>1.8</v>
-      </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>1.875</v>
-      </c>
-      <c r="V133">
-        <v>1.925</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>2.1</v>
-      </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
-      <c r="AA133">
-        <v>0.8</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553761</v>
+        <v>6553338</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,40 +12385,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M134">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N134">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
         <v>1.975</v>
@@ -12427,34 +12427,34 @@
         <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6553338</v>
+        <v>6553761</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,40 +12474,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N135">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
         <v>1.975</v>
@@ -12516,34 +12516,34 @@
         <v>1.825</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6556917</v>
+        <v>6556912</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,46 +12563,46 @@
         <v>45073.5</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P136">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>2.25</v>
@@ -12617,22 +12617,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y136">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6553340</v>
+        <v>6553341</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,10 +12652,10 @@
         <v>45073.5</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12667,43 +12667,43 @@
         <v>48</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>6.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12712,13 +12712,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6553341</v>
+        <v>6553340</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,10 +12741,10 @@
         <v>45073.5</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12756,43 +12756,43 @@
         <v>48</v>
       </c>
       <c r="K138">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N138">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P138">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
-        <v>0.5329999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12801,13 +12801,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6556912</v>
+        <v>6556917</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,46 +12830,46 @@
         <v>45073.5</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K139">
+        <v>2.5</v>
+      </c>
+      <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
+        <v>2.3</v>
+      </c>
+      <c r="O139">
         <v>3.4</v>
       </c>
-      <c r="L139">
-        <v>2.9</v>
-      </c>
-      <c r="M139">
-        <v>2.1</v>
-      </c>
-      <c r="N139">
-        <v>3.1</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
       <c r="P139">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.25</v>
@@ -12884,22 +12884,22 @@
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z139">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6553775</v>
+        <v>6557300</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45074.5</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6557300</v>
+        <v>6553775</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45074.5</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N142">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,76 +13720,76 @@
         <v>45137.625</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L149">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N149">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O149">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P149">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q149">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
         <v>1.8</v>
       </c>
-      <c r="S149">
-        <v>2</v>
-      </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>0.8</v>
       </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,76 +13809,76 @@
         <v>45137.625</v>
       </c>
       <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150">
+        <v>5</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>48</v>
+      </c>
+      <c r="K150">
+        <v>1.166</v>
+      </c>
+      <c r="L150">
+        <v>6</v>
+      </c>
+      <c r="M150">
+        <v>11</v>
+      </c>
+      <c r="N150">
+        <v>1.05</v>
+      </c>
+      <c r="O150">
+        <v>13</v>
+      </c>
+      <c r="P150">
         <v>34</v>
       </c>
-      <c r="G150" t="s">
-        <v>45</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>1.909</v>
-      </c>
-      <c r="L150">
-        <v>3.2</v>
-      </c>
-      <c r="M150">
-        <v>3.6</v>
-      </c>
-      <c r="N150">
-        <v>1.909</v>
-      </c>
-      <c r="O150">
-        <v>3.2</v>
-      </c>
-      <c r="P150">
+      <c r="Q150">
+        <v>-3</v>
+      </c>
+      <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
         <v>3.75</v>
       </c>
-      <c r="Q150">
-        <v>-0.5</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
+      <c r="U150">
         <v>1.8</v>
       </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
         <v>0.8</v>
       </c>
-      <c r="AB150">
-        <v>-1</v>
-      </c>
       <c r="AC150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,56 +15856,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
+        <v>1.825</v>
+      </c>
+      <c r="V173">
         <v>1.975</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.875</v>
-      </c>
-      <c r="V173">
-        <v>1.925</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15913,19 +15913,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.925</v>
+      </c>
+      <c r="AB173">
         <v>0.825</v>
       </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,56 +15945,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>49</v>
       </c>
       <c r="K174">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L174">
+        <v>3.75</v>
+      </c>
+      <c r="M174">
+        <v>4.5</v>
+      </c>
+      <c r="N174">
+        <v>1.909</v>
+      </c>
+      <c r="O174">
+        <v>3.1</v>
+      </c>
+      <c r="P174">
         <v>4</v>
       </c>
-      <c r="M174">
-        <v>1.533</v>
-      </c>
-      <c r="N174">
-        <v>4</v>
-      </c>
-      <c r="O174">
-        <v>3.3</v>
-      </c>
-      <c r="P174">
-        <v>1.85</v>
-      </c>
       <c r="Q174">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
         <v>1.875</v>
       </c>
-      <c r="S174">
+      <c r="V174">
         <v>1.925</v>
       </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
-      <c r="V174">
-        <v>1.975</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
@@ -16002,19 +16002,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.825</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.925</v>
-      </c>
-      <c r="AB174">
-        <v>0.825</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16467,7 +16467,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16479,76 +16479,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L180">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
+        <v>1.5</v>
+      </c>
+      <c r="O180">
+        <v>3.6</v>
+      </c>
+      <c r="P180">
+        <v>6</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>1.85</v>
+      </c>
+      <c r="S180">
         <v>1.95</v>
       </c>
-      <c r="O180">
-        <v>3</v>
-      </c>
-      <c r="P180">
-        <v>3.75</v>
-      </c>
-      <c r="Q180">
-        <v>-0.5</v>
-      </c>
-      <c r="R180">
-        <v>2</v>
-      </c>
-      <c r="S180">
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
         <v>1.8</v>
       </c>
-      <c r="T180">
-        <v>2</v>
-      </c>
-      <c r="U180">
-        <v>1.85</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
+        <v>0.95</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.8</v>
-      </c>
-      <c r="AB180">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,76 +16568,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L181">
+        <v>3.1</v>
+      </c>
+      <c r="M181">
+        <v>2.875</v>
+      </c>
+      <c r="N181">
+        <v>1.95</v>
+      </c>
+      <c r="O181">
+        <v>3</v>
+      </c>
+      <c r="P181">
         <v>3.75</v>
       </c>
-      <c r="M181">
-        <v>7.5</v>
-      </c>
-      <c r="N181">
-        <v>1.5</v>
-      </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
-      <c r="P181">
-        <v>6</v>
-      </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
         <v>1.85</v>
       </c>
-      <c r="S181">
+      <c r="V181">
         <v>1.95</v>
       </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>2</v>
-      </c>
-      <c r="V181">
-        <v>1.8</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,58 +16924,58 @@
         <v>45171.625</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N185">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O185">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q185">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16984,16 +16984,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17013,58 +17013,58 @@
         <v>45171.625</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>1</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M186">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N186">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P186">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,58 +18526,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M203">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,16 +18586,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC203">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,58 +18615,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>48</v>
       </c>
       <c r="K204">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N204">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P204">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W204">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,16 +18675,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA204">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -25545,7 +25545,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25557,55 +25557,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G282" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
         <v>1</v>
-      </c>
-      <c r="I282">
-        <v>2</v>
       </c>
       <c r="J282" t="s">
         <v>49</v>
       </c>
       <c r="K282">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L282">
         <v>3.2</v>
       </c>
       <c r="M282">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N282">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O282">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R282">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25614,19 +25614,19 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB282">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25634,7 +25634,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25646,55 +25646,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>49</v>
       </c>
       <c r="K283">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L283">
         <v>3.2</v>
       </c>
       <c r="M283">
+        <v>3.1</v>
+      </c>
+      <c r="N283">
         <v>2.4</v>
       </c>
-      <c r="N283">
-        <v>3</v>
-      </c>
       <c r="O283">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P283">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q283">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S283">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W283">
         <v>-1</v>
@@ -25703,19 +25703,19 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -28242,22 +28242,22 @@
         <v>2.625</v>
       </c>
       <c r="N312">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O312">
         <v>3</v>
       </c>
       <c r="P312">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q312">
         <v>0</v>
       </c>
       <c r="R312">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S312">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T312">
         <v>2.5</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
     <t>Vojvodina</t>
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5161591</v>
+        <v>5161589</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,73 +1530,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12">
+        <v>1.45</v>
+      </c>
+      <c r="L12">
+        <v>3.6</v>
+      </c>
+      <c r="M12">
+        <v>7.5</v>
+      </c>
+      <c r="N12">
+        <v>1.55</v>
+      </c>
+      <c r="O12">
+        <v>3.5</v>
+      </c>
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>5.25</v>
-      </c>
-      <c r="M12">
-        <v>1.222</v>
-      </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-      <c r="O12">
-        <v>5.25</v>
-      </c>
-      <c r="P12">
-        <v>1.2</v>
-      </c>
       <c r="Q12">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5161589</v>
+        <v>5161591</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,73 +1619,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>1.45</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M13">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="N13">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z13">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>44980.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3218,7 +3218,7 @@
         <v>44982.5</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3577,7 +3577,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3933,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4731,7 +4731,7 @@
         <v>44992.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5179,7 +5179,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>44</v>
@@ -6247,7 +6247,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6600,7 +6600,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>43</v>
@@ -6870,7 +6870,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5161632</v>
+        <v>5161153</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45023.5</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="N80">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T80">
         <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB80">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5161153</v>
+        <v>5161632</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45023.5</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M81">
+        <v>3.75</v>
+      </c>
+      <c r="N81">
         <v>1.85</v>
       </c>
-      <c r="N81">
-        <v>4.5</v>
-      </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q81">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y81">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB81">
         <v>-0.5</v>
       </c>
-      <c r="AA81">
-        <v>0.5</v>
-      </c>
-      <c r="AB81">
-        <v>0.8</v>
-      </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8113,10 +8113,10 @@
         <v>45027.54166666666</v>
       </c>
       <c r="F86" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" t="s">
         <v>39</v>
-      </c>
-      <c r="G86" t="s">
-        <v>40</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6544515</v>
+        <v>6544513</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
         <v>3</v>
       </c>
-      <c r="M90">
-        <v>2.75</v>
-      </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O90">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.775</v>
+      </c>
+      <c r="V90">
         <v>2.025</v>
       </c>
-      <c r="S90">
-        <v>1.775</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1.025</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6544513</v>
+        <v>6544515</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
+        <v>2.8</v>
+      </c>
+      <c r="O91">
+        <v>2.8</v>
+      </c>
+      <c r="P91">
         <v>2.45</v>
       </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.625</v>
-      </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
+        <v>2.025</v>
+      </c>
+      <c r="S91">
+        <v>1.775</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="S91">
-        <v>1.975</v>
-      </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.775</v>
-      </c>
-      <c r="V91">
-        <v>2.025</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8828,7 +8828,7 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -9184,7 +9184,7 @@
         <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>45043.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9807,7 +9807,7 @@
         <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6553333</v>
+        <v>6557854</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,73 +9893,73 @@
         <v>45046.5</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L106">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6557854</v>
+        <v>6553333</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,73 +9982,73 @@
         <v>45046.5</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107" t="s">
+        <v>49</v>
+      </c>
+      <c r="K107">
+        <v>1.909</v>
+      </c>
+      <c r="L107">
+        <v>3.25</v>
+      </c>
+      <c r="M107">
+        <v>3.5</v>
+      </c>
+      <c r="N107">
+        <v>1.8</v>
+      </c>
+      <c r="O107">
+        <v>3.3</v>
+      </c>
+      <c r="P107">
         <v>4</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>48</v>
-      </c>
-      <c r="K107">
-        <v>1.285</v>
-      </c>
-      <c r="L107">
-        <v>5</v>
-      </c>
-      <c r="M107">
-        <v>7.5</v>
-      </c>
-      <c r="N107">
-        <v>1.363</v>
-      </c>
-      <c r="O107">
-        <v>4.75</v>
-      </c>
-      <c r="P107">
-        <v>6.5</v>
-      </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10249,7 +10249,7 @@
         <v>45047.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10608,7 +10608,7 @@
         <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10783,7 +10783,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -11317,10 +11317,10 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s">
         <v>40</v>
-      </c>
-      <c r="G122" t="s">
-        <v>39</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6553337</v>
+        <v>6553760</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,76 +11584,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N125">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AA125">
-        <v>0.4875</v>
-      </c>
-      <c r="AB125">
-        <v>0.3875</v>
-      </c>
       <c r="AC125">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6553760</v>
+        <v>6553337</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O126">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
+        <v>1.825</v>
+      </c>
+      <c r="S126">
+        <v>1.975</v>
+      </c>
+      <c r="T126">
+        <v>1.75</v>
+      </c>
+      <c r="U126">
         <v>1.775</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>2.025</v>
       </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.85</v>
-      </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
       <c r="W126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB126">
+        <v>0.3875</v>
+      </c>
+      <c r="AC126">
         <v>-0.5</v>
-      </c>
-      <c r="AC126">
-        <v>0.475</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6553773</v>
+        <v>6557297</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" t="s">
         <v>39</v>
-      </c>
-      <c r="G130" t="s">
-        <v>38</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
+        <v>4.333</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>1.571</v>
+      </c>
+      <c r="N130">
+        <v>5.75</v>
+      </c>
+      <c r="O130">
         <v>5.5</v>
       </c>
-      <c r="L130">
-        <v>4.5</v>
-      </c>
-      <c r="M130">
-        <v>1.4</v>
-      </c>
-      <c r="N130">
-        <v>3.8</v>
-      </c>
-      <c r="O130">
-        <v>4.75</v>
-      </c>
       <c r="P130">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6557297</v>
+        <v>6553773</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,76 +12118,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M131">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="N131">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="O131">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6553762</v>
+        <v>6553339</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,76 +12207,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>50</v>
+      </c>
+      <c r="K132">
+        <v>1.6</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>5</v>
+      </c>
+      <c r="N132">
+        <v>1.727</v>
+      </c>
+      <c r="O132">
+        <v>3.4</v>
+      </c>
+      <c r="P132">
+        <v>4.5</v>
+      </c>
+      <c r="Q132">
+        <v>-0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.8</v>
+      </c>
+      <c r="S132">
+        <v>2</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1.775</v>
+      </c>
+      <c r="V132">
+        <v>2.025</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>2.4</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>1</v>
       </c>
-      <c r="J132" t="s">
-        <v>49</v>
-      </c>
-      <c r="K132">
-        <v>1.95</v>
-      </c>
-      <c r="L132">
-        <v>3.1</v>
-      </c>
-      <c r="M132">
-        <v>3.6</v>
-      </c>
-      <c r="N132">
-        <v>2.2</v>
-      </c>
-      <c r="O132">
-        <v>3.1</v>
-      </c>
-      <c r="P132">
-        <v>3.1</v>
-      </c>
-      <c r="Q132">
-        <v>-0.25</v>
-      </c>
-      <c r="R132">
-        <v>2</v>
-      </c>
-      <c r="S132">
-        <v>1.8</v>
-      </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>1.875</v>
-      </c>
-      <c r="V132">
-        <v>1.925</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
-        <v>2.1</v>
-      </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
-      <c r="AA132">
-        <v>0.8</v>
-      </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6553339</v>
+        <v>6553338</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,76 +12296,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N133">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553338</v>
+        <v>6553761</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,40 +12385,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
         <v>1.975</v>
@@ -12427,34 +12427,34 @@
         <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6553761</v>
+        <v>6553762</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,49 +12474,49 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L135">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M135">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O135">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
         <v>1.875</v>
@@ -12525,25 +12525,25 @@
         <v>1.925</v>
       </c>
       <c r="W135">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6556912</v>
+        <v>6556917</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,46 +12563,46 @@
         <v>45073.5</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K136">
+        <v>2.5</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>2.5</v>
+      </c>
+      <c r="N136">
+        <v>2.3</v>
+      </c>
+      <c r="O136">
         <v>3.4</v>
       </c>
-      <c r="L136">
-        <v>2.9</v>
-      </c>
-      <c r="M136">
-        <v>2.1</v>
-      </c>
-      <c r="N136">
-        <v>3.1</v>
-      </c>
-      <c r="O136">
-        <v>3.1</v>
-      </c>
       <c r="P136">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
         <v>2.25</v>
@@ -12617,22 +12617,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z136">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6553341</v>
+        <v>6556912</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,40 +12652,40 @@
         <v>45073.5</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M137">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N137">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
         <v>1.9</v>
@@ -12703,19 +12703,19 @@
         <v>1.8</v>
       </c>
       <c r="W137">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
         <v>1</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6553340</v>
+        <v>6553341</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,10 +12741,10 @@
         <v>45073.5</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12756,43 +12756,43 @@
         <v>48</v>
       </c>
       <c r="K138">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N138">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>6.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12801,13 +12801,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6556917</v>
+        <v>6553340</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45073.5</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N139">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6557300</v>
+        <v>6553775</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45074.5</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X141">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6553775</v>
+        <v>6557300</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45074.5</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L142">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,58 +13275,58 @@
         <v>45136.57986111111</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L144">
+        <v>3.2</v>
+      </c>
+      <c r="M144">
         <v>3.6</v>
       </c>
-      <c r="M144">
-        <v>5</v>
-      </c>
       <c r="N144">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13335,16 +13335,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,58 +13364,58 @@
         <v>45136.57986111111</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>1.533</v>
+      </c>
+      <c r="O145">
         <v>3.6</v>
       </c>
-      <c r="N145">
-        <v>1.909</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13424,16 +13424,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,43 +13456,43 @@
         <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
         <v>50</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M146">
+        <v>2.4</v>
+      </c>
+      <c r="N146">
+        <v>2.7</v>
+      </c>
+      <c r="O146">
         <v>3</v>
       </c>
-      <c r="N146">
-        <v>2.5</v>
-      </c>
-      <c r="O146">
-        <v>3.1</v>
-      </c>
       <c r="P146">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
         <v>2.25</v>
@@ -13507,22 +13507,22 @@
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,43 +13545,43 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>50</v>
       </c>
       <c r="K147">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
+        <v>3.1</v>
+      </c>
+      <c r="M147">
         <v>3</v>
       </c>
-      <c r="M147">
-        <v>2.4</v>
-      </c>
       <c r="N147">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
@@ -13596,22 +13596,22 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14788,7 +14788,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14877,7 +14877,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
         <v>30</v>
@@ -15681,7 +15681,7 @@
         <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16123,7 +16123,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
@@ -16212,7 +16212,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16749,7 +16749,7 @@
         <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16838,7 +16838,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17535,7 +17535,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,37 +17550,37 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H192">
+        <v>6</v>
+      </c>
+      <c r="I192">
         <v>3</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>48</v>
       </c>
       <c r="K192">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M192">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N192">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O192">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P192">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R192">
         <v>2</v>
@@ -17589,16 +17589,16 @@
         <v>1.8</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17613,7 +17613,7 @@
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17624,7 +17624,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,37 +17639,37 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L193">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N193">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O193">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P193">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q193">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
         <v>2</v>
@@ -17678,16 +17678,16 @@
         <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17702,7 +17702,7 @@
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -18351,7 +18351,7 @@
         <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,58 +18526,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L203">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N203">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O203">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P203">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V203">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W203">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,16 +18586,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC203">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,58 +18615,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>48</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M204">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N204">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O204">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P204">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,16 +18675,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19327,7 +19327,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G212" t="s">
         <v>35</v>
@@ -19950,7 +19950,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
         <v>33</v>
@@ -20042,7 +20042,7 @@
         <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20484,10 +20484,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F225" t="s">
+        <v>40</v>
+      </c>
+      <c r="G225" t="s">
         <v>39</v>
-      </c>
-      <c r="G225" t="s">
-        <v>40</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20573,73 +20573,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>3.25</v>
+      </c>
+      <c r="M226">
+        <v>3.25</v>
+      </c>
+      <c r="N226">
+        <v>2.55</v>
+      </c>
+      <c r="O226">
+        <v>3.2</v>
+      </c>
+      <c r="P226">
+        <v>2.55</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>1.9</v>
+      </c>
+      <c r="S226">
+        <v>1.9</v>
+      </c>
+      <c r="T226">
         <v>2.25</v>
       </c>
-      <c r="L226">
-        <v>3</v>
-      </c>
-      <c r="M226">
-        <v>3</v>
-      </c>
-      <c r="N226">
-        <v>1.363</v>
-      </c>
-      <c r="O226">
-        <v>3.8</v>
-      </c>
-      <c r="P226">
-        <v>9</v>
-      </c>
-      <c r="Q226">
-        <v>-1.25</v>
-      </c>
-      <c r="R226">
-        <v>1.825</v>
-      </c>
-      <c r="S226">
-        <v>1.975</v>
-      </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
       <c r="U226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W226">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z226">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,73 +20662,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L227">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M227">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N227">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P227">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R227">
+        <v>1.825</v>
+      </c>
+      <c r="S227">
+        <v>1.975</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
         <v>1.9</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.9</v>
       </c>
-      <c r="T227">
-        <v>2.25</v>
-      </c>
-      <c r="U227">
-        <v>1.875</v>
-      </c>
-      <c r="V227">
-        <v>1.925</v>
-      </c>
       <c r="W227">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB227">
-        <v>0.875</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -21466,7 +21466,7 @@
         <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -21552,7 +21552,7 @@
         <v>45228.625</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
         <v>35</v>
@@ -21644,7 +21644,7 @@
         <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
         <v>31</v>
@@ -22534,7 +22534,7 @@
         <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -23065,7 +23065,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G254" t="s">
         <v>41</v>
@@ -23513,7 +23513,7 @@
         <v>42</v>
       </c>
       <c r="G259" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23869,7 +23869,7 @@
         <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H263">
         <v>4</v>
@@ -24311,7 +24311,7 @@
         <v>45262.625</v>
       </c>
       <c r="F268" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G268" t="s">
         <v>46</v>
@@ -24578,7 +24578,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G271" t="s">
         <v>31</v>
@@ -24670,7 +24670,7 @@
         <v>30</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25468,7 +25468,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G281" t="s">
         <v>45</v>
@@ -25913,7 +25913,7 @@
         <v>45278.5</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G286" t="s">
         <v>43</v>
@@ -26447,7 +26447,7 @@
         <v>45281.625</v>
       </c>
       <c r="F292" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G292" t="s">
         <v>41</v>
@@ -26714,7 +26714,7 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G295" t="s">
         <v>34</v>
@@ -27162,7 +27162,7 @@
         <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H300">
         <v>2</v>
@@ -27340,7 +27340,7 @@
         <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -28049,7 +28049,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
         <v>37</v>
@@ -28138,7 +28138,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F311" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G311" t="s">
         <v>34</v>
@@ -28232,6 +28232,15 @@
       <c r="G312" t="s">
         <v>31</v>
       </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>3</v>
+      </c>
+      <c r="J312" t="s">
+        <v>49</v>
+      </c>
       <c r="K312">
         <v>2.5</v>
       </c>
@@ -28242,46 +28251,52 @@
         <v>2.625</v>
       </c>
       <c r="N312">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O312">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P312">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S312">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T312">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U312">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V312">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB312">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC312">
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28452,7 +28467,7 @@
         <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K315">
         <v>3.75</v>
@@ -28748,7 +28763,7 @@
         <v>44</v>
       </c>
       <c r="G319" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K319">
         <v>2.375</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC319"/>
+  <dimension ref="A1:AC318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5161153</v>
+        <v>5161632</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45023.5</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
+        <v>3.75</v>
+      </c>
+      <c r="N80">
         <v>1.85</v>
       </c>
-      <c r="N80">
-        <v>4.5</v>
-      </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q80">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
         <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y80">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB80">
         <v>-0.5</v>
       </c>
-      <c r="AA80">
-        <v>0.5</v>
-      </c>
-      <c r="AB80">
-        <v>0.8</v>
-      </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5161632</v>
+        <v>5161153</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45023.5</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L81">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="N81">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB81">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6544513</v>
+        <v>6544515</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N90">
+        <v>2.8</v>
+      </c>
+      <c r="O90">
+        <v>2.8</v>
+      </c>
+      <c r="P90">
         <v>2.45</v>
-      </c>
-      <c r="O90">
-        <v>3.1</v>
-      </c>
-      <c r="P90">
-        <v>2.625</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
+        <v>2.025</v>
+      </c>
+      <c r="S90">
+        <v>1.775</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
         <v>1.825</v>
       </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>2.25</v>
-      </c>
-      <c r="U90">
-        <v>1.775</v>
-      </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6544515</v>
+        <v>6544513</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
+        <v>3.1</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.75</v>
-      </c>
       <c r="N91">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
+        <v>1.975</v>
+      </c>
+      <c r="T91">
+        <v>2.25</v>
+      </c>
+      <c r="U91">
+        <v>1.775</v>
+      </c>
+      <c r="V91">
         <v>2.025</v>
       </c>
-      <c r="S91">
-        <v>1.775</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>1.025</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6557852</v>
+        <v>6553755</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,49 +9270,49 @@
         <v>45042.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
+        <v>2.9</v>
+      </c>
+      <c r="M99">
         <v>3.1</v>
       </c>
-      <c r="M99">
-        <v>2.05</v>
-      </c>
       <c r="N99">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9324,16 +9324,16 @@
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6553755</v>
+        <v>6557852</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,49 +9359,49 @@
         <v>45042.5625</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L100">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N100">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
         <v>2</v>
@@ -9413,16 +9413,16 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y100">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6553758</v>
+        <v>6553334</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,76 +10961,76 @@
         <v>45055.55208333334</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N118">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6553334</v>
+        <v>6553758</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45055.55208333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L119">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N119">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6557297</v>
+        <v>6553773</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="N130">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="O130">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q130">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6553773</v>
+        <v>6557297</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,76 +12118,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
+        <v>4.333</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>1.571</v>
+      </c>
+      <c r="N131">
+        <v>5.75</v>
+      </c>
+      <c r="O131">
         <v>5.5</v>
       </c>
-      <c r="L131">
-        <v>4.5</v>
-      </c>
-      <c r="M131">
-        <v>1.4</v>
-      </c>
-      <c r="N131">
-        <v>3.8</v>
-      </c>
-      <c r="O131">
-        <v>4.75</v>
-      </c>
       <c r="P131">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6553339</v>
+        <v>6553761</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,76 +12207,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P132">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q132">
+        <v>-1.25</v>
+      </c>
+      <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
+        <v>1.825</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>1.875</v>
+      </c>
+      <c r="V132">
+        <v>1.925</v>
+      </c>
+      <c r="W132">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
         <v>-0.5</v>
       </c>
-      <c r="R132">
-        <v>1.8</v>
-      </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>1.775</v>
-      </c>
-      <c r="V132">
-        <v>2.025</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>2.4</v>
-      </c>
-      <c r="Y132">
-        <v>-1</v>
-      </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6553338</v>
+        <v>6553339</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,76 +12296,76 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>50</v>
+      </c>
+      <c r="K133">
+        <v>1.6</v>
+      </c>
+      <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
+        <v>1.727</v>
+      </c>
+      <c r="O133">
+        <v>3.4</v>
+      </c>
+      <c r="P133">
+        <v>4.5</v>
+      </c>
+      <c r="Q133">
+        <v>-0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
+        <v>2.025</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.4</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>1</v>
       </c>
-      <c r="J133" t="s">
-        <v>49</v>
-      </c>
-      <c r="K133">
-        <v>1.85</v>
-      </c>
-      <c r="L133">
-        <v>3.2</v>
-      </c>
-      <c r="M133">
-        <v>3.8</v>
-      </c>
-      <c r="N133">
-        <v>2.25</v>
-      </c>
-      <c r="O133">
-        <v>3.1</v>
-      </c>
-      <c r="P133">
-        <v>3</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.975</v>
-      </c>
-      <c r="S133">
-        <v>1.825</v>
-      </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>1.825</v>
-      </c>
-      <c r="V133">
-        <v>1.975</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>2</v>
-      </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
-      <c r="AA133">
-        <v>0.825</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553761</v>
+        <v>6553338</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,40 +12385,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M134">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N134">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
         <v>1.975</v>
@@ -12427,34 +12427,34 @@
         <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,61 +14788,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L161">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N161">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X161">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14851,13 +14851,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14865,7 +14865,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14877,61 +14877,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M162">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14940,13 +14940,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,58 +16924,58 @@
         <v>45171.625</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>1</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M185">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N185">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P185">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16984,16 +16984,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17013,58 +17013,58 @@
         <v>45171.625</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L186">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M186">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N186">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O186">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P186">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q186">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W186">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,58 +18526,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M203">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,16 +18586,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC203">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,58 +18615,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>48</v>
       </c>
       <c r="K204">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N204">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P204">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W204">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,16 +18675,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA204">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -28304,7 +28304,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7861638</v>
+        <v>7861639</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28313,49 +28313,49 @@
         <v>28</v>
       </c>
       <c r="E313" s="2">
-        <v>45346.40625</v>
+        <v>45346.5</v>
       </c>
       <c r="F313" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G313" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K313">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="L313">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M313">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N313">
-        <v>6.5</v>
+        <v>1.25</v>
       </c>
       <c r="O313">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P313">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q313">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R313">
+        <v>1.825</v>
+      </c>
+      <c r="S313">
         <v>1.975</v>
-      </c>
-      <c r="S313">
-        <v>1.825</v>
       </c>
       <c r="T313">
         <v>2.75</v>
       </c>
       <c r="U313">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V313">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W313">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7861639</v>
+        <v>6979554</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28387,49 +28387,49 @@
         <v>28</v>
       </c>
       <c r="E314" s="2">
-        <v>45346.5</v>
+        <v>45346.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G314" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K314">
-        <v>1.222</v>
+        <v>3.75</v>
       </c>
       <c r="L314">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M314">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N314">
-        <v>1.222</v>
+        <v>4.2</v>
       </c>
       <c r="O314">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P314">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q314">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R314">
+        <v>1.825</v>
+      </c>
+      <c r="S314">
+        <v>1.975</v>
+      </c>
+      <c r="T314">
+        <v>2.5</v>
+      </c>
+      <c r="U314">
+        <v>1.925</v>
+      </c>
+      <c r="V314">
         <v>1.875</v>
-      </c>
-      <c r="S314">
-        <v>1.925</v>
-      </c>
-      <c r="T314">
-        <v>3</v>
-      </c>
-      <c r="U314">
-        <v>1.825</v>
-      </c>
-      <c r="V314">
-        <v>1.975</v>
       </c>
       <c r="W314">
         <v>0</v>
@@ -28452,7 +28452,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6979554</v>
+        <v>7861640</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28461,49 +28461,49 @@
         <v>28</v>
       </c>
       <c r="E315" s="2">
-        <v>45346.60416666666</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G315" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K315">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L315">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M315">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N315">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="O315">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P315">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="Q315">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R315">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T315">
         <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7861640</v>
+        <v>7861641</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28535,49 +28535,49 @@
         <v>28</v>
       </c>
       <c r="E316" s="2">
-        <v>45347.41666666666</v>
+        <v>45347.52083333334</v>
       </c>
       <c r="F316" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G316" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K316">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L316">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M316">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N316">
         <v>2.375</v>
       </c>
       <c r="O316">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P316">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q316">
         <v>0</v>
       </c>
       <c r="R316">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S316">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T316">
         <v>2.5</v>
       </c>
       <c r="U316">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V316">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28600,7 +28600,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7861641</v>
+        <v>7861642</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28609,49 +28609,49 @@
         <v>28</v>
       </c>
       <c r="E317" s="2">
-        <v>45347.52083333334</v>
+        <v>45347.60416666666</v>
       </c>
       <c r="F317" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K317">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L317">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M317">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N317">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P317">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R317">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S317">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T317">
         <v>2.5</v>
       </c>
       <c r="U317">
+        <v>1.825</v>
+      </c>
+      <c r="V317">
         <v>1.975</v>
-      </c>
-      <c r="V317">
-        <v>1.825</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28674,7 +28674,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7861642</v>
+        <v>6979552</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28683,49 +28683,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45347.60416666666</v>
+        <v>45348.52083333334</v>
       </c>
       <c r="F318" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G318" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K318">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L318">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N318">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O318">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P318">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q318">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S318">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T318">
         <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V318">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28740,80 +28740,6 @@
         <v>0</v>
       </c>
       <c r="AA318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:29">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>6979552</v>
-      </c>
-      <c r="C319" t="s">
-        <v>28</v>
-      </c>
-      <c r="D319" t="s">
-        <v>28</v>
-      </c>
-      <c r="E319" s="2">
-        <v>45348.52083333334</v>
-      </c>
-      <c r="F319" t="s">
-        <v>44</v>
-      </c>
-      <c r="G319" t="s">
-        <v>40</v>
-      </c>
-      <c r="K319">
-        <v>2.375</v>
-      </c>
-      <c r="L319">
-        <v>3.25</v>
-      </c>
-      <c r="M319">
-        <v>2.625</v>
-      </c>
-      <c r="N319">
-        <v>2.25</v>
-      </c>
-      <c r="O319">
-        <v>3.25</v>
-      </c>
-      <c r="P319">
-        <v>2.8</v>
-      </c>
-      <c r="Q319">
-        <v>-0.25</v>
-      </c>
-      <c r="R319">
-        <v>2.025</v>
-      </c>
-      <c r="S319">
-        <v>1.775</v>
-      </c>
-      <c r="T319">
-        <v>2.5</v>
-      </c>
-      <c r="U319">
-        <v>2</v>
-      </c>
-      <c r="V319">
-        <v>1.8</v>
-      </c>
-      <c r="W319">
-        <v>0</v>
-      </c>
-      <c r="X319">
-        <v>0</v>
-      </c>
-      <c r="Y319">
-        <v>0</v>
-      </c>
-      <c r="Z319">
-        <v>0</v>
-      </c>
-      <c r="AA319">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC318"/>
+  <dimension ref="A1:AC319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5161614</v>
+        <v>5161146</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,76 +5176,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S53">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5161146</v>
+        <v>5161614</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,76 +5265,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
+        <v>3.4</v>
+      </c>
+      <c r="N54">
+        <v>1.5</v>
+      </c>
+      <c r="O54">
         <v>3.6</v>
       </c>
-      <c r="N54">
-        <v>1.95</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
       <c r="P54">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S54">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5161630</v>
+        <v>5161152</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>45021.57291666666</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y76">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5161152</v>
+        <v>5161630</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45021.57291666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="L77">
+        <v>5.5</v>
+      </c>
+      <c r="M77">
+        <v>1.181</v>
+      </c>
+      <c r="N77">
+        <v>9.5</v>
+      </c>
+      <c r="O77">
+        <v>4.75</v>
+      </c>
+      <c r="P77">
+        <v>1.25</v>
+      </c>
+      <c r="Q77">
+        <v>1.75</v>
+      </c>
+      <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
+        <v>1.975</v>
+      </c>
+      <c r="T77">
         <v>3</v>
       </c>
-      <c r="M77">
-        <v>2.5</v>
-      </c>
-      <c r="N77">
-        <v>1.7</v>
-      </c>
-      <c r="O77">
-        <v>3.4</v>
-      </c>
-      <c r="P77">
-        <v>4.2</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.775</v>
-      </c>
-      <c r="S77">
-        <v>2.025</v>
-      </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7834,7 +7834,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5161638</v>
+        <v>6502618</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7846,58 +7846,58 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
       </c>
       <c r="K83">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="N83">
-        <v>2.7</v>
+        <v>1.125</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="P83">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
+        <v>3.25</v>
+      </c>
+      <c r="U83">
         <v>1.8</v>
       </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2</v>
-      </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>1.7</v>
+        <v>0.125</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7906,16 +7906,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>-0.5</v>
+      </c>
+      <c r="AA83">
+        <v>0.4875</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>1</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>1</v>
-      </c>
-      <c r="AC83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7923,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6502618</v>
+        <v>5161638</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7935,58 +7935,58 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="L84">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.125</v>
+        <v>2.7</v>
       </c>
       <c r="O84">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="P84">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
         <v>1.8</v>
       </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
       <c r="W84">
-        <v>0.125</v>
+        <v>1.7</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7995,16 +7995,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA84">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6544515</v>
+        <v>6544513</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
         <v>3</v>
       </c>
-      <c r="M90">
-        <v>2.75</v>
-      </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O90">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.775</v>
+      </c>
+      <c r="V90">
         <v>2.025</v>
       </c>
-      <c r="S90">
-        <v>1.775</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1.025</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6544513</v>
+        <v>6544515</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
+        <v>2.8</v>
+      </c>
+      <c r="O91">
+        <v>2.8</v>
+      </c>
+      <c r="P91">
         <v>2.45</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.625</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
+        <v>2.025</v>
+      </c>
+      <c r="S91">
+        <v>1.775</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="S91">
-        <v>1.975</v>
-      </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.775</v>
-      </c>
-      <c r="V91">
-        <v>2.025</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6553755</v>
+        <v>6557852</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,49 +9270,49 @@
         <v>45042.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N99">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9324,16 +9324,16 @@
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y99">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6557852</v>
+        <v>6553755</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,49 +9359,49 @@
         <v>45042.5625</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
+        <v>2.9</v>
+      </c>
+      <c r="M100">
         <v>3.1</v>
       </c>
-      <c r="M100">
-        <v>2.05</v>
-      </c>
       <c r="N100">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
         <v>2</v>
@@ -9413,16 +9413,16 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
         <v>-1</v>
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6557854</v>
+        <v>6553333</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,73 +9893,73 @@
         <v>45046.5</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>49</v>
+      </c>
+      <c r="K106">
+        <v>1.909</v>
+      </c>
+      <c r="L106">
+        <v>3.25</v>
+      </c>
+      <c r="M106">
+        <v>3.5</v>
+      </c>
+      <c r="N106">
+        <v>1.8</v>
+      </c>
+      <c r="O106">
+        <v>3.3</v>
+      </c>
+      <c r="P106">
         <v>4</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>48</v>
-      </c>
-      <c r="K106">
-        <v>1.285</v>
-      </c>
-      <c r="L106">
-        <v>5</v>
-      </c>
-      <c r="M106">
-        <v>7.5</v>
-      </c>
-      <c r="N106">
-        <v>1.363</v>
-      </c>
-      <c r="O106">
-        <v>4.75</v>
-      </c>
-      <c r="P106">
-        <v>6.5</v>
-      </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6553333</v>
+        <v>6557854</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,73 +9982,73 @@
         <v>45046.5</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6553334</v>
+        <v>6553758</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,76 +10961,76 @@
         <v>45055.55208333334</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6553758</v>
+        <v>6553334</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45055.55208333334</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N119">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6553337</v>
+        <v>6553336</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L126">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N126">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.975</v>
+      </c>
+      <c r="V126">
         <v>1.825</v>
       </c>
-      <c r="S126">
-        <v>1.975</v>
-      </c>
-      <c r="T126">
-        <v>1.75</v>
-      </c>
-      <c r="U126">
-        <v>1.775</v>
-      </c>
-      <c r="V126">
-        <v>2.025</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X126">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6553336</v>
+        <v>6553337</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,76 +11762,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K127">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M127">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N127">
+        <v>2.15</v>
+      </c>
+      <c r="O127">
+        <v>2.8</v>
+      </c>
+      <c r="P127">
+        <v>3.5</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.825</v>
+      </c>
+      <c r="S127">
+        <v>1.975</v>
+      </c>
+      <c r="T127">
+        <v>1.75</v>
+      </c>
+      <c r="U127">
+        <v>1.775</v>
+      </c>
+      <c r="V127">
+        <v>2.025</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
         <v>1.8</v>
       </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.6</v>
-      </c>
-      <c r="Q127">
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
         <v>-0.5</v>
       </c>
-      <c r="R127">
-        <v>1.8</v>
-      </c>
-      <c r="S127">
-        <v>2</v>
-      </c>
-      <c r="T127">
-        <v>2.25</v>
-      </c>
-      <c r="U127">
-        <v>1.975</v>
-      </c>
-      <c r="V127">
-        <v>1.825</v>
-      </c>
-      <c r="W127">
-        <v>0.8</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>0.8</v>
-      </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB127">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6553773</v>
+        <v>6557297</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
+        <v>4.333</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>1.571</v>
+      </c>
+      <c r="N130">
+        <v>5.75</v>
+      </c>
+      <c r="O130">
         <v>5.5</v>
       </c>
-      <c r="L130">
-        <v>4.5</v>
-      </c>
-      <c r="M130">
-        <v>1.4</v>
-      </c>
-      <c r="N130">
-        <v>3.8</v>
-      </c>
-      <c r="O130">
-        <v>4.75</v>
-      </c>
       <c r="P130">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6557297</v>
+        <v>6553773</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,76 +12118,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M131">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="N131">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="O131">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6553761</v>
+        <v>6553338</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,40 +12207,40 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L132">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
         <v>1.975</v>
@@ -12249,34 +12249,34 @@
         <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6553338</v>
+        <v>6553762</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,10 +12385,10 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12400,40 +12400,40 @@
         <v>49</v>
       </c>
       <c r="K134">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
         <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12442,19 +12442,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6553762</v>
+        <v>6553761</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,49 +12474,49 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N135">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P135">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
         <v>1.875</v>
@@ -12525,25 +12525,25 @@
         <v>1.925</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6556917</v>
+        <v>6553340</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,76 +12563,76 @@
         <v>45073.5</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6556912</v>
+        <v>6553341</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,40 +12652,40 @@
         <v>45073.5</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R137">
         <v>1.9</v>
@@ -12703,19 +12703,19 @@
         <v>1.8</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X137">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
         <v>1</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6553341</v>
+        <v>6556912</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,40 +12741,40 @@
         <v>45073.5</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N138">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
         <v>1.9</v>
@@ -12792,19 +12792,19 @@
         <v>1.8</v>
       </c>
       <c r="W138">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
         <v>1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6553340</v>
+        <v>6556917</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45073.5</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
+        <v>2.3</v>
+      </c>
+      <c r="O139">
         <v>3.4</v>
       </c>
-      <c r="M139">
-        <v>1.571</v>
-      </c>
-      <c r="N139">
-        <v>7.5</v>
-      </c>
-      <c r="O139">
-        <v>3.75</v>
-      </c>
       <c r="P139">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6553775</v>
+        <v>6557300</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45074.5</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6557300</v>
+        <v>6553775</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45074.5</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N142">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,58 +13275,58 @@
         <v>45136.57986111111</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>1.533</v>
+      </c>
+      <c r="O144">
         <v>3.6</v>
       </c>
-      <c r="N144">
-        <v>1.909</v>
-      </c>
-      <c r="O144">
-        <v>3.1</v>
-      </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13335,16 +13335,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,58 +13364,58 @@
         <v>45136.57986111111</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L145">
+        <v>3.2</v>
+      </c>
+      <c r="M145">
         <v>3.6</v>
       </c>
-      <c r="M145">
-        <v>5</v>
-      </c>
       <c r="N145">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13424,16 +13424,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,76 +13720,76 @@
         <v>45137.625</v>
       </c>
       <c r="F149" t="s">
+        <v>32</v>
+      </c>
+      <c r="G149" t="s">
+        <v>41</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>48</v>
+      </c>
+      <c r="K149">
+        <v>1.166</v>
+      </c>
+      <c r="L149">
+        <v>6</v>
+      </c>
+      <c r="M149">
+        <v>11</v>
+      </c>
+      <c r="N149">
+        <v>1.05</v>
+      </c>
+      <c r="O149">
+        <v>13</v>
+      </c>
+      <c r="P149">
         <v>34</v>
       </c>
-      <c r="G149" t="s">
-        <v>45</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>1.909</v>
-      </c>
-      <c r="L149">
-        <v>3.2</v>
-      </c>
-      <c r="M149">
-        <v>3.6</v>
-      </c>
-      <c r="N149">
-        <v>1.909</v>
-      </c>
-      <c r="O149">
-        <v>3.2</v>
-      </c>
-      <c r="P149">
+      <c r="Q149">
+        <v>-3</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
         <v>3.75</v>
       </c>
-      <c r="Q149">
-        <v>-0.5</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
+      <c r="U149">
         <v>1.8</v>
       </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.975</v>
-      </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
         <v>0.8</v>
       </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
       <c r="AC149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,76 +13809,76 @@
         <v>45137.625</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M150">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N150">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O150">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P150">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q150">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
         <v>1.8</v>
       </c>
-      <c r="S150">
-        <v>2</v>
-      </c>
       <c r="T150">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
         <v>0.8</v>
       </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
       <c r="AB150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -16467,7 +16467,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16479,76 +16479,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L180">
+        <v>3.1</v>
+      </c>
+      <c r="M180">
+        <v>2.875</v>
+      </c>
+      <c r="N180">
+        <v>1.95</v>
+      </c>
+      <c r="O180">
+        <v>3</v>
+      </c>
+      <c r="P180">
         <v>3.75</v>
       </c>
-      <c r="M180">
-        <v>7.5</v>
-      </c>
-      <c r="N180">
-        <v>1.5</v>
-      </c>
-      <c r="O180">
-        <v>3.6</v>
-      </c>
-      <c r="P180">
-        <v>6</v>
-      </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>1.8</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
         <v>1.85</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.95</v>
       </c>
-      <c r="T180">
-        <v>2.5</v>
-      </c>
-      <c r="U180">
-        <v>2</v>
-      </c>
-      <c r="V180">
-        <v>1.8</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,76 +16568,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N181">
+        <v>1.5</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>6</v>
+      </c>
+      <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
         <v>1.95</v>
       </c>
-      <c r="O181">
-        <v>3</v>
-      </c>
-      <c r="P181">
-        <v>3.75</v>
-      </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.8</v>
       </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.85</v>
-      </c>
-      <c r="V181">
-        <v>1.95</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y181">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
+        <v>0.95</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
         <v>0.8</v>
-      </c>
-      <c r="AB181">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC181">
-        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,58 +16924,58 @@
         <v>45171.625</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N185">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O185">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q185">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16984,16 +16984,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17013,58 +17013,58 @@
         <v>45171.625</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>1</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M186">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N186">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P186">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17535,7 +17535,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17547,40 +17547,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H192">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>48</v>
       </c>
       <c r="K192">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L192">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M192">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N192">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O192">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P192">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q192">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
         <v>2</v>
@@ -17589,16 +17589,16 @@
         <v>1.8</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17613,7 +17613,7 @@
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17624,7 +17624,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17636,40 +17636,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H193">
+        <v>6</v>
+      </c>
+      <c r="I193">
         <v>3</v>
-      </c>
-      <c r="I193">
-        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N193">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O193">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P193">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R193">
         <v>2</v>
@@ -17678,16 +17678,16 @@
         <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W193">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17702,7 +17702,7 @@
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,58 +18526,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L203">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N203">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O203">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P203">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V203">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W203">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,16 +18586,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC203">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,58 +18615,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>48</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M204">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N204">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O204">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P204">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,16 +18675,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20573,73 +20573,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M226">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N226">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O226">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P226">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
+        <v>1.825</v>
+      </c>
+      <c r="S226">
+        <v>1.975</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
         <v>1.9</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.9</v>
       </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>1.875</v>
-      </c>
-      <c r="V226">
-        <v>1.925</v>
-      </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB226">
-        <v>0.875</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,73 +20662,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>49</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>3.25</v>
+      </c>
+      <c r="M227">
+        <v>3.25</v>
+      </c>
+      <c r="N227">
+        <v>2.55</v>
+      </c>
+      <c r="O227">
+        <v>3.2</v>
+      </c>
+      <c r="P227">
+        <v>2.55</v>
+      </c>
+      <c r="Q227">
         <v>0</v>
       </c>
-      <c r="J227" t="s">
-        <v>48</v>
-      </c>
-      <c r="K227">
+      <c r="R227">
+        <v>1.9</v>
+      </c>
+      <c r="S227">
+        <v>1.9</v>
+      </c>
+      <c r="T227">
         <v>2.25</v>
       </c>
-      <c r="L227">
-        <v>3</v>
-      </c>
-      <c r="M227">
-        <v>3</v>
-      </c>
-      <c r="N227">
-        <v>1.363</v>
-      </c>
-      <c r="O227">
-        <v>3.8</v>
-      </c>
-      <c r="P227">
-        <v>9</v>
-      </c>
-      <c r="Q227">
-        <v>-1.25</v>
-      </c>
-      <c r="R227">
-        <v>1.825</v>
-      </c>
-      <c r="S227">
-        <v>1.975</v>
-      </c>
-      <c r="T227">
-        <v>2.5</v>
-      </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z227">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -24121,7 +24121,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24133,49 +24133,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F266" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G266" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H266">
+        <v>3</v>
+      </c>
+      <c r="I266">
         <v>1</v>
-      </c>
-      <c r="I266">
-        <v>0</v>
       </c>
       <c r="J266" t="s">
         <v>48</v>
       </c>
       <c r="K266">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L266">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M266">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N266">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O266">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P266">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q266">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R266">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S266">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U266">
         <v>1.775</v>
@@ -24184,7 +24184,7 @@
         <v>2.025</v>
       </c>
       <c r="W266">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24193,16 +24193,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC266">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24210,7 +24210,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24222,49 +24222,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G267" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
         <v>48</v>
       </c>
       <c r="K267">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M267">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N267">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O267">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P267">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q267">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S267">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T267">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
         <v>1.775</v>
@@ -24273,7 +24273,7 @@
         <v>2.025</v>
       </c>
       <c r="W267">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24282,16 +24282,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA267">
+        <v>-1</v>
+      </c>
+      <c r="AB267">
+        <v>-1</v>
+      </c>
+      <c r="AC267">
         <v>1.025</v>
-      </c>
-      <c r="AA267">
-        <v>-1</v>
-      </c>
-      <c r="AB267">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC267">
-        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -27948,7 +27948,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27960,10 +27960,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G309" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27975,43 +27975,43 @@
         <v>48</v>
       </c>
       <c r="K309">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L309">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M309">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N309">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O309">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P309">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q309">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R309">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S309">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T309">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V309">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W309">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28020,16 +28020,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28037,7 +28037,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28049,10 +28049,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G310" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28064,43 +28064,43 @@
         <v>48</v>
       </c>
       <c r="K310">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L310">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M310">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N310">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O310">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P310">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q310">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S310">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W310">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28109,16 +28109,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA310">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28304,7 +28304,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7861639</v>
+        <v>7861638</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28313,43 +28313,52 @@
         <v>28</v>
       </c>
       <c r="E313" s="2">
-        <v>45346.5</v>
+        <v>45346.40625</v>
       </c>
       <c r="F313" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G313" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>2</v>
+      </c>
+      <c r="J313" t="s">
+        <v>49</v>
       </c>
       <c r="K313">
-        <v>1.222</v>
+        <v>7</v>
       </c>
       <c r="L313">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M313">
-        <v>9</v>
+        <v>1.333</v>
       </c>
       <c r="N313">
+        <v>5.75</v>
+      </c>
+      <c r="O313">
+        <v>4.2</v>
+      </c>
+      <c r="P313">
+        <v>1.444</v>
+      </c>
+      <c r="Q313">
         <v>1.25</v>
       </c>
-      <c r="O313">
-        <v>5</v>
-      </c>
-      <c r="P313">
-        <v>8.5</v>
-      </c>
-      <c r="Q313">
-        <v>-1.5</v>
-      </c>
       <c r="R313">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S313">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T313">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U313">
         <v>1.8</v>
@@ -28358,19 +28367,25 @@
         <v>2</v>
       </c>
       <c r="W313">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X313">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y313">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="Z313">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA313">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB313">
+        <v>0.8</v>
+      </c>
+      <c r="AC313">
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28378,7 +28393,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6979554</v>
+        <v>7861639</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28387,64 +28402,79 @@
         <v>28</v>
       </c>
       <c r="E314" s="2">
-        <v>45346.60416666666</v>
+        <v>45346.5</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G314" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H314">
+        <v>3</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314" t="s">
+        <v>48</v>
       </c>
       <c r="K314">
-        <v>3.75</v>
+        <v>1.222</v>
       </c>
       <c r="L314">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M314">
+        <v>9</v>
+      </c>
+      <c r="N314">
+        <v>1.285</v>
+      </c>
+      <c r="O314">
+        <v>5</v>
+      </c>
+      <c r="P314">
+        <v>8</v>
+      </c>
+      <c r="Q314">
+        <v>-1.5</v>
+      </c>
+      <c r="R314">
+        <v>1.85</v>
+      </c>
+      <c r="S314">
+        <v>1.95</v>
+      </c>
+      <c r="T314">
+        <v>3</v>
+      </c>
+      <c r="U314">
+        <v>2</v>
+      </c>
+      <c r="V314">
         <v>1.8</v>
       </c>
-      <c r="N314">
-        <v>4.2</v>
-      </c>
-      <c r="O314">
-        <v>3.5</v>
-      </c>
-      <c r="P314">
-        <v>1.727</v>
-      </c>
-      <c r="Q314">
-        <v>0.75</v>
-      </c>
-      <c r="R314">
-        <v>1.825</v>
-      </c>
-      <c r="S314">
-        <v>1.975</v>
-      </c>
-      <c r="T314">
-        <v>2.5</v>
-      </c>
-      <c r="U314">
-        <v>1.925</v>
-      </c>
-      <c r="V314">
-        <v>1.875</v>
-      </c>
       <c r="W314">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>-1</v>
+      </c>
+      <c r="Z314">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA314">
+        <v>-1</v>
+      </c>
+      <c r="AB314">
         <v>0</v>
       </c>
-      <c r="X314">
-        <v>0</v>
-      </c>
-      <c r="Y314">
-        <v>0</v>
-      </c>
-      <c r="Z314">
-        <v>0</v>
-      </c>
-      <c r="AA314">
-        <v>0</v>
+      <c r="AC314">
+        <v>-0</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28452,7 +28482,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7861640</v>
+        <v>6979554</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28461,64 +28491,79 @@
         <v>28</v>
       </c>
       <c r="E315" s="2">
-        <v>45347.41666666666</v>
+        <v>45346.60416666666</v>
       </c>
       <c r="F315" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="H315">
+        <v>2</v>
+      </c>
+      <c r="I315">
+        <v>3</v>
+      </c>
+      <c r="J315" t="s">
+        <v>49</v>
       </c>
       <c r="K315">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="L315">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M315">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N315">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="O315">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P315">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q315">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R315">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S315">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T315">
         <v>2.5</v>
       </c>
       <c r="U315">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V315">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z315">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA315">
-        <v>0</v>
+        <v>0.45</v>
+      </c>
+      <c r="AB315">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC315">
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28526,7 +28571,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7861641</v>
+        <v>7861640</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28535,49 +28580,49 @@
         <v>28</v>
       </c>
       <c r="E316" s="2">
-        <v>45347.52083333334</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G316" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K316">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L316">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M316">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N316">
         <v>2.375</v>
       </c>
       <c r="O316">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P316">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q316">
         <v>0</v>
       </c>
       <c r="R316">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S316">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T316">
         <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28600,7 +28645,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7861642</v>
+        <v>7861641</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28609,49 +28654,49 @@
         <v>28</v>
       </c>
       <c r="E317" s="2">
-        <v>45347.60416666666</v>
+        <v>45347.52083333334</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G317" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K317">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L317">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M317">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N317">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O317">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P317">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q317">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R317">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S317">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V317">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28674,7 +28719,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6979552</v>
+        <v>7861642</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28683,49 +28728,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45348.52083333334</v>
+        <v>45347.60416666666</v>
       </c>
       <c r="F318" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G318" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K318">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L318">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M318">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N318">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O318">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P318">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R318">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S318">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T318">
         <v>2.5</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V318">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28740,6 +28785,80 @@
         <v>0</v>
       </c>
       <c r="AA318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>6979552</v>
+      </c>
+      <c r="C319" t="s">
+        <v>28</v>
+      </c>
+      <c r="D319" t="s">
+        <v>28</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45348.52083333334</v>
+      </c>
+      <c r="F319" t="s">
+        <v>44</v>
+      </c>
+      <c r="G319" t="s">
+        <v>40</v>
+      </c>
+      <c r="K319">
+        <v>2.375</v>
+      </c>
+      <c r="L319">
+        <v>3.25</v>
+      </c>
+      <c r="M319">
+        <v>2.625</v>
+      </c>
+      <c r="N319">
+        <v>2.25</v>
+      </c>
+      <c r="O319">
+        <v>3.25</v>
+      </c>
+      <c r="P319">
+        <v>2.8</v>
+      </c>
+      <c r="Q319">
+        <v>-0.25</v>
+      </c>
+      <c r="R319">
+        <v>2.025</v>
+      </c>
+      <c r="S319">
+        <v>1.775</v>
+      </c>
+      <c r="T319">
+        <v>2.5</v>
+      </c>
+      <c r="U319">
+        <v>2</v>
+      </c>
+      <c r="V319">
+        <v>1.8</v>
+      </c>
+      <c r="W319">
+        <v>0</v>
+      </c>
+      <c r="X319">
+        <v>0</v>
+      </c>
+      <c r="Y319">
+        <v>0</v>
+      </c>
+      <c r="Z319">
+        <v>0</v>
+      </c>
+      <c r="AA319">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -28693,10 +28693,10 @@
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V317">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W317">
         <v>0</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,25 +103,25 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
+    <t>FK Cukaricki</t>
+  </si>
+  <si>
     <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>FK Vozdovac</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
-  </si>
-  <si>
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1.533</v>
+      </c>
+      <c r="O2">
         <v>3.6</v>
       </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
-      <c r="O2">
-        <v>3.1</v>
-      </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
       <c r="N3">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>2.5</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
       <c r="P4">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>-3</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>1.8</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2233,7 +2233,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2945,10 +2945,10 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>1.533</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
-      </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.925</v>
-      </c>
-      <c r="AB31">
-        <v>0.825</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.825</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.925</v>
+      </c>
+      <c r="AB32">
         <v>0.825</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,10 +3568,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -3924,10 +3924,10 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,58 +4280,58 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
       <c r="K43">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,58 +4369,58 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,10 +4814,10 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,37 +4995,37 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5704,10 +5704,10 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
         <v>32</v>
       </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
         <v>30</v>
       </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>3.25</v>
+      </c>
+      <c r="M84">
+        <v>3.25</v>
+      </c>
+      <c r="N84">
+        <v>2.55</v>
+      </c>
+      <c r="O84">
+        <v>3.2</v>
+      </c>
+      <c r="P84">
+        <v>2.55</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84">
+      <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
         <v>2.25</v>
       </c>
-      <c r="L84">
-        <v>3</v>
-      </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>1.363</v>
-      </c>
-      <c r="O84">
-        <v>3.8</v>
-      </c>
-      <c r="P84">
-        <v>9</v>
-      </c>
-      <c r="Q84">
-        <v>-1.25</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,73 +8018,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
+        <v>1.975</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
         <v>1.9</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.9</v>
       </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB85">
-        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -8997,10 +8997,10 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9264,10 +9264,10 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10510,10 +10510,10 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>1.025</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s">
         <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -13005,7 +13005,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13091,10 +13091,10 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14070,10 +14070,10 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14515,10 +14515,10 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14782,10 +14782,10 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15405,7 +15405,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>43</v>
@@ -15494,10 +15494,10 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16189,7 +16189,7 @@
         <v>0.825</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:29">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -16209,7 +16209,16 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>46</v>
       </c>
       <c r="K177">
         <v>2.375</v>
@@ -16221,46 +16230,52 @@
         <v>2.625</v>
       </c>
       <c r="N177">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O177">
         <v>3.25</v>
       </c>
       <c r="P177">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-0.5</v>
+      </c>
+      <c r="AC177">
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Cukaricki</t>
   </si>
   <si>
     <t>FK Backa Topola</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC177"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
+        <v>3.2</v>
+      </c>
+      <c r="M2">
         <v>3.6</v>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
       <c r="N2">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1.533</v>
+      </c>
+      <c r="O3">
         <v>3.6</v>
       </c>
-      <c r="N3">
-        <v>1.909</v>
-      </c>
-      <c r="O3">
-        <v>3.1</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,61 +2144,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,61 +2233,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.925</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
       </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>4.5</v>
+      </c>
+      <c r="N32">
+        <v>1.909</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>1.533</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.85</v>
-      </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.975</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.825</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.825</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.925</v>
-      </c>
-      <c r="AB32">
-        <v>0.825</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -3924,7 +3924,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
         <v>3</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N50">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5704,7 +5704,7 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -7398,7 +7398,7 @@
         <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L90">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N90">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
         <v>1.975</v>
       </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M91">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O91">
+        <v>7.5</v>
+      </c>
+      <c r="P91">
+        <v>1.125</v>
+      </c>
+      <c r="Q91">
+        <v>2.25</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
         <v>3.5</v>
       </c>
-      <c r="P91">
-        <v>5</v>
-      </c>
-      <c r="Q91">
-        <v>-0.75</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.825</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -9264,7 +9264,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>1.025</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
         <v>2.4</v>
       </c>
-      <c r="N140">
-        <v>3</v>
-      </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16276,6 +16276,598 @@
       </c>
       <c r="AC177">
         <v>0.475</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>6979559</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45352.41666666666</v>
+      </c>
+      <c r="F178" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" t="s">
+        <v>42</v>
+      </c>
+      <c r="K178">
+        <v>1.8</v>
+      </c>
+      <c r="L178">
+        <v>3.4</v>
+      </c>
+      <c r="M178">
+        <v>4.2</v>
+      </c>
+      <c r="N178">
+        <v>1.85</v>
+      </c>
+      <c r="O178">
+        <v>3.3</v>
+      </c>
+      <c r="P178">
+        <v>4</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.9</v>
+      </c>
+      <c r="S178">
+        <v>1.9</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
+        <v>1.8</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>6979562</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45352.60416666666</v>
+      </c>
+      <c r="F179" t="s">
+        <v>30</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
+      <c r="K179">
+        <v>1.5</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>5.75</v>
+      </c>
+      <c r="N179">
+        <v>1.533</v>
+      </c>
+      <c r="O179">
+        <v>4</v>
+      </c>
+      <c r="P179">
+        <v>5.5</v>
+      </c>
+      <c r="Q179">
+        <v>-1</v>
+      </c>
+      <c r="R179">
+        <v>1.925</v>
+      </c>
+      <c r="S179">
+        <v>1.875</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.875</v>
+      </c>
+      <c r="V179">
+        <v>1.925</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>6979558</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F180" t="s">
+        <v>38</v>
+      </c>
+      <c r="G180" t="s">
+        <v>41</v>
+      </c>
+      <c r="K180">
+        <v>3</v>
+      </c>
+      <c r="L180">
+        <v>3.3</v>
+      </c>
+      <c r="M180">
+        <v>2.2</v>
+      </c>
+      <c r="N180">
+        <v>3.1</v>
+      </c>
+      <c r="O180">
+        <v>3.3</v>
+      </c>
+      <c r="P180">
+        <v>2.1</v>
+      </c>
+      <c r="Q180">
+        <v>0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.95</v>
+      </c>
+      <c r="S180">
+        <v>1.85</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>1.975</v>
+      </c>
+      <c r="V180">
+        <v>1.825</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>6978757</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F181" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" t="s">
+        <v>45</v>
+      </c>
+      <c r="K181">
+        <v>6</v>
+      </c>
+      <c r="L181">
+        <v>4.75</v>
+      </c>
+      <c r="M181">
+        <v>1.4</v>
+      </c>
+      <c r="N181">
+        <v>5.5</v>
+      </c>
+      <c r="O181">
+        <v>4.75</v>
+      </c>
+      <c r="P181">
+        <v>1.444</v>
+      </c>
+      <c r="Q181">
+        <v>1.25</v>
+      </c>
+      <c r="R181">
+        <v>1.875</v>
+      </c>
+      <c r="S181">
+        <v>1.925</v>
+      </c>
+      <c r="T181">
+        <v>3</v>
+      </c>
+      <c r="U181">
+        <v>1.85</v>
+      </c>
+      <c r="V181">
+        <v>1.95</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>6979561</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45353.60416666666</v>
+      </c>
+      <c r="F182" t="s">
+        <v>44</v>
+      </c>
+      <c r="G182" t="s">
+        <v>39</v>
+      </c>
+      <c r="K182">
+        <v>1.181</v>
+      </c>
+      <c r="L182">
+        <v>6.5</v>
+      </c>
+      <c r="M182">
+        <v>11</v>
+      </c>
+      <c r="N182">
+        <v>1.181</v>
+      </c>
+      <c r="O182">
+        <v>6.5</v>
+      </c>
+      <c r="P182">
+        <v>11</v>
+      </c>
+      <c r="Q182">
+        <v>-2</v>
+      </c>
+      <c r="R182">
+        <v>1.875</v>
+      </c>
+      <c r="S182">
+        <v>1.925</v>
+      </c>
+      <c r="T182">
+        <v>3.25</v>
+      </c>
+      <c r="U182">
+        <v>1.825</v>
+      </c>
+      <c r="V182">
+        <v>1.975</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>6979563</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45354.4375</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" t="s">
+        <v>36</v>
+      </c>
+      <c r="K183">
+        <v>1.909</v>
+      </c>
+      <c r="L183">
+        <v>3.3</v>
+      </c>
+      <c r="M183">
+        <v>3.75</v>
+      </c>
+      <c r="N183">
+        <v>1.85</v>
+      </c>
+      <c r="O183">
+        <v>3.3</v>
+      </c>
+      <c r="P183">
+        <v>3.8</v>
+      </c>
+      <c r="Q183">
+        <v>-0.5</v>
+      </c>
+      <c r="R183">
+        <v>1.9</v>
+      </c>
+      <c r="S183">
+        <v>1.9</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
+        <v>1.9</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>6979564</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45354.52083333334</v>
+      </c>
+      <c r="F184" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" t="s">
+        <v>29</v>
+      </c>
+      <c r="K184">
+        <v>2.1</v>
+      </c>
+      <c r="L184">
+        <v>3.25</v>
+      </c>
+      <c r="M184">
+        <v>3.25</v>
+      </c>
+      <c r="N184">
+        <v>2.1</v>
+      </c>
+      <c r="O184">
+        <v>3.25</v>
+      </c>
+      <c r="P184">
+        <v>3.25</v>
+      </c>
+      <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.85</v>
+      </c>
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.825</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>6979560</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F185" t="s">
+        <v>37</v>
+      </c>
+      <c r="G185" t="s">
+        <v>43</v>
+      </c>
+      <c r="K185">
+        <v>1.65</v>
+      </c>
+      <c r="L185">
+        <v>3.5</v>
+      </c>
+      <c r="M185">
+        <v>5</v>
+      </c>
+      <c r="N185">
+        <v>1.95</v>
+      </c>
+      <c r="O185">
+        <v>3.2</v>
+      </c>
+      <c r="P185">
+        <v>3.75</v>
+      </c>
+      <c r="Q185">
+        <v>-0.5</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>1.8</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
+        <v>1.8</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P8">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>3.75</v>
       </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
+      <c r="U8">
         <v>1.8</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,61 +2144,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N19">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,61 +2233,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2945,7 +2945,7 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3301,7 +3301,7 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3927,7 +3927,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4369,7 +4369,7 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4817,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M90">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O90">
+        <v>7.5</v>
+      </c>
+      <c r="P90">
+        <v>1.125</v>
+      </c>
+      <c r="Q90">
+        <v>2.25</v>
+      </c>
+      <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
         <v>3.5</v>
       </c>
-      <c r="P90">
-        <v>5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
+      <c r="U90">
         <v>1.825</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N91">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O91">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q91">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y91">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10510,7 +10510,7 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>30</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>1.025</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" t="s">
         <v>35</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13094,7 +13094,7 @@
         <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14073,7 +14073,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14515,7 +14515,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14782,7 +14782,7 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>29</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N168">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16300,6 +16300,15 @@
       <c r="G178" t="s">
         <v>42</v>
       </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>46</v>
+      </c>
       <c r="K178">
         <v>1.8</v>
       </c>
@@ -16313,43 +16322,49 @@
         <v>1.85</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q178">
         <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>2.5</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16372,7 +16387,16 @@
         <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>46</v>
       </c>
       <c r="K179">
         <v>1.5</v>
@@ -16384,10 +16408,10 @@
         <v>5.75</v>
       </c>
       <c r="N179">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
         <v>5.5</v>
@@ -16396,34 +16420,40 @@
         <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
         <v>0</v>
       </c>
       <c r="AA179">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB179">
+        <v>1</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,31 +16488,31 @@
         <v>2.2</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O180">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P180">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q180">
         <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
         <v>0</v>
@@ -16532,31 +16562,31 @@
         <v>1.4</v>
       </c>
       <c r="N181">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O181">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P181">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="Q181">
         <v>1.25</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T181">
         <v>3</v>
       </c>
       <c r="U181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -16606,31 +16636,31 @@
         <v>11</v>
       </c>
       <c r="N182">
-        <v>1.181</v>
+        <v>1.2</v>
       </c>
       <c r="O182">
         <v>6.5</v>
       </c>
       <c r="P182">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Q182">
         <v>-2</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16653,7 +16683,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6979563</v>
+        <v>6979560</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16662,49 +16692,49 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45354.4375</v>
+        <v>45354.375</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O183">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
         <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16727,7 +16757,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6979564</v>
+        <v>6979563</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16736,49 +16766,49 @@
         <v>28</v>
       </c>
       <c r="E184" s="2">
-        <v>45354.52083333334</v>
+        <v>45354.4375</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K184">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N184">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O184">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P184">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T184">
         <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16801,7 +16831,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6979560</v>
+        <v>6979564</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16810,40 +16840,40 @@
         <v>28</v>
       </c>
       <c r="E185" s="2">
-        <v>45354.60416666666</v>
+        <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K185">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M185">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N185">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
         <v>2.5</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>Spartak Subotica</t>
   </si>
   <si>
     <t>FK Backa Topola</t>
@@ -118,10 +118,10 @@
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1.533</v>
+      </c>
+      <c r="O2">
         <v>3.6</v>
       </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
-      <c r="O2">
-        <v>3.1</v>
-      </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
       <c r="N3">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>-3</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>1.8</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,61 +2144,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,61 +2233,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2945,10 +2945,10 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3301,7 +3301,7 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -3924,10 +3924,10 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4369,7 +4369,7 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,10 +4814,10 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5704,7 +5704,7 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L62">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W62">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
         <v>30</v>
       </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L90">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N90">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
         <v>1.975</v>
       </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M91">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O91">
+        <v>7.5</v>
+      </c>
+      <c r="P91">
+        <v>1.125</v>
+      </c>
+      <c r="Q91">
+        <v>2.25</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
         <v>3.5</v>
       </c>
-      <c r="P91">
-        <v>5</v>
-      </c>
-      <c r="Q91">
-        <v>-0.75</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.825</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8997,7 +8997,7 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9264,7 +9264,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10510,10 +10510,10 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s">
         <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13091,10 +13091,10 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14073,7 +14073,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14782,10 +14782,10 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16384,10 +16384,10 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16478,6 +16478,15 @@
       <c r="G180" t="s">
         <v>41</v>
       </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180" t="s">
+        <v>47</v>
+      </c>
       <c r="K180">
         <v>3</v>
       </c>
@@ -16488,46 +16497,52 @@
         <v>2.2</v>
       </c>
       <c r="N180">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O180">
         <v>3.2</v>
       </c>
       <c r="P180">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA180">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>0.75</v>
+      </c>
+      <c r="AC180">
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16552,6 +16567,15 @@
       <c r="G181" t="s">
         <v>45</v>
       </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>3</v>
+      </c>
+      <c r="J181" t="s">
+        <v>48</v>
+      </c>
       <c r="K181">
         <v>6</v>
       </c>
@@ -16562,46 +16586,52 @@
         <v>1.4</v>
       </c>
       <c r="N181">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O181">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P181">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="Q181">
         <v>1.25</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S181">
+        <v>2.025</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
         <v>1.8</v>
       </c>
-      <c r="T181">
-        <v>3</v>
-      </c>
-      <c r="U181">
-        <v>2</v>
-      </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB181">
+        <v>0.8</v>
+      </c>
+      <c r="AC181">
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16626,6 +16656,15 @@
       <c r="G182" t="s">
         <v>39</v>
       </c>
+      <c r="H182">
+        <v>3</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>46</v>
+      </c>
       <c r="K182">
         <v>1.181</v>
       </c>
@@ -16636,46 +16675,52 @@
         <v>11</v>
       </c>
       <c r="N182">
-        <v>1.2</v>
+        <v>1.222</v>
       </c>
       <c r="O182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P182">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q182">
         <v>-2</v>
       </c>
       <c r="R182">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
         <v>3.5</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB182">
+        <v>0.875</v>
+      </c>
+      <c r="AC182">
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16710,31 +16755,31 @@
         <v>5</v>
       </c>
       <c r="N183">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q183">
         <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16787,22 +16832,22 @@
         <v>1.85</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P184">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q184">
         <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
         <v>1.95</v>
@@ -16846,7 +16891,7 @@
         <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K185">
         <v>2.1</v>
@@ -16870,10 +16915,10 @@
         <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
         <v>2.5</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,25 +103,25 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
+    <t>Spartak Subotica</t>
+  </si>
+  <si>
     <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
     <t>FK Backa Topola</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
-  </si>
-  <si>
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
+        <v>3.2</v>
+      </c>
+      <c r="M2">
         <v>3.6</v>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
       <c r="N2">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1.533</v>
+      </c>
+      <c r="O3">
         <v>3.6</v>
       </c>
-      <c r="N3">
-        <v>1.909</v>
-      </c>
-      <c r="O3">
-        <v>3.1</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
+        <v>3.1</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>2.4</v>
-      </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.7</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>2.5</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
       <c r="P5">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P8">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>3.75</v>
       </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
+      <c r="U8">
         <v>1.8</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -2233,7 +2233,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2945,10 +2945,10 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>1.533</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
-      </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.925</v>
-      </c>
-      <c r="AB31">
-        <v>0.825</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.825</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.925</v>
+      </c>
+      <c r="AB32">
         <v>0.825</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,10 +3568,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -3924,10 +3924,10 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,58 +4280,58 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,58 +4369,58 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,10 +4814,10 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
         <v>3</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N50">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,37 +4995,37 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5704,10 +5704,10 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
         <v>29</v>
       </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
         <v>31</v>
       </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M90">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O90">
+        <v>7.5</v>
+      </c>
+      <c r="P90">
+        <v>1.125</v>
+      </c>
+      <c r="Q90">
+        <v>2.25</v>
+      </c>
+      <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
         <v>3.5</v>
       </c>
-      <c r="P90">
-        <v>5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
+      <c r="U90">
         <v>1.825</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N91">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O91">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q91">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y91">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -8997,10 +8997,10 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9264,10 +9264,10 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10510,10 +10510,10 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>1.025</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" t="s">
         <v>35</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N140">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
+        <v>3.1</v>
+      </c>
+      <c r="N141">
         <v>2.4</v>
       </c>
-      <c r="N141">
-        <v>3</v>
-      </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,10 +13091,10 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14070,10 +14070,10 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14515,10 +14515,10 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14782,10 +14782,10 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N168">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,10 +15494,10 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16209,7 +16209,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16384,10 +16384,10 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16562,7 +16562,7 @@
         <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16745,6 +16745,15 @@
       <c r="G183" t="s">
         <v>43</v>
       </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>48</v>
+      </c>
       <c r="K183">
         <v>1.65</v>
       </c>
@@ -16755,46 +16764,52 @@
         <v>5</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O183">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q183">
         <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB183">
+        <v>1</v>
+      </c>
+      <c r="AC183">
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16819,6 +16834,15 @@
       <c r="G184" t="s">
         <v>36</v>
       </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>47</v>
+      </c>
       <c r="K184">
         <v>1.909</v>
       </c>
@@ -16829,10 +16853,10 @@
         <v>3.75</v>
       </c>
       <c r="N184">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O184">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
         <v>4.2</v>
@@ -16841,34 +16865,40 @@
         <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
+        <v>1.05</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16888,10 +16918,19 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>48</v>
       </c>
       <c r="K185">
         <v>2.1</v>
@@ -16903,10 +16942,10 @@
         <v>3.25</v>
       </c>
       <c r="N185">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P185">
         <v>3.25</v>
@@ -16915,33 +16954,483 @@
         <v>-0.25</v>
       </c>
       <c r="R185">
+        <v>1.925</v>
+      </c>
+      <c r="S185">
         <v>1.875</v>
       </c>
-      <c r="S185">
-        <v>1.925</v>
-      </c>
       <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.975</v>
+      </c>
+      <c r="V185">
+        <v>1.825</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>2.25</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.875</v>
+      </c>
+      <c r="AB185">
+        <v>-0.5</v>
+      </c>
+      <c r="AC185">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>6979565</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45359.52083333334</v>
+      </c>
+      <c r="F186" t="s">
+        <v>29</v>
+      </c>
+      <c r="G186" t="s">
+        <v>33</v>
+      </c>
+      <c r="K186">
+        <v>2.3</v>
+      </c>
+      <c r="L186">
+        <v>3.1</v>
+      </c>
+      <c r="M186">
+        <v>2.8</v>
+      </c>
+      <c r="N186">
+        <v>2.375</v>
+      </c>
+      <c r="O186">
+        <v>3</v>
+      </c>
+      <c r="P186">
+        <v>2.8</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>1.725</v>
+      </c>
+      <c r="S186">
+        <v>2.075</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>1.85</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7921658</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45359.52083333334</v>
+      </c>
+      <c r="F187" t="s">
+        <v>43</v>
+      </c>
+      <c r="G187" t="s">
+        <v>40</v>
+      </c>
+      <c r="K187">
+        <v>2.7</v>
+      </c>
+      <c r="L187">
+        <v>3.1</v>
+      </c>
+      <c r="M187">
+        <v>2.4</v>
+      </c>
+      <c r="N187">
+        <v>3.1</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187">
+        <v>2.25</v>
+      </c>
+      <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.85</v>
+      </c>
+      <c r="S187">
+        <v>1.95</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>2.025</v>
+      </c>
+      <c r="V187">
+        <v>1.775</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7921659</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45359.60416666666</v>
+      </c>
+      <c r="F188" t="s">
+        <v>41</v>
+      </c>
+      <c r="G188" t="s">
+        <v>31</v>
+      </c>
+      <c r="K188">
+        <v>1.6</v>
+      </c>
+      <c r="L188">
+        <v>3.6</v>
+      </c>
+      <c r="M188">
+        <v>4.75</v>
+      </c>
+      <c r="N188">
+        <v>1.5</v>
+      </c>
+      <c r="O188">
+        <v>3.8</v>
+      </c>
+      <c r="P188">
+        <v>5.75</v>
+      </c>
+      <c r="Q188">
+        <v>-1</v>
+      </c>
+      <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
+        <v>1.95</v>
+      </c>
+      <c r="T188">
         <v>2.5</v>
       </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
-      <c r="V185">
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>6979566</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45359.60416666666</v>
+      </c>
+      <c r="F189" t="s">
+        <v>36</v>
+      </c>
+      <c r="G189" t="s">
+        <v>30</v>
+      </c>
+      <c r="K189">
+        <v>3.4</v>
+      </c>
+      <c r="L189">
+        <v>3.3</v>
+      </c>
+      <c r="M189">
+        <v>1.95</v>
+      </c>
+      <c r="N189">
+        <v>3.5</v>
+      </c>
+      <c r="O189">
+        <v>3.4</v>
+      </c>
+      <c r="P189">
+        <v>1.85</v>
+      </c>
+      <c r="Q189">
+        <v>0.5</v>
+      </c>
+      <c r="R189">
+        <v>1.9</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
         <v>1.8</v>
       </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-      <c r="X185">
-        <v>0</v>
-      </c>
-      <c r="Y185">
-        <v>0</v>
-      </c>
-      <c r="Z185">
-        <v>0</v>
-      </c>
-      <c r="AA185">
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>6978758</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45360.54166666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>45</v>
+      </c>
+      <c r="G190" t="s">
+        <v>44</v>
+      </c>
+      <c r="K190">
+        <v>1.727</v>
+      </c>
+      <c r="L190">
+        <v>3.5</v>
+      </c>
+      <c r="M190">
+        <v>4</v>
+      </c>
+      <c r="N190">
+        <v>1.571</v>
+      </c>
+      <c r="O190">
+        <v>3.6</v>
+      </c>
+      <c r="P190">
+        <v>5.25</v>
+      </c>
+      <c r="Q190">
+        <v>-1</v>
+      </c>
+      <c r="R190">
+        <v>1.975</v>
+      </c>
+      <c r="S190">
+        <v>1.825</v>
+      </c>
+      <c r="T190">
+        <v>2.75</v>
+      </c>
+      <c r="U190">
+        <v>1.95</v>
+      </c>
+      <c r="V190">
+        <v>1.85</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7921660</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F191" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" t="s">
+        <v>37</v>
+      </c>
+      <c r="K191">
+        <v>2.25</v>
+      </c>
+      <c r="L191">
+        <v>3.1</v>
+      </c>
+      <c r="M191">
+        <v>2.875</v>
+      </c>
+      <c r="N191">
+        <v>2.25</v>
+      </c>
+      <c r="O191">
+        <v>3.1</v>
+      </c>
+      <c r="P191">
+        <v>2.9</v>
+      </c>
+      <c r="Q191">
+        <v>-0.25</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>1.8</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
+        <v>1.8</v>
+      </c>
+      <c r="V191">
+        <v>2</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,61 +2144,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N19">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,61 +2233,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L62">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W62">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>1.025</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
         <v>2.4</v>
       </c>
-      <c r="N140">
-        <v>3</v>
-      </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -16995,7 +16995,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6979565</v>
+        <v>6979571</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,64 +17004,79 @@
         <v>28</v>
       </c>
       <c r="E186" s="2">
-        <v>45359.52083333334</v>
+        <v>45358.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>46</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L186">
+        <v>3.25</v>
+      </c>
+      <c r="M186">
+        <v>2.875</v>
+      </c>
+      <c r="N186">
+        <v>2.05</v>
+      </c>
+      <c r="O186">
         <v>3.1</v>
       </c>
-      <c r="M186">
-        <v>2.8</v>
-      </c>
-      <c r="N186">
-        <v>2.375</v>
-      </c>
-      <c r="O186">
-        <v>3</v>
-      </c>
       <c r="P186">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB186">
+        <v>1</v>
+      </c>
+      <c r="AC186">
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17069,7 +17084,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7921658</v>
+        <v>6979568</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17078,64 +17093,79 @@
         <v>28</v>
       </c>
       <c r="E187" s="2">
-        <v>45359.52083333334</v>
+        <v>45358.5</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>47</v>
       </c>
       <c r="K187">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N187">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O187">
         <v>3</v>
       </c>
       <c r="P187">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q187">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
+        <v>0.825</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17143,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7921659</v>
+        <v>6979565</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17152,64 +17182,79 @@
         <v>28</v>
       </c>
       <c r="E188" s="2">
-        <v>45359.60416666666</v>
+        <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M188">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>1.075</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17217,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6979566</v>
+        <v>7921658</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17226,64 +17271,79 @@
         <v>28</v>
       </c>
       <c r="E189" s="2">
-        <v>45359.60416666666</v>
+        <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>48</v>
       </c>
       <c r="K189">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
+        <v>2.4</v>
+      </c>
+      <c r="N189">
+        <v>2.55</v>
+      </c>
+      <c r="O189">
+        <v>2.875</v>
+      </c>
+      <c r="P189">
+        <v>2.75</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>1.85</v>
+      </c>
+      <c r="S189">
         <v>1.95</v>
       </c>
-      <c r="N189">
-        <v>3.5</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
+      <c r="T189">
+        <v>2</v>
+      </c>
+      <c r="U189">
         <v>1.85</v>
       </c>
-      <c r="Q189">
-        <v>0.5</v>
-      </c>
-      <c r="R189">
-        <v>1.9</v>
-      </c>
-      <c r="S189">
-        <v>1.9</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>2</v>
-      </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17291,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6978758</v>
+        <v>6979566</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17300,64 +17360,79 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45360.54166666666</v>
+        <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>46</v>
       </c>
       <c r="K190">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17365,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7921660</v>
+        <v>7921659</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17374,63 +17449,226 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45360.625</v>
+        <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N191">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P191">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>0</v>
       </c>
       <c r="AA191">
+        <v>-0</v>
+      </c>
+      <c r="AB191">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC191">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6978758</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45360.54166666666</v>
+      </c>
+      <c r="F192" t="s">
+        <v>45</v>
+      </c>
+      <c r="G192" t="s">
+        <v>44</v>
+      </c>
+      <c r="K192">
+        <v>1.727</v>
+      </c>
+      <c r="L192">
+        <v>3.5</v>
+      </c>
+      <c r="M192">
+        <v>4</v>
+      </c>
+      <c r="N192">
+        <v>1.6</v>
+      </c>
+      <c r="O192">
+        <v>3.5</v>
+      </c>
+      <c r="P192">
+        <v>5.25</v>
+      </c>
+      <c r="Q192">
+        <v>-0.75</v>
+      </c>
+      <c r="R192">
+        <v>1.8</v>
+      </c>
+      <c r="S192">
+        <v>2</v>
+      </c>
+      <c r="T192">
+        <v>2.5</v>
+      </c>
+      <c r="U192">
+        <v>1.825</v>
+      </c>
+      <c r="V192">
+        <v>1.975</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7921660</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F193" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193" t="s">
+        <v>37</v>
+      </c>
+      <c r="K193">
+        <v>2.25</v>
+      </c>
+      <c r="L193">
+        <v>3.1</v>
+      </c>
+      <c r="M193">
+        <v>2.875</v>
+      </c>
+      <c r="N193">
+        <v>2.375</v>
+      </c>
+      <c r="O193">
+        <v>3</v>
+      </c>
+      <c r="P193">
+        <v>2.75</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>1.75</v>
+      </c>
+      <c r="S193">
+        <v>2.05</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>1.85</v>
+      </c>
+      <c r="V193">
+        <v>1.95</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>Spartak Subotica</t>
   </si>
   <si>
     <t>FK Vozdovac</t>
@@ -118,10 +118,10 @@
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1.533</v>
+      </c>
+      <c r="O2">
         <v>3.6</v>
       </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
-      <c r="O2">
-        <v>3.1</v>
-      </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
       <c r="N3">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>-3</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>1.8</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2945,10 +2945,10 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3212,7 +3212,7 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3571,7 +3571,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -3924,10 +3924,10 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,58 +4280,58 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
       <c r="K43">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,58 +4369,58 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,10 +4814,10 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5704,7 +5704,7 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
       </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
         <v>1.9</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.9</v>
       </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB84">
-        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,73 +8018,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3.25</v>
+      </c>
+      <c r="M85">
+        <v>3.25</v>
+      </c>
+      <c r="N85">
+        <v>2.55</v>
+      </c>
+      <c r="O85">
+        <v>3.2</v>
+      </c>
+      <c r="P85">
+        <v>2.55</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
         <v>2.25</v>
       </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="N85">
-        <v>1.363</v>
-      </c>
-      <c r="O85">
-        <v>3.8</v>
-      </c>
-      <c r="P85">
-        <v>9</v>
-      </c>
-      <c r="Q85">
-        <v>-1.25</v>
-      </c>
-      <c r="R85">
-        <v>1.825</v>
-      </c>
-      <c r="S85">
-        <v>1.975</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L90">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N90">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
         <v>1.975</v>
       </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M91">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O91">
+        <v>7.5</v>
+      </c>
+      <c r="P91">
+        <v>1.125</v>
+      </c>
+      <c r="Q91">
+        <v>2.25</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
         <v>3.5</v>
       </c>
-      <c r="P91">
-        <v>5</v>
-      </c>
-      <c r="Q91">
-        <v>-0.75</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.825</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8997,7 +8997,7 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9264,7 +9264,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10510,10 +10510,10 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s">
         <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N140">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
+        <v>3.1</v>
+      </c>
+      <c r="N141">
         <v>2.4</v>
       </c>
-      <c r="N141">
-        <v>3</v>
-      </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,10 +13091,10 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14073,7 +14073,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>31</v>
@@ -14782,10 +14782,10 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15497,7 +15497,7 @@
         <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16384,10 +16384,10 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16921,7 +16921,7 @@
         <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17096,7 +17096,7 @@
         <v>45358.5</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17185,7 +17185,7 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
         <v>33</v>
@@ -17366,7 +17366,7 @@
         <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17546,6 +17546,15 @@
       <c r="G192" t="s">
         <v>44</v>
       </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>47</v>
+      </c>
       <c r="K192">
         <v>1.727</v>
       </c>
@@ -17556,22 +17565,22 @@
         <v>4</v>
       </c>
       <c r="N192">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
         <v>2.5</v>
@@ -17583,22 +17592,28 @@
         <v>1.975</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB192">
+        <v>0.825</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17620,6 +17635,15 @@
       <c r="G193" t="s">
         <v>37</v>
       </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193" t="s">
+        <v>46</v>
+      </c>
       <c r="K193">
         <v>2.25</v>
       </c>
@@ -17630,45 +17654,643 @@
         <v>2.875</v>
       </c>
       <c r="N193">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O193">
         <v>3</v>
       </c>
       <c r="P193">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S193">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T193">
         <v>2.25</v>
       </c>
       <c r="U193">
+        <v>1.825</v>
+      </c>
+      <c r="V193">
+        <v>1.975</v>
+      </c>
+      <c r="W193">
+        <v>1.3</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>1.025</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>0.825</v>
+      </c>
+      <c r="AC193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6979576</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45363.41666666666</v>
+      </c>
+      <c r="F194" t="s">
+        <v>32</v>
+      </c>
+      <c r="G194" t="s">
+        <v>36</v>
+      </c>
+      <c r="K194">
+        <v>1.363</v>
+      </c>
+      <c r="L194">
+        <v>4.5</v>
+      </c>
+      <c r="M194">
+        <v>8.5</v>
+      </c>
+      <c r="N194">
+        <v>1.444</v>
+      </c>
+      <c r="O194">
+        <v>4.333</v>
+      </c>
+      <c r="P194">
+        <v>7</v>
+      </c>
+      <c r="Q194">
+        <v>-1.25</v>
+      </c>
+      <c r="R194">
+        <v>1.975</v>
+      </c>
+      <c r="S194">
+        <v>1.825</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
         <v>1.85</v>
       </c>
-      <c r="V193">
+      <c r="V194">
         <v>1.95</v>
       </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <v>0</v>
-      </c>
-      <c r="Y193">
-        <v>0</v>
-      </c>
-      <c r="Z193">
-        <v>0</v>
-      </c>
-      <c r="AA193">
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6979578</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45363.5</v>
+      </c>
+      <c r="F195" t="s">
+        <v>33</v>
+      </c>
+      <c r="G195" t="s">
+        <v>31</v>
+      </c>
+      <c r="K195">
+        <v>1.7</v>
+      </c>
+      <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>4.8</v>
+      </c>
+      <c r="N195">
+        <v>1.727</v>
+      </c>
+      <c r="O195">
+        <v>3.5</v>
+      </c>
+      <c r="P195">
+        <v>5</v>
+      </c>
+      <c r="Q195">
+        <v>-0.75</v>
+      </c>
+      <c r="R195">
+        <v>1.95</v>
+      </c>
+      <c r="S195">
+        <v>1.85</v>
+      </c>
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
+        <v>1.975</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6979577</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45363.5</v>
+      </c>
+      <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
+        <v>30</v>
+      </c>
+      <c r="K196">
+        <v>1.533</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>6</v>
+      </c>
+      <c r="N196">
+        <v>1.5</v>
+      </c>
+      <c r="O196">
+        <v>4</v>
+      </c>
+      <c r="P196">
+        <v>6.5</v>
+      </c>
+      <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>1.825</v>
+      </c>
+      <c r="S196">
+        <v>1.975</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
+        <v>1.825</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6979573</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45363.58333333334</v>
+      </c>
+      <c r="F197" t="s">
+        <v>38</v>
+      </c>
+      <c r="G197" t="s">
+        <v>43</v>
+      </c>
+      <c r="K197">
+        <v>2.1</v>
+      </c>
+      <c r="L197">
+        <v>3.2</v>
+      </c>
+      <c r="M197">
+        <v>3.5</v>
+      </c>
+      <c r="N197">
+        <v>2.15</v>
+      </c>
+      <c r="O197">
+        <v>3.2</v>
+      </c>
+      <c r="P197">
+        <v>3.5</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
+        <v>1.975</v>
+      </c>
+      <c r="T197">
+        <v>2.25</v>
+      </c>
+      <c r="U197">
+        <v>1.95</v>
+      </c>
+      <c r="V197">
+        <v>1.85</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6979572</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45363.66666666666</v>
+      </c>
+      <c r="F198" t="s">
+        <v>42</v>
+      </c>
+      <c r="G198" t="s">
+        <v>41</v>
+      </c>
+      <c r="K198">
+        <v>3.4</v>
+      </c>
+      <c r="L198">
+        <v>3.2</v>
+      </c>
+      <c r="M198">
+        <v>2.15</v>
+      </c>
+      <c r="N198">
+        <v>3.6</v>
+      </c>
+      <c r="O198">
+        <v>3.2</v>
+      </c>
+      <c r="P198">
+        <v>2.05</v>
+      </c>
+      <c r="Q198">
+        <v>0.25</v>
+      </c>
+      <c r="R198">
+        <v>1.975</v>
+      </c>
+      <c r="S198">
+        <v>1.825</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
+        <v>1.825</v>
+      </c>
+      <c r="V198">
+        <v>1.975</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6979574</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45364.41666666666</v>
+      </c>
+      <c r="F199" t="s">
+        <v>40</v>
+      </c>
+      <c r="G199" t="s">
+        <v>39</v>
+      </c>
+      <c r="K199">
+        <v>1.8</v>
+      </c>
+      <c r="L199">
+        <v>3.4</v>
+      </c>
+      <c r="M199">
+        <v>4.5</v>
+      </c>
+      <c r="N199">
+        <v>1.8</v>
+      </c>
+      <c r="O199">
+        <v>3.4</v>
+      </c>
+      <c r="P199">
+        <v>4.5</v>
+      </c>
+      <c r="Q199">
+        <v>-0.5</v>
+      </c>
+      <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>1.95</v>
+      </c>
+      <c r="V199">
+        <v>1.85</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6979575</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45364.52083333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>44</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+      <c r="K200">
+        <v>1.222</v>
+      </c>
+      <c r="L200">
+        <v>6</v>
+      </c>
+      <c r="M200">
+        <v>12</v>
+      </c>
+      <c r="N200">
+        <v>1.222</v>
+      </c>
+      <c r="O200">
+        <v>6</v>
+      </c>
+      <c r="P200">
+        <v>11</v>
+      </c>
+      <c r="Q200">
+        <v>-1.75</v>
+      </c>
+      <c r="R200">
+        <v>1.775</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>3</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
+        <v>1.975</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6978759</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45364.625</v>
+      </c>
+      <c r="F201" t="s">
+        <v>37</v>
+      </c>
+      <c r="G201" t="s">
+        <v>45</v>
+      </c>
+      <c r="K201">
+        <v>11</v>
+      </c>
+      <c r="L201">
+        <v>5.5</v>
+      </c>
+      <c r="M201">
+        <v>1.25</v>
+      </c>
+      <c r="N201">
+        <v>9</v>
+      </c>
+      <c r="O201">
+        <v>5.25</v>
+      </c>
+      <c r="P201">
+        <v>1.3</v>
+      </c>
+      <c r="Q201">
+        <v>1.5</v>
+      </c>
+      <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
+        <v>1.825</v>
+      </c>
+      <c r="T201">
+        <v>3.25</v>
+      </c>
+      <c r="U201">
+        <v>1.975</v>
+      </c>
+      <c r="V201">
+        <v>1.825</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
+    <t>Spartak Subotica</t>
+  </si>
+  <si>
     <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>FK Vozdovac</t>
-  </si>
-  <si>
-    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>FK Novi Pazar</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
+        <v>3.2</v>
+      </c>
+      <c r="M2">
         <v>3.6</v>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
       <c r="N2">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1.533</v>
+      </c>
+      <c r="O3">
         <v>3.6</v>
       </c>
-      <c r="N3">
-        <v>1.909</v>
-      </c>
-      <c r="O3">
-        <v>3.1</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>2.5</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
       <c r="P4">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2144,7 +2144,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2233,7 +2233,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.925</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
       </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>4.5</v>
+      </c>
+      <c r="N32">
+        <v>1.909</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>1.533</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.85</v>
-      </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.975</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.825</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.825</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.925</v>
-      </c>
-      <c r="AB32">
-        <v>0.825</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,7 +3568,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -3924,7 +3924,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
         <v>3</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N50">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,37 +4995,37 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5704,10 +5704,10 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>32</v>
       </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
         <v>29</v>
       </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8466,7 +8466,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9000,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9264,10 +9264,10 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10513,7 +10513,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>1.025</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
         <v>2.4</v>
       </c>
-      <c r="N140">
-        <v>3</v>
-      </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14070,7 +14070,7 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>35</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>35</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16209,7 +16209,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16384,7 +16384,7 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
         <v>35</v>
@@ -16562,7 +16562,7 @@
         <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16918,10 +16918,10 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17099,7 +17099,7 @@
         <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6979565</v>
+        <v>7921658</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17200,61 +17200,61 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L188">
         <v>3.1</v>
       </c>
       <c r="M188">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O188">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P188">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.75</v>
       </c>
-      <c r="V188">
-        <v>2.05</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>1.8</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7921658</v>
+        <v>6979565</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,40 +17289,40 @@
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
         <v>2.4</v>
       </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P189">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17331,19 +17331,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17351,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6979566</v>
+        <v>7921659</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17363,76 +17363,76 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
         <v>1</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>46</v>
       </c>
       <c r="K190">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
+        <v>4.75</v>
+      </c>
+      <c r="N190">
+        <v>1.45</v>
+      </c>
+      <c r="O190">
+        <v>3.8</v>
+      </c>
+      <c r="P190">
+        <v>6</v>
+      </c>
+      <c r="Q190">
+        <v>-1</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
         <v>1.95</v>
       </c>
-      <c r="N190">
-        <v>2.7</v>
-      </c>
-      <c r="O190">
-        <v>3</v>
-      </c>
-      <c r="P190">
-        <v>2.45</v>
-      </c>
-      <c r="Q190">
+      <c r="W190">
+        <v>0.45</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
         <v>0</v>
       </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.8</v>
-      </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.75</v>
-      </c>
-      <c r="V190">
-        <v>2.05</v>
-      </c>
-      <c r="W190">
-        <v>1.7</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
-      <c r="Z190">
-        <v>1</v>
-      </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7921659</v>
+        <v>6979566</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,58 +17452,58 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>46</v>
       </c>
       <c r="K191">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N191">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O191">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P191">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
         <v>1.8</v>
       </c>
-      <c r="S191">
-        <v>2</v>
-      </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W191">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17512,16 +17512,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17719,11 +17719,20 @@
         <v>45363.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
       </c>
+      <c r="H194">
+        <v>4</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>46</v>
+      </c>
       <c r="K194">
         <v>1.363</v>
       </c>
@@ -17737,10 +17746,10 @@
         <v>1.444</v>
       </c>
       <c r="O194">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P194">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q194">
         <v>-1.25</v>
@@ -17761,19 +17770,25 @@
         <v>1.95</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA194">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC194">
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17796,7 +17811,16 @@
         <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>47</v>
       </c>
       <c r="K195">
         <v>1.7</v>
@@ -17808,7 +17832,7 @@
         <v>4.8</v>
       </c>
       <c r="N195">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O195">
         <v>3.5</v>
@@ -17820,34 +17844,40 @@
         <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB195">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17867,10 +17897,19 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" t="s">
         <v>29</v>
       </c>
-      <c r="G196" t="s">
-        <v>30</v>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196" t="s">
+        <v>47</v>
       </c>
       <c r="K196">
         <v>1.533</v>
@@ -17888,40 +17927,46 @@
         <v>4</v>
       </c>
       <c r="P196">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q196">
         <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB196">
+        <v>0.8</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17946,6 +17991,15 @@
       <c r="G197" t="s">
         <v>43</v>
       </c>
+      <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>46</v>
+      </c>
       <c r="K197">
         <v>2.1</v>
       </c>
@@ -17956,46 +18010,52 @@
         <v>3.5</v>
       </c>
       <c r="N197">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>1.975</v>
+      </c>
+      <c r="S197">
         <v>1.825</v>
       </c>
-      <c r="S197">
+      <c r="T197">
+        <v>2</v>
+      </c>
+      <c r="U197">
         <v>1.975</v>
       </c>
-      <c r="T197">
-        <v>2.25</v>
-      </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18020,6 +18080,15 @@
       <c r="G198" t="s">
         <v>41</v>
       </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" t="s">
+        <v>48</v>
+      </c>
       <c r="K198">
         <v>3.4</v>
       </c>
@@ -18030,10 +18099,10 @@
         <v>2.15</v>
       </c>
       <c r="N198">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
         <v>2.05</v>
@@ -18042,34 +18111,40 @@
         <v>0.25</v>
       </c>
       <c r="R198">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S198">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB198">
+        <v>0.95</v>
+      </c>
+      <c r="AC198">
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18094,6 +18169,15 @@
       <c r="G199" t="s">
         <v>39</v>
       </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>46</v>
+      </c>
       <c r="K199">
         <v>1.8</v>
       </c>
@@ -18104,46 +18188,52 @@
         <v>4.5</v>
       </c>
       <c r="N199">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P199">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q199">
+        <v>-0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>1.95</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.875</v>
+      </c>
+      <c r="V199">
+        <v>1.925</v>
+      </c>
+      <c r="W199">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0.4375</v>
+      </c>
+      <c r="AC199">
         <v>-0.5</v>
-      </c>
-      <c r="R199">
-        <v>1.775</v>
-      </c>
-      <c r="S199">
-        <v>2.025</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.95</v>
-      </c>
-      <c r="V199">
-        <v>1.85</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <v>0</v>
-      </c>
-      <c r="Y199">
-        <v>0</v>
-      </c>
-      <c r="Z199">
-        <v>0</v>
-      </c>
-      <c r="AA199">
-        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18160,7 +18250,7 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45364.52083333334</v>
+        <v>45364.53819444445</v>
       </c>
       <c r="F200" t="s">
         <v>44</v>
@@ -18168,6 +18258,15 @@
       <c r="G200" t="s">
         <v>35</v>
       </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>48</v>
+      </c>
       <c r="K200">
         <v>1.222</v>
       </c>
@@ -18178,46 +18277,52 @@
         <v>12</v>
       </c>
       <c r="N200">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P200">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q200">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
         <v>3</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18242,6 +18347,15 @@
       <c r="G201" t="s">
         <v>45</v>
       </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>48</v>
+      </c>
       <c r="K201">
         <v>11</v>
       </c>
@@ -18252,45 +18366,629 @@
         <v>1.25</v>
       </c>
       <c r="N201">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O201">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P201">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q201">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
         <v>1.975</v>
       </c>
-      <c r="S201">
-        <v>1.825</v>
-      </c>
       <c r="T201">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z201">
         <v>0</v>
       </c>
       <c r="AA201">
+        <v>-0</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6979585</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45367.41666666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>43</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>48</v>
+      </c>
+      <c r="K202">
+        <v>2.4</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
+      <c r="M202">
+        <v>3</v>
+      </c>
+      <c r="N202">
+        <v>2.2</v>
+      </c>
+      <c r="O202">
+        <v>2.9</v>
+      </c>
+      <c r="P202">
+        <v>3.3</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.875</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
+        <v>1.925</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>2.3</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>0.875</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6979580</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
+        <v>30</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>47</v>
+      </c>
+      <c r="K203">
+        <v>4.2</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>1.8</v>
+      </c>
+      <c r="N203">
+        <v>3.4</v>
+      </c>
+      <c r="O203">
+        <v>3.1</v>
+      </c>
+      <c r="P203">
+        <v>2.1</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.8</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
+        <v>1.825</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>2.1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.5</v>
+      </c>
+      <c r="AA203">
+        <v>-0.5</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6979581</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45367.58333333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>29</v>
+      </c>
+      <c r="G204" t="s">
+        <v>31</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204">
+        <v>3.6</v>
+      </c>
+      <c r="L204">
+        <v>3.25</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>4.75</v>
+      </c>
+      <c r="O204">
+        <v>3.6</v>
+      </c>
+      <c r="P204">
+        <v>1.666</v>
+      </c>
+      <c r="Q204">
+        <v>0.75</v>
+      </c>
+      <c r="R204">
+        <v>1.925</v>
+      </c>
+      <c r="S204">
+        <v>1.875</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
+        <v>1.85</v>
+      </c>
+      <c r="V204">
+        <v>1.95</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.875</v>
+      </c>
+      <c r="AB204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6979579</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45367.66666666666</v>
+      </c>
+      <c r="F205" t="s">
+        <v>41</v>
+      </c>
+      <c r="G205" t="s">
+        <v>33</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>46</v>
+      </c>
+      <c r="K205">
+        <v>1.833</v>
+      </c>
+      <c r="L205">
+        <v>3.5</v>
+      </c>
+      <c r="M205">
+        <v>4</v>
+      </c>
+      <c r="N205">
+        <v>1.7</v>
+      </c>
+      <c r="O205">
+        <v>3.4</v>
+      </c>
+      <c r="P205">
+        <v>4.75</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.975</v>
+      </c>
+      <c r="S205">
+        <v>1.825</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.925</v>
+      </c>
+      <c r="V205">
+        <v>1.875</v>
+      </c>
+      <c r="W205">
+        <v>0.7</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.4875</v>
+      </c>
+      <c r="AA205">
+        <v>-0.5</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6978760</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45368.5</v>
+      </c>
+      <c r="F206" t="s">
+        <v>45</v>
+      </c>
+      <c r="G206" t="s">
+        <v>40</v>
+      </c>
+      <c r="K206">
+        <v>1.181</v>
+      </c>
+      <c r="L206">
+        <v>7</v>
+      </c>
+      <c r="M206">
+        <v>15</v>
+      </c>
+      <c r="N206">
+        <v>1.142</v>
+      </c>
+      <c r="O206">
+        <v>7</v>
+      </c>
+      <c r="P206">
+        <v>17</v>
+      </c>
+      <c r="Q206">
+        <v>-2.25</v>
+      </c>
+      <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>1.875</v>
+      </c>
+      <c r="T206">
+        <v>3.25</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.875</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6979584</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45368.58333333334</v>
+      </c>
+      <c r="F207" t="s">
+        <v>39</v>
+      </c>
+      <c r="G207" t="s">
+        <v>38</v>
+      </c>
+      <c r="K207">
+        <v>2.15</v>
+      </c>
+      <c r="L207">
+        <v>3.2</v>
+      </c>
+      <c r="M207">
+        <v>3.25</v>
+      </c>
+      <c r="N207">
+        <v>1.95</v>
+      </c>
+      <c r="O207">
+        <v>3.25</v>
+      </c>
+      <c r="P207">
+        <v>3.75</v>
+      </c>
+      <c r="Q207">
+        <v>-0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
+        <v>1.825</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
+        <v>1.975</v>
+      </c>
+      <c r="V207">
+        <v>1.825</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6979583</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45368.66666666666</v>
+      </c>
+      <c r="F208" t="s">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s">
+        <v>37</v>
+      </c>
+      <c r="K208">
+        <v>2.2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>3.4</v>
+      </c>
+      <c r="N208">
+        <v>2.15</v>
+      </c>
+      <c r="O208">
+        <v>2.875</v>
+      </c>
+      <c r="P208">
+        <v>3.75</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>1.8</v>
+      </c>
+      <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -109,19 +109,19 @@
     <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
+        <v>3.1</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>2.4</v>
-      </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.7</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>2.5</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
       <c r="P5">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P8">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>3.75</v>
       </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
+      <c r="U8">
         <v>1.8</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,58 +2147,58 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,58 +2236,58 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2945,7 +2945,7 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,10 +3568,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3927,7 +3927,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,58 +4280,58 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,58 +4369,58 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>39</v>
@@ -4992,7 +4992,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>36</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
         <v>31</v>
       </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -8997,10 +8997,10 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9267,7 +9267,7 @@
         <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10510,7 +10510,7 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>30</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>1.025</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" t="s">
         <v>35</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N140">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
+        <v>3.1</v>
+      </c>
+      <c r="N141">
         <v>2.4</v>
       </c>
-      <c r="N141">
-        <v>3</v>
-      </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -14070,10 +14070,10 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14515,10 +14515,10 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14782,7 +14782,7 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>29</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N168">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,10 +15494,10 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16209,7 +16209,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16387,7 +16387,7 @@
         <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16562,7 +16562,7 @@
         <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16918,7 +16918,7 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>29</v>
@@ -17096,10 +17096,10 @@
         <v>45358.5</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17351,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7921659</v>
+        <v>6979566</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17363,58 +17363,58 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>46</v>
       </c>
       <c r="K190">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
         <v>1.8</v>
       </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W190">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17423,16 +17423,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6979566</v>
+        <v>7921659</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,76 +17452,76 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>46</v>
       </c>
       <c r="K191">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
+        <v>4.75</v>
+      </c>
+      <c r="N191">
+        <v>1.45</v>
+      </c>
+      <c r="O191">
+        <v>3.8</v>
+      </c>
+      <c r="P191">
+        <v>6</v>
+      </c>
+      <c r="Q191">
+        <v>-1</v>
+      </c>
+      <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>1.85</v>
+      </c>
+      <c r="V191">
         <v>1.95</v>
       </c>
-      <c r="N191">
-        <v>2.7</v>
-      </c>
-      <c r="O191">
-        <v>3</v>
-      </c>
-      <c r="P191">
-        <v>2.45</v>
-      </c>
-      <c r="Q191">
+      <c r="W191">
+        <v>0.45</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
         <v>0</v>
       </c>
-      <c r="R191">
-        <v>2</v>
-      </c>
-      <c r="S191">
-        <v>1.8</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.75</v>
-      </c>
-      <c r="V191">
-        <v>2.05</v>
-      </c>
-      <c r="W191">
-        <v>1.7</v>
-      </c>
-      <c r="X191">
-        <v>-1</v>
-      </c>
-      <c r="Y191">
-        <v>-1</v>
-      </c>
-      <c r="Z191">
-        <v>1</v>
-      </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17719,7 +17719,7 @@
         <v>45363.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18256,7 +18256,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18520,7 +18520,7 @@
         <v>45367.5</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>30</v>
@@ -18612,7 +18612,7 @@
         <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18775,7 +18775,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6978760</v>
+        <v>6979582</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,64 +18784,79 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45368.5</v>
+        <v>45368.39583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>1.181</v>
+        <v>6.5</v>
       </c>
       <c r="L206">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>15</v>
+        <v>1.444</v>
       </c>
       <c r="N206">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="O206">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>17</v>
+        <v>1.75</v>
       </c>
       <c r="Q206">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R206">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA206">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18849,7 +18864,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6979584</v>
+        <v>6978760</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18858,64 +18873,79 @@
         <v>28</v>
       </c>
       <c r="E207" s="2">
-        <v>45368.58333333334</v>
+        <v>45368.5</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="H207">
+        <v>5</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>46</v>
       </c>
       <c r="K207">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M207">
+        <v>15</v>
+      </c>
+      <c r="N207">
+        <v>1.142</v>
+      </c>
+      <c r="O207">
+        <v>7</v>
+      </c>
+      <c r="P207">
+        <v>17</v>
+      </c>
+      <c r="Q207">
+        <v>-2.25</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>1.8</v>
+      </c>
+      <c r="T207">
         <v>3.25</v>
       </c>
-      <c r="N207">
-        <v>1.95</v>
-      </c>
-      <c r="O207">
-        <v>3.25</v>
-      </c>
-      <c r="P207">
-        <v>3.75</v>
-      </c>
-      <c r="Q207">
-        <v>-0.5</v>
-      </c>
-      <c r="R207">
-        <v>1.975</v>
-      </c>
-      <c r="S207">
-        <v>1.825</v>
-      </c>
-      <c r="T207">
-        <v>2.5</v>
-      </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>0.925</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18923,73 +18953,177 @@
         <v>206</v>
       </c>
       <c r="B208">
+        <v>6979584</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45368.58333333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>39</v>
+      </c>
+      <c r="G208" t="s">
+        <v>38</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>48</v>
+      </c>
+      <c r="K208">
+        <v>2.15</v>
+      </c>
+      <c r="L208">
+        <v>3.2</v>
+      </c>
+      <c r="M208">
+        <v>3.25</v>
+      </c>
+      <c r="N208">
+        <v>1.8</v>
+      </c>
+      <c r="O208">
+        <v>3.4</v>
+      </c>
+      <c r="P208">
+        <v>4.2</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.825</v>
+      </c>
+      <c r="S208">
+        <v>1.975</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.925</v>
+      </c>
+      <c r="V208">
+        <v>1.875</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>3.2</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
         <v>6979583</v>
       </c>
-      <c r="C208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E208" s="2">
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
         <v>45368.66666666666</v>
       </c>
-      <c r="F208" t="s">
-        <v>35</v>
-      </c>
-      <c r="G208" t="s">
+      <c r="F209" t="s">
+        <v>34</v>
+      </c>
+      <c r="G209" t="s">
         <v>37</v>
       </c>
-      <c r="K208">
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>46</v>
+      </c>
+      <c r="K209">
         <v>2.2</v>
       </c>
-      <c r="L208">
+      <c r="L209">
         <v>3</v>
       </c>
-      <c r="M208">
+      <c r="M209">
         <v>3.4</v>
       </c>
-      <c r="N208">
-        <v>2.15</v>
-      </c>
-      <c r="O208">
-        <v>2.875</v>
-      </c>
-      <c r="P208">
-        <v>3.75</v>
-      </c>
-      <c r="Q208">
+      <c r="N209">
+        <v>2.1</v>
+      </c>
+      <c r="O209">
+        <v>2.9</v>
+      </c>
+      <c r="P209">
+        <v>3.8</v>
+      </c>
+      <c r="Q209">
         <v>-0.25</v>
       </c>
-      <c r="R208">
-        <v>1.85</v>
-      </c>
-      <c r="S208">
-        <v>1.95</v>
-      </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>1.8</v>
-      </c>
-      <c r="V208">
-        <v>2</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
-        <v>0</v>
+      <c r="R209">
+        <v>1.775</v>
+      </c>
+      <c r="S209">
+        <v>2.025</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>1.825</v>
+      </c>
+      <c r="V209">
+        <v>1.975</v>
+      </c>
+      <c r="W209">
+        <v>1.1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA209">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>Spartak Subotica</t>
   </si>
   <si>
     <t>FK Vozdovac</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1.533</v>
+      </c>
+      <c r="O2">
         <v>3.6</v>
       </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
-      <c r="O2">
-        <v>3.1</v>
-      </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
       <c r="N3">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>1.533</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
-      </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.925</v>
-      </c>
-      <c r="AB31">
-        <v>0.825</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.825</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.925</v>
+      </c>
+      <c r="AB32">
         <v>0.825</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,73 +3838,73 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
+        <v>3.1</v>
+      </c>
+      <c r="M38">
+        <v>2.875</v>
+      </c>
+      <c r="N38">
+        <v>1.95</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>3.75</v>
       </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>6</v>
-      </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>1.8</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
         <v>1.85</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>1.8</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,73 +3927,73 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
         <v>1.95</v>
       </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>3.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
         <v>1.8</v>
       </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>1.85</v>
-      </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
+        <v>0.95</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8</v>
-      </c>
-      <c r="AB39">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5704,7 +5704,7 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
         <v>30</v>
       </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>3.25</v>
+      </c>
+      <c r="M84">
+        <v>3.25</v>
+      </c>
+      <c r="N84">
+        <v>2.55</v>
+      </c>
+      <c r="O84">
+        <v>3.2</v>
+      </c>
+      <c r="P84">
+        <v>2.55</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84">
+      <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
         <v>2.25</v>
       </c>
-      <c r="L84">
-        <v>3</v>
-      </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>1.363</v>
-      </c>
-      <c r="O84">
-        <v>3.8</v>
-      </c>
-      <c r="P84">
-        <v>9</v>
-      </c>
-      <c r="Q84">
-        <v>-1.25</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,73 +8018,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
+        <v>1.975</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
         <v>1.9</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.9</v>
       </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB85">
-        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M90">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O90">
+        <v>7.5</v>
+      </c>
+      <c r="P90">
+        <v>1.125</v>
+      </c>
+      <c r="Q90">
+        <v>2.25</v>
+      </c>
+      <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
         <v>3.5</v>
       </c>
-      <c r="P90">
-        <v>5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
+      <c r="U90">
         <v>1.825</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N91">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O91">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q91">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y91">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -9264,7 +9264,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>1.025</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
         <v>35</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16384,7 +16384,7 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
         <v>34</v>
@@ -16921,7 +16921,7 @@
         <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17274,7 +17274,7 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
@@ -17351,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6979566</v>
+        <v>7921659</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17363,76 +17363,76 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
         <v>1</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>46</v>
       </c>
       <c r="K190">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
+        <v>4.75</v>
+      </c>
+      <c r="N190">
+        <v>1.45</v>
+      </c>
+      <c r="O190">
+        <v>3.8</v>
+      </c>
+      <c r="P190">
+        <v>6</v>
+      </c>
+      <c r="Q190">
+        <v>-1</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
         <v>1.95</v>
       </c>
-      <c r="N190">
-        <v>2.7</v>
-      </c>
-      <c r="O190">
-        <v>3</v>
-      </c>
-      <c r="P190">
-        <v>2.45</v>
-      </c>
-      <c r="Q190">
+      <c r="W190">
+        <v>0.45</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
         <v>0</v>
       </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.8</v>
-      </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.75</v>
-      </c>
-      <c r="V190">
-        <v>2.05</v>
-      </c>
-      <c r="W190">
-        <v>1.7</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
-      <c r="Z190">
-        <v>1</v>
-      </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7921659</v>
+        <v>6979566</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,58 +17452,58 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>46</v>
       </c>
       <c r="K191">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N191">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O191">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P191">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
         <v>1.8</v>
       </c>
-      <c r="S191">
-        <v>2</v>
-      </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W191">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17512,16 +17512,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" t="s">
         <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>29</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -18523,7 +18523,7 @@
         <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18609,7 +18609,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19124,6 +19124,450 @@
       </c>
       <c r="AC209">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6979591</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" t="s">
+        <v>31</v>
+      </c>
+      <c r="K210">
+        <v>1.3</v>
+      </c>
+      <c r="L210">
+        <v>4.8</v>
+      </c>
+      <c r="M210">
+        <v>10</v>
+      </c>
+      <c r="N210">
+        <v>1.4</v>
+      </c>
+      <c r="O210">
+        <v>4.75</v>
+      </c>
+      <c r="P210">
+        <v>7</v>
+      </c>
+      <c r="Q210">
+        <v>-1.25</v>
+      </c>
+      <c r="R210">
+        <v>1.8</v>
+      </c>
+      <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>3</v>
+      </c>
+      <c r="U210">
+        <v>1.975</v>
+      </c>
+      <c r="V210">
+        <v>1.825</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6979587</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>42</v>
+      </c>
+      <c r="G211" t="s">
+        <v>39</v>
+      </c>
+      <c r="K211">
+        <v>2.15</v>
+      </c>
+      <c r="L211">
+        <v>3.3</v>
+      </c>
+      <c r="M211">
+        <v>3.25</v>
+      </c>
+      <c r="N211">
+        <v>1.909</v>
+      </c>
+      <c r="O211">
+        <v>3.5</v>
+      </c>
+      <c r="P211">
+        <v>3.75</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
+        <v>1.8</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6979588</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F212" t="s">
+        <v>40</v>
+      </c>
+      <c r="G212" t="s">
+        <v>34</v>
+      </c>
+      <c r="K212">
+        <v>2.05</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>3.7</v>
+      </c>
+      <c r="N212">
+        <v>1.95</v>
+      </c>
+      <c r="O212">
+        <v>3.2</v>
+      </c>
+      <c r="P212">
+        <v>4.2</v>
+      </c>
+      <c r="Q212">
+        <v>-0.5</v>
+      </c>
+      <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
+        <v>1.85</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6979589</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F213" t="s">
+        <v>37</v>
+      </c>
+      <c r="G213" t="s">
+        <v>36</v>
+      </c>
+      <c r="K213">
+        <v>2.15</v>
+      </c>
+      <c r="L213">
+        <v>3.1</v>
+      </c>
+      <c r="M213">
+        <v>3.5</v>
+      </c>
+      <c r="N213">
+        <v>1.909</v>
+      </c>
+      <c r="O213">
+        <v>3.25</v>
+      </c>
+      <c r="P213">
+        <v>4.2</v>
+      </c>
+      <c r="Q213">
+        <v>-0.5</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>1.825</v>
+      </c>
+      <c r="V213">
+        <v>1.975</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6978761</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F214" t="s">
+        <v>38</v>
+      </c>
+      <c r="G214" t="s">
+        <v>45</v>
+      </c>
+      <c r="K214">
+        <v>10</v>
+      </c>
+      <c r="L214">
+        <v>7</v>
+      </c>
+      <c r="M214">
+        <v>1.222</v>
+      </c>
+      <c r="N214">
+        <v>10</v>
+      </c>
+      <c r="O214">
+        <v>7</v>
+      </c>
+      <c r="P214">
+        <v>1.222</v>
+      </c>
+      <c r="Q214">
+        <v>1.75</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>3</v>
+      </c>
+      <c r="U214">
+        <v>1.975</v>
+      </c>
+      <c r="V214">
+        <v>1.825</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6979590</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45381.60416666666</v>
+      </c>
+      <c r="F215" t="s">
+        <v>44</v>
+      </c>
+      <c r="G215" t="s">
+        <v>30</v>
+      </c>
+      <c r="K215">
+        <v>1.25</v>
+      </c>
+      <c r="L215">
+        <v>6</v>
+      </c>
+      <c r="M215">
+        <v>10</v>
+      </c>
+      <c r="N215">
+        <v>1.25</v>
+      </c>
+      <c r="O215">
+        <v>5.75</v>
+      </c>
+      <c r="P215">
+        <v>12</v>
+      </c>
+      <c r="Q215">
+        <v>-1.75</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.925</v>
+      </c>
+      <c r="T215">
+        <v>3</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
+        <v>1.8</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Cukaricki</t>
   </si>
   <si>
     <t>FK Vozdovac</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC215"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
+        <v>3.2</v>
+      </c>
+      <c r="M2">
         <v>3.6</v>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
       <c r="N2">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1.533</v>
+      </c>
+      <c r="O3">
         <v>3.6</v>
       </c>
-      <c r="N3">
-        <v>1.909</v>
-      </c>
-      <c r="O3">
-        <v>3.1</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.925</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
       </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>4.5</v>
+      </c>
+      <c r="N32">
+        <v>1.909</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>1.533</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.85</v>
-      </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.975</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.825</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.825</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.925</v>
-      </c>
-      <c r="AB32">
-        <v>0.825</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -3924,7 +3924,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5704,7 +5704,7 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -7398,7 +7398,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -8555,7 +8555,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -9264,7 +9264,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
         <v>35</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16384,7 +16384,7 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
         <v>34</v>
@@ -16921,7 +16921,7 @@
         <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7921658</v>
+        <v>6979565</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17200,40 +17200,40 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
         <v>3.1</v>
       </c>
       <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
         <v>2.4</v>
       </c>
-      <c r="N188">
-        <v>2.55</v>
-      </c>
       <c r="O188">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17242,19 +17242,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6979565</v>
+        <v>7921658</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,61 +17289,61 @@
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O189">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P189">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.75</v>
       </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>1.8</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17351,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7921659</v>
+        <v>6979566</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17363,58 +17363,58 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>46</v>
       </c>
       <c r="K190">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
         <v>1.8</v>
       </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W190">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17423,16 +17423,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6979566</v>
+        <v>7921659</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,76 +17452,76 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>46</v>
       </c>
       <c r="K191">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
+        <v>4.75</v>
+      </c>
+      <c r="N191">
+        <v>1.45</v>
+      </c>
+      <c r="O191">
+        <v>3.8</v>
+      </c>
+      <c r="P191">
+        <v>6</v>
+      </c>
+      <c r="Q191">
+        <v>-1</v>
+      </c>
+      <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>1.85</v>
+      </c>
+      <c r="V191">
         <v>1.95</v>
       </c>
-      <c r="N191">
-        <v>2.7</v>
-      </c>
-      <c r="O191">
-        <v>3</v>
-      </c>
-      <c r="P191">
-        <v>2.45</v>
-      </c>
-      <c r="Q191">
+      <c r="W191">
+        <v>0.45</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
         <v>0</v>
       </c>
-      <c r="R191">
-        <v>2</v>
-      </c>
-      <c r="S191">
-        <v>1.8</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.75</v>
-      </c>
-      <c r="V191">
-        <v>2.05</v>
-      </c>
-      <c r="W191">
-        <v>1.7</v>
-      </c>
-      <c r="X191">
-        <v>-1</v>
-      </c>
-      <c r="Y191">
-        <v>-1</v>
-      </c>
-      <c r="Z191">
-        <v>1</v>
-      </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18523,7 +18523,7 @@
         <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18609,7 +18609,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19131,7 +19131,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6979591</v>
+        <v>6979588</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,49 +19140,49 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45380.58333333334</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K210">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="L210">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="N210">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="Q210">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T210">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19205,7 +19205,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6979587</v>
+        <v>6979589</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19214,49 +19214,49 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45380.58333333334</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K211">
         <v>2.15</v>
       </c>
       <c r="L211">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
         <v>1.909</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P211">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q211">
         <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19279,7 +19279,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6979588</v>
+        <v>6978761</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19288,49 +19288,49 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45381.41666666666</v>
+        <v>45381.5</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K212">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M212">
-        <v>3.7</v>
+        <v>1.222</v>
       </c>
       <c r="N212">
-        <v>1.95</v>
+        <v>10</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="P212">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19353,7 +19353,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6979589</v>
+        <v>6979590</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19362,49 +19362,49 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45381.41666666666</v>
+        <v>45381.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K213">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="N213">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O213">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="P213">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R213">
+        <v>1.85</v>
+      </c>
+      <c r="S213">
         <v>1.95</v>
       </c>
-      <c r="S213">
-        <v>1.85</v>
-      </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U213">
+        <v>1.975</v>
+      </c>
+      <c r="V213">
         <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>1.975</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19419,154 +19419,6 @@
         <v>0</v>
       </c>
       <c r="AA213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>6978761</v>
-      </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F214" t="s">
-        <v>38</v>
-      </c>
-      <c r="G214" t="s">
-        <v>45</v>
-      </c>
-      <c r="K214">
-        <v>10</v>
-      </c>
-      <c r="L214">
-        <v>7</v>
-      </c>
-      <c r="M214">
-        <v>1.222</v>
-      </c>
-      <c r="N214">
-        <v>10</v>
-      </c>
-      <c r="O214">
-        <v>7</v>
-      </c>
-      <c r="P214">
-        <v>1.222</v>
-      </c>
-      <c r="Q214">
-        <v>1.75</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
-      <c r="S214">
-        <v>1.8</v>
-      </c>
-      <c r="T214">
-        <v>3</v>
-      </c>
-      <c r="U214">
-        <v>1.975</v>
-      </c>
-      <c r="V214">
-        <v>1.825</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>6979590</v>
-      </c>
-      <c r="C215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45381.60416666666</v>
-      </c>
-      <c r="F215" t="s">
-        <v>44</v>
-      </c>
-      <c r="G215" t="s">
-        <v>30</v>
-      </c>
-      <c r="K215">
-        <v>1.25</v>
-      </c>
-      <c r="L215">
-        <v>6</v>
-      </c>
-      <c r="M215">
-        <v>10</v>
-      </c>
-      <c r="N215">
-        <v>1.25</v>
-      </c>
-      <c r="O215">
-        <v>5.75</v>
-      </c>
-      <c r="P215">
-        <v>12</v>
-      </c>
-      <c r="Q215">
-        <v>-1.75</v>
-      </c>
-      <c r="R215">
-        <v>1.875</v>
-      </c>
-      <c r="S215">
-        <v>1.925</v>
-      </c>
-      <c r="T215">
-        <v>3</v>
-      </c>
-      <c r="U215">
-        <v>2</v>
-      </c>
-      <c r="V215">
-        <v>1.8</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-      <c r="AA215">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>1.533</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
-      </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.925</v>
-      </c>
-      <c r="AB31">
-        <v>0.825</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.825</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.925</v>
+      </c>
+      <c r="AB32">
         <v>0.825</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6979565</v>
+        <v>7921658</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17200,61 +17200,61 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L188">
         <v>3.1</v>
       </c>
       <c r="M188">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O188">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P188">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.75</v>
       </c>
-      <c r="V188">
-        <v>2.05</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>1.8</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7921658</v>
+        <v>6979565</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,40 +17289,40 @@
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
         <v>2.4</v>
       </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P189">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17331,19 +17331,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -19124,302 +19124,6 @@
       </c>
       <c r="AC209">
         <v>0.9750000000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:29">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>6979588</v>
-      </c>
-      <c r="C210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" t="s">
-        <v>28</v>
-      </c>
-      <c r="E210" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F210" t="s">
-        <v>40</v>
-      </c>
-      <c r="G210" t="s">
-        <v>34</v>
-      </c>
-      <c r="K210">
-        <v>2.05</v>
-      </c>
-      <c r="L210">
-        <v>3.2</v>
-      </c>
-      <c r="M210">
-        <v>3.7</v>
-      </c>
-      <c r="N210">
-        <v>1.95</v>
-      </c>
-      <c r="O210">
-        <v>3.2</v>
-      </c>
-      <c r="P210">
-        <v>4.2</v>
-      </c>
-      <c r="Q210">
-        <v>-0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.95</v>
-      </c>
-      <c r="S210">
-        <v>1.85</v>
-      </c>
-      <c r="T210">
-        <v>2.25</v>
-      </c>
-      <c r="U210">
-        <v>1.875</v>
-      </c>
-      <c r="V210">
-        <v>1.925</v>
-      </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
-      <c r="Y210">
-        <v>0</v>
-      </c>
-      <c r="Z210">
-        <v>0</v>
-      </c>
-      <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:29">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>6979589</v>
-      </c>
-      <c r="C211" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F211" t="s">
-        <v>37</v>
-      </c>
-      <c r="G211" t="s">
-        <v>36</v>
-      </c>
-      <c r="K211">
-        <v>2.15</v>
-      </c>
-      <c r="L211">
-        <v>3.1</v>
-      </c>
-      <c r="M211">
-        <v>3.5</v>
-      </c>
-      <c r="N211">
-        <v>1.909</v>
-      </c>
-      <c r="O211">
-        <v>3.25</v>
-      </c>
-      <c r="P211">
-        <v>4.2</v>
-      </c>
-      <c r="Q211">
-        <v>-0.5</v>
-      </c>
-      <c r="R211">
-        <v>1.975</v>
-      </c>
-      <c r="S211">
-        <v>1.825</v>
-      </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>1.825</v>
-      </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>6978761</v>
-      </c>
-      <c r="C212" t="s">
-        <v>28</v>
-      </c>
-      <c r="D212" t="s">
-        <v>28</v>
-      </c>
-      <c r="E212" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F212" t="s">
-        <v>38</v>
-      </c>
-      <c r="G212" t="s">
-        <v>45</v>
-      </c>
-      <c r="K212">
-        <v>10</v>
-      </c>
-      <c r="L212">
-        <v>7</v>
-      </c>
-      <c r="M212">
-        <v>1.222</v>
-      </c>
-      <c r="N212">
-        <v>10</v>
-      </c>
-      <c r="O212">
-        <v>7</v>
-      </c>
-      <c r="P212">
-        <v>1.222</v>
-      </c>
-      <c r="Q212">
-        <v>1.75</v>
-      </c>
-      <c r="R212">
-        <v>1.975</v>
-      </c>
-      <c r="S212">
-        <v>1.825</v>
-      </c>
-      <c r="T212">
-        <v>3</v>
-      </c>
-      <c r="U212">
-        <v>1.975</v>
-      </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <v>0</v>
-      </c>
-      <c r="Y212">
-        <v>0</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:29">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>6979590</v>
-      </c>
-      <c r="C213" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" t="s">
-        <v>28</v>
-      </c>
-      <c r="E213" s="2">
-        <v>45381.60416666666</v>
-      </c>
-      <c r="F213" t="s">
-        <v>44</v>
-      </c>
-      <c r="G213" t="s">
-        <v>29</v>
-      </c>
-      <c r="K213">
-        <v>1.25</v>
-      </c>
-      <c r="L213">
-        <v>6</v>
-      </c>
-      <c r="M213">
-        <v>10</v>
-      </c>
-      <c r="N213">
-        <v>1.25</v>
-      </c>
-      <c r="O213">
-        <v>5.75</v>
-      </c>
-      <c r="P213">
-        <v>12</v>
-      </c>
-      <c r="Q213">
-        <v>-1.75</v>
-      </c>
-      <c r="R213">
-        <v>1.85</v>
-      </c>
-      <c r="S213">
-        <v>1.95</v>
-      </c>
-      <c r="T213">
-        <v>3</v>
-      </c>
-      <c r="U213">
-        <v>1.975</v>
-      </c>
-      <c r="V213">
-        <v>1.825</v>
-      </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
-      <c r="Y213">
-        <v>0</v>
-      </c>
-      <c r="Z213">
-        <v>0</v>
-      </c>
-      <c r="AA213">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
+    <t>FK Cukaricki</t>
+  </si>
+  <si>
     <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>FK Vozdovac</t>
-  </si>
-  <si>
-    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>FK Novi Pazar</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1.533</v>
+      </c>
+      <c r="O2">
         <v>3.6</v>
       </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
-      <c r="O2">
-        <v>3.1</v>
-      </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
       <c r="N3">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>2.5</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
       <c r="P4">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2144,7 +2144,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -2233,7 +2233,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,7 +3568,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -3924,7 +3924,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
         <v>3</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N50">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,37 +4995,37 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5704,10 +5704,10 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
       </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
         <v>32</v>
       </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
         <v>1.9</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.9</v>
       </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB84">
-        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,73 +8018,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3.25</v>
+      </c>
+      <c r="M85">
+        <v>3.25</v>
+      </c>
+      <c r="N85">
+        <v>2.55</v>
+      </c>
+      <c r="O85">
+        <v>3.2</v>
+      </c>
+      <c r="P85">
+        <v>2.55</v>
+      </c>
+      <c r="Q85">
         <v>0</v>
       </c>
-      <c r="J85" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85">
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
         <v>2.25</v>
       </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="N85">
-        <v>1.363</v>
-      </c>
-      <c r="O85">
-        <v>3.8</v>
-      </c>
-      <c r="P85">
-        <v>9</v>
-      </c>
-      <c r="Q85">
-        <v>-1.25</v>
-      </c>
-      <c r="R85">
-        <v>1.825</v>
-      </c>
-      <c r="S85">
-        <v>1.975</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8555,7 +8555,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9000,7 +9000,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9264,10 +9264,10 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10513,7 +10513,7 @@
         <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
         <v>2.4</v>
       </c>
-      <c r="N140">
-        <v>3</v>
-      </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
         <v>35</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14070,7 +14070,7 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>34</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15405,7 +15405,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>43</v>
@@ -15494,7 +15494,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16209,7 +16209,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16384,7 +16384,7 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
         <v>34</v>
@@ -16562,7 +16562,7 @@
         <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16918,10 +16918,10 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17099,7 +17099,7 @@
         <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17274,7 +17274,7 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
@@ -17366,7 +17366,7 @@
         <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17455,7 +17455,7 @@
         <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>45363.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" t="s">
         <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>29</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17900,7 +17900,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18520,10 +18520,10 @@
         <v>45367.5</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18609,10 +18609,10 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -19124,6 +19124,718 @@
       </c>
       <c r="AC209">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6979592</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45380.41666666666</v>
+      </c>
+      <c r="F210" t="s">
+        <v>29</v>
+      </c>
+      <c r="G210" t="s">
+        <v>33</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>46</v>
+      </c>
+      <c r="K210">
+        <v>1.7</v>
+      </c>
+      <c r="L210">
+        <v>3.75</v>
+      </c>
+      <c r="M210">
+        <v>4.5</v>
+      </c>
+      <c r="N210">
+        <v>1.65</v>
+      </c>
+      <c r="O210">
+        <v>3.6</v>
+      </c>
+      <c r="P210">
+        <v>5</v>
+      </c>
+      <c r="Q210">
+        <v>-0.75</v>
+      </c>
+      <c r="R210">
+        <v>1.8</v>
+      </c>
+      <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.85</v>
+      </c>
+      <c r="V210">
+        <v>1.95</v>
+      </c>
+      <c r="W210">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
+        <v>0.8</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>-0.5</v>
+      </c>
+      <c r="AC210">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6979586</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45380.5</v>
+      </c>
+      <c r="F211" t="s">
+        <v>43</v>
+      </c>
+      <c r="G211" t="s">
+        <v>41</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>4</v>
+      </c>
+      <c r="J211" t="s">
+        <v>48</v>
+      </c>
+      <c r="K211">
+        <v>3.8</v>
+      </c>
+      <c r="L211">
+        <v>3.3</v>
+      </c>
+      <c r="M211">
+        <v>1.95</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211">
+        <v>3.2</v>
+      </c>
+      <c r="P211">
+        <v>1.95</v>
+      </c>
+      <c r="Q211">
+        <v>0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
+        <v>1.8</v>
+      </c>
+      <c r="V211">
+        <v>2</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>0.95</v>
+      </c>
+      <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB211">
+        <v>0.8</v>
+      </c>
+      <c r="AC211">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6979591</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" t="s">
+        <v>32</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>46</v>
+      </c>
+      <c r="K212">
+        <v>1.3</v>
+      </c>
+      <c r="L212">
+        <v>4.8</v>
+      </c>
+      <c r="M212">
+        <v>10</v>
+      </c>
+      <c r="N212">
+        <v>1.285</v>
+      </c>
+      <c r="O212">
+        <v>5.5</v>
+      </c>
+      <c r="P212">
+        <v>9</v>
+      </c>
+      <c r="Q212">
+        <v>-1.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.5</v>
+      </c>
+      <c r="AA212">
+        <v>-0.5</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6979587</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>42</v>
+      </c>
+      <c r="G213" t="s">
+        <v>39</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>47</v>
+      </c>
+      <c r="K213">
+        <v>2.15</v>
+      </c>
+      <c r="L213">
+        <v>3.3</v>
+      </c>
+      <c r="M213">
+        <v>3.25</v>
+      </c>
+      <c r="N213">
+        <v>1.909</v>
+      </c>
+      <c r="O213">
+        <v>3.5</v>
+      </c>
+      <c r="P213">
+        <v>3.75</v>
+      </c>
+      <c r="Q213">
+        <v>-0.5</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>1.975</v>
+      </c>
+      <c r="V213">
+        <v>1.825</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>2.5</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>-1</v>
+      </c>
+      <c r="AA213">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6979588</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F214" t="s">
+        <v>40</v>
+      </c>
+      <c r="G214" t="s">
+        <v>34</v>
+      </c>
+      <c r="H214">
+        <v>3</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>46</v>
+      </c>
+      <c r="K214">
+        <v>2.05</v>
+      </c>
+      <c r="L214">
+        <v>3.2</v>
+      </c>
+      <c r="M214">
+        <v>3.7</v>
+      </c>
+      <c r="N214">
+        <v>1.75</v>
+      </c>
+      <c r="O214">
+        <v>3.25</v>
+      </c>
+      <c r="P214">
+        <v>5</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>1.85</v>
+      </c>
+      <c r="V214">
+        <v>1.95</v>
+      </c>
+      <c r="W214">
+        <v>0.75</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>1</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6979589</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F215" t="s">
+        <v>37</v>
+      </c>
+      <c r="G215" t="s">
+        <v>36</v>
+      </c>
+      <c r="H215">
+        <v>3</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>46</v>
+      </c>
+      <c r="K215">
+        <v>2.15</v>
+      </c>
+      <c r="L215">
+        <v>3.1</v>
+      </c>
+      <c r="M215">
+        <v>3.5</v>
+      </c>
+      <c r="N215">
+        <v>2.2</v>
+      </c>
+      <c r="O215">
+        <v>2.875</v>
+      </c>
+      <c r="P215">
+        <v>3.75</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
+        <v>2</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
+        <v>1.9</v>
+      </c>
+      <c r="V215">
+        <v>1.9</v>
+      </c>
+      <c r="W215">
+        <v>1.2</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0.8</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC215">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>6978761</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>38</v>
+      </c>
+      <c r="G216" t="s">
+        <v>45</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216" t="s">
+        <v>48</v>
+      </c>
+      <c r="K216">
+        <v>10</v>
+      </c>
+      <c r="L216">
+        <v>7</v>
+      </c>
+      <c r="M216">
+        <v>1.222</v>
+      </c>
+      <c r="N216">
+        <v>17</v>
+      </c>
+      <c r="O216">
+        <v>6.5</v>
+      </c>
+      <c r="P216">
+        <v>1.181</v>
+      </c>
+      <c r="Q216">
+        <v>2</v>
+      </c>
+      <c r="R216">
+        <v>1.85</v>
+      </c>
+      <c r="S216">
+        <v>1.95</v>
+      </c>
+      <c r="T216">
+        <v>3</v>
+      </c>
+      <c r="U216">
+        <v>1.925</v>
+      </c>
+      <c r="V216">
+        <v>1.875</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>0.181</v>
+      </c>
+      <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
+        <v>0.95</v>
+      </c>
+      <c r="AB216">
+        <v>0</v>
+      </c>
+      <c r="AC216">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>6979590</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45381.60416666666</v>
+      </c>
+      <c r="F217" t="s">
+        <v>44</v>
+      </c>
+      <c r="G217" t="s">
+        <v>30</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217" t="s">
+        <v>46</v>
+      </c>
+      <c r="K217">
+        <v>1.25</v>
+      </c>
+      <c r="L217">
+        <v>6</v>
+      </c>
+      <c r="M217">
+        <v>10</v>
+      </c>
+      <c r="N217">
+        <v>1.285</v>
+      </c>
+      <c r="O217">
+        <v>5.5</v>
+      </c>
+      <c r="P217">
+        <v>9.5</v>
+      </c>
+      <c r="Q217">
+        <v>-1.75</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>1.8</v>
+      </c>
+      <c r="T217">
+        <v>3.25</v>
+      </c>
+      <c r="U217">
+        <v>1.95</v>
+      </c>
+      <c r="V217">
+        <v>1.85</v>
+      </c>
+      <c r="W217">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>-1</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
+        <v>0.8</v>
+      </c>
+      <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -109,19 +109,19 @@
     <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC217"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
+        <v>3.1</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>2.4</v>
-      </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.7</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>2.5</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
       <c r="P5">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>-3</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>1.8</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -2233,7 +2233,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2945,7 +2945,7 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.925</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
       </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>4.5</v>
+      </c>
+      <c r="N32">
+        <v>1.909</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>1.533</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.85</v>
-      </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.975</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.825</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.825</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.925</v>
-      </c>
-      <c r="AB32">
-        <v>0.825</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,10 +3568,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3838,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4280,7 +4280,7 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>39</v>
@@ -4992,7 +4992,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>36</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
       </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L90">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N90">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
         <v>1.975</v>
       </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M91">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O91">
+        <v>7.5</v>
+      </c>
+      <c r="P91">
+        <v>1.125</v>
+      </c>
+      <c r="Q91">
+        <v>2.25</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
         <v>3.5</v>
       </c>
-      <c r="P91">
-        <v>5</v>
-      </c>
-      <c r="Q91">
-        <v>-0.75</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.825</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -8997,10 +8997,10 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9267,7 +9267,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10510,7 +10510,7 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s">
         <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N140">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
+        <v>3.1</v>
+      </c>
+      <c r="N141">
         <v>2.4</v>
       </c>
-      <c r="N141">
-        <v>3</v>
-      </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -14070,10 +14070,10 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14515,10 +14515,10 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14782,7 +14782,7 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,10 +15494,10 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16209,7 +16209,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16387,7 +16387,7 @@
         <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16562,7 +16562,7 @@
         <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16918,7 +16918,7 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,10 +17096,10 @@
         <v>45358.5</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17351,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6979566</v>
+        <v>7921659</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17363,76 +17363,76 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
         <v>1</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>46</v>
       </c>
       <c r="K190">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
+        <v>4.75</v>
+      </c>
+      <c r="N190">
+        <v>1.45</v>
+      </c>
+      <c r="O190">
+        <v>3.8</v>
+      </c>
+      <c r="P190">
+        <v>6</v>
+      </c>
+      <c r="Q190">
+        <v>-1</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
         <v>1.95</v>
       </c>
-      <c r="N190">
-        <v>2.7</v>
-      </c>
-      <c r="O190">
-        <v>3</v>
-      </c>
-      <c r="P190">
-        <v>2.45</v>
-      </c>
-      <c r="Q190">
+      <c r="W190">
+        <v>0.45</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
         <v>0</v>
       </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.8</v>
-      </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.75</v>
-      </c>
-      <c r="V190">
-        <v>2.05</v>
-      </c>
-      <c r="W190">
-        <v>1.7</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
-      <c r="Z190">
-        <v>1</v>
-      </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7921659</v>
+        <v>6979566</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,58 +17452,58 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>46</v>
       </c>
       <c r="K191">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N191">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O191">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P191">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
         <v>1.8</v>
       </c>
-      <c r="S191">
-        <v>2</v>
-      </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W191">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17512,16 +17512,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17719,7 +17719,7 @@
         <v>45363.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18256,7 +18256,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18520,7 +18520,7 @@
         <v>45367.5</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>29</v>
@@ -18612,7 +18612,7 @@
         <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -19054,7 +19054,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6979591</v>
+        <v>6979587</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,76 +19321,76 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K212">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L212">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="N212">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O212">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="Q212">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6979587</v>
+        <v>6979591</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19410,76 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K213">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="M213">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="N213">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="Q213">
+        <v>-1.75</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
+        <v>3</v>
+      </c>
+      <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.5</v>
+      </c>
+      <c r="AA213">
         <v>-0.5</v>
       </c>
-      <c r="R213">
-        <v>1.9</v>
-      </c>
-      <c r="S213">
-        <v>1.9</v>
-      </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.975</v>
-      </c>
-      <c r="V213">
-        <v>1.825</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.5</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>3</v>
@@ -19836,6 +19836,228 @@
       </c>
       <c r="AC217">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6979594</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45384.47916666666</v>
+      </c>
+      <c r="F218" t="s">
+        <v>33</v>
+      </c>
+      <c r="G218" t="s">
+        <v>32</v>
+      </c>
+      <c r="K218">
+        <v>3</v>
+      </c>
+      <c r="L218">
+        <v>3.25</v>
+      </c>
+      <c r="M218">
+        <v>2.25</v>
+      </c>
+      <c r="N218">
+        <v>3.1</v>
+      </c>
+      <c r="O218">
+        <v>3.25</v>
+      </c>
+      <c r="P218">
+        <v>2.15</v>
+      </c>
+      <c r="Q218">
+        <v>0.25</v>
+      </c>
+      <c r="R218">
+        <v>1.95</v>
+      </c>
+      <c r="S218">
+        <v>1.85</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>1.975</v>
+      </c>
+      <c r="V218">
+        <v>1.825</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6979593</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45384.5625</v>
+      </c>
+      <c r="F219" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" t="s">
+        <v>29</v>
+      </c>
+      <c r="K219">
+        <v>2.1</v>
+      </c>
+      <c r="L219">
+        <v>3.2</v>
+      </c>
+      <c r="M219">
+        <v>3.3</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219">
+        <v>3.25</v>
+      </c>
+      <c r="P219">
+        <v>3.5</v>
+      </c>
+      <c r="Q219">
+        <v>-0.5</v>
+      </c>
+      <c r="R219">
+        <v>2.025</v>
+      </c>
+      <c r="S219">
+        <v>1.775</v>
+      </c>
+      <c r="T219">
+        <v>2.25</v>
+      </c>
+      <c r="U219">
+        <v>1.8</v>
+      </c>
+      <c r="V219">
+        <v>2</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6979599</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45384.58333333334</v>
+      </c>
+      <c r="F220" t="s">
+        <v>39</v>
+      </c>
+      <c r="G220" t="s">
+        <v>43</v>
+      </c>
+      <c r="K220">
+        <v>1.7</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>4.75</v>
+      </c>
+      <c r="N220">
+        <v>1.533</v>
+      </c>
+      <c r="O220">
+        <v>3.75</v>
+      </c>
+      <c r="P220">
+        <v>6</v>
+      </c>
+      <c r="Q220">
+        <v>-1</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>1.8</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>2</v>
+      </c>
+      <c r="V220">
+        <v>1.8</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P8">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>3.75</v>
       </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
+      <c r="U8">
         <v>1.8</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,61 +2144,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N19">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,61 +2233,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2945,7 +2945,7 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>1.533</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
-      </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.925</v>
-      </c>
-      <c r="AB31">
-        <v>0.825</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.825</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.925</v>
+      </c>
+      <c r="AB32">
         <v>0.825</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3838,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,58 +4280,58 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
       <c r="K43">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,58 +4369,58 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M90">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O90">
+        <v>7.5</v>
+      </c>
+      <c r="P90">
+        <v>1.125</v>
+      </c>
+      <c r="Q90">
+        <v>2.25</v>
+      </c>
+      <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
         <v>3.5</v>
       </c>
-      <c r="P90">
-        <v>5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
+      <c r="U90">
         <v>1.825</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N91">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O91">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q91">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y91">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10510,7 +10510,7 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>1.025</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" t="s">
         <v>35</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -13005,7 +13005,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13094,7 +13094,7 @@
         <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14073,7 +14073,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14515,7 +14515,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>31</v>
@@ -14782,7 +14782,7 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N168">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16387,7 +16387,7 @@
         <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -17096,7 +17096,7 @@
         <v>45358.5</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7921658</v>
+        <v>6979565</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17200,40 +17200,40 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
         <v>3.1</v>
       </c>
       <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
         <v>2.4</v>
       </c>
-      <c r="N188">
-        <v>2.55</v>
-      </c>
       <c r="O188">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17242,19 +17242,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6979565</v>
+        <v>7921658</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,61 +17289,61 @@
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O189">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P189">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.75</v>
       </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>1.8</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17351,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7921659</v>
+        <v>6979566</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17363,58 +17363,58 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>46</v>
       </c>
       <c r="K190">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
         <v>1.8</v>
       </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W190">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17423,16 +17423,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6979566</v>
+        <v>7921659</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,76 +17452,76 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>46</v>
       </c>
       <c r="K191">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
+        <v>4.75</v>
+      </c>
+      <c r="N191">
+        <v>1.45</v>
+      </c>
+      <c r="O191">
+        <v>3.8</v>
+      </c>
+      <c r="P191">
+        <v>6</v>
+      </c>
+      <c r="Q191">
+        <v>-1</v>
+      </c>
+      <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>1.85</v>
+      </c>
+      <c r="V191">
         <v>1.95</v>
       </c>
-      <c r="N191">
-        <v>2.7</v>
-      </c>
-      <c r="O191">
-        <v>3</v>
-      </c>
-      <c r="P191">
-        <v>2.45</v>
-      </c>
-      <c r="Q191">
+      <c r="W191">
+        <v>0.45</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
         <v>0</v>
       </c>
-      <c r="R191">
-        <v>2</v>
-      </c>
-      <c r="S191">
-        <v>1.8</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.75</v>
-      </c>
-      <c r="V191">
-        <v>2.05</v>
-      </c>
-      <c r="W191">
-        <v>1.7</v>
-      </c>
-      <c r="X191">
-        <v>-1</v>
-      </c>
-      <c r="Y191">
-        <v>-1</v>
-      </c>
-      <c r="Z191">
-        <v>1</v>
-      </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18256,7 +18256,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -19054,7 +19054,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19502,7 +19502,7 @@
         <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>3</v>
@@ -19860,6 +19860,15 @@
       <c r="G218" t="s">
         <v>32</v>
       </c>
+      <c r="H218">
+        <v>3</v>
+      </c>
+      <c r="I218">
+        <v>4</v>
+      </c>
+      <c r="J218" t="s">
+        <v>48</v>
+      </c>
       <c r="K218">
         <v>3</v>
       </c>
@@ -19870,46 +19879,52 @@
         <v>2.25</v>
       </c>
       <c r="N218">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O218">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q218">
         <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB218">
+        <v>1.025</v>
+      </c>
+      <c r="AC218">
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19934,6 +19949,15 @@
       <c r="G219" t="s">
         <v>29</v>
       </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>47</v>
+      </c>
       <c r="K219">
         <v>2.1</v>
       </c>
@@ -19944,46 +19968,52 @@
         <v>3.3</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P219">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R219">
+        <v>1.775</v>
+      </c>
+      <c r="S219">
         <v>2.025</v>
-      </c>
-      <c r="S219">
-        <v>1.775</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB219">
+        <v>-0.5</v>
+      </c>
+      <c r="AC219">
+        <v>0.45</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20008,6 +20038,15 @@
       <c r="G220" t="s">
         <v>43</v>
       </c>
+      <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>46</v>
+      </c>
       <c r="K220">
         <v>1.7</v>
       </c>
@@ -20018,45 +20057,421 @@
         <v>4.75</v>
       </c>
       <c r="N220">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
+        <v>1.875</v>
+      </c>
+      <c r="W220">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>-1</v>
+      </c>
+      <c r="Z220">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>0.925</v>
+      </c>
+      <c r="AC220">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6979597</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45385.47916666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>36</v>
+      </c>
+      <c r="G221" t="s">
+        <v>40</v>
+      </c>
+      <c r="K221">
+        <v>2.3</v>
+      </c>
+      <c r="L221">
+        <v>3.3</v>
+      </c>
+      <c r="M221">
+        <v>2.7</v>
+      </c>
+      <c r="N221">
+        <v>2.4</v>
+      </c>
+      <c r="O221">
+        <v>3.25</v>
+      </c>
+      <c r="P221">
+        <v>2.6</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>1.95</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>1.9</v>
+      </c>
+      <c r="V221">
+        <v>1.9</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6979595</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45385.49652777778</v>
+      </c>
+      <c r="F222" t="s">
+        <v>31</v>
+      </c>
+      <c r="G222" t="s">
+        <v>44</v>
+      </c>
+      <c r="K222">
+        <v>6.5</v>
+      </c>
+      <c r="L222">
+        <v>3.75</v>
+      </c>
+      <c r="M222">
+        <v>1.444</v>
+      </c>
+      <c r="N222">
+        <v>5.75</v>
+      </c>
+      <c r="O222">
+        <v>3.6</v>
+      </c>
+      <c r="P222">
+        <v>1.5</v>
+      </c>
+      <c r="Q222">
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
         <v>1.8</v>
       </c>
-      <c r="W220">
+      <c r="V222">
+        <v>2</v>
+      </c>
+      <c r="W222">
         <v>0</v>
       </c>
-      <c r="X220">
+      <c r="X222">
         <v>0</v>
       </c>
-      <c r="Y220">
+      <c r="Y222">
         <v>0</v>
       </c>
-      <c r="Z220">
+      <c r="Z222">
         <v>0</v>
       </c>
-      <c r="AA220">
+      <c r="AA222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>6979596</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45385.5625</v>
+      </c>
+      <c r="F223" t="s">
+        <v>30</v>
+      </c>
+      <c r="G223" t="s">
+        <v>37</v>
+      </c>
+      <c r="K223">
+        <v>2.35</v>
+      </c>
+      <c r="L223">
+        <v>3.25</v>
+      </c>
+      <c r="M223">
+        <v>2.625</v>
+      </c>
+      <c r="N223">
+        <v>2.8</v>
+      </c>
+      <c r="O223">
+        <v>3.3</v>
+      </c>
+      <c r="P223">
+        <v>2.2</v>
+      </c>
+      <c r="Q223">
+        <v>0.25</v>
+      </c>
+      <c r="R223">
+        <v>1.75</v>
+      </c>
+      <c r="S223">
+        <v>2.05</v>
+      </c>
+      <c r="T223">
+        <v>2</v>
+      </c>
+      <c r="U223">
+        <v>1.85</v>
+      </c>
+      <c r="V223">
+        <v>1.95</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6978762</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45385.58333333334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>45</v>
+      </c>
+      <c r="G224" t="s">
+        <v>42</v>
+      </c>
+      <c r="K224">
+        <v>1.1</v>
+      </c>
+      <c r="L224">
+        <v>8</v>
+      </c>
+      <c r="M224">
+        <v>17</v>
+      </c>
+      <c r="N224">
+        <v>1.071</v>
+      </c>
+      <c r="O224">
+        <v>9.5</v>
+      </c>
+      <c r="P224">
+        <v>29</v>
+      </c>
+      <c r="Q224">
+        <v>-2.75</v>
+      </c>
+      <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
+        <v>1.95</v>
+      </c>
+      <c r="T224">
+        <v>3.5</v>
+      </c>
+      <c r="U224">
+        <v>1.95</v>
+      </c>
+      <c r="V224">
+        <v>1.85</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6979598</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45386.52083333334</v>
+      </c>
+      <c r="F225" t="s">
+        <v>34</v>
+      </c>
+      <c r="G225" t="s">
+        <v>38</v>
+      </c>
+      <c r="K225">
+        <v>1.909</v>
+      </c>
+      <c r="L225">
+        <v>3.4</v>
+      </c>
+      <c r="M225">
+        <v>3.4</v>
+      </c>
+      <c r="N225">
+        <v>1.95</v>
+      </c>
+      <c r="O225">
+        <v>3.4</v>
+      </c>
+      <c r="P225">
+        <v>3.25</v>
+      </c>
+      <c r="Q225">
+        <v>-0.5</v>
+      </c>
+      <c r="R225">
+        <v>1.975</v>
+      </c>
+      <c r="S225">
+        <v>1.825</v>
+      </c>
+      <c r="T225">
+        <v>2.25</v>
+      </c>
+      <c r="U225">
+        <v>1.95</v>
+      </c>
+      <c r="V225">
+        <v>1.85</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6979587</v>
+        <v>6979591</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,76 +19321,76 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K212">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="M212">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="N212">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="Q212">
+        <v>-1.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.5</v>
+      </c>
+      <c r="AA212">
         <v>-0.5</v>
       </c>
-      <c r="R212">
-        <v>1.9</v>
-      </c>
-      <c r="S212">
-        <v>1.9</v>
-      </c>
-      <c r="T212">
-        <v>2.75</v>
-      </c>
-      <c r="U212">
-        <v>1.975</v>
-      </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.5</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
-      <c r="AA212">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6979591</v>
+        <v>6979587</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19410,76 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L213">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="N213">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O213">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6979588</v>
+        <v>6979589</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,58 +19499,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>46</v>
       </c>
       <c r="K214">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P214">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19559,13 +19559,13 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19576,7 +19576,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6979589</v>
+        <v>6979588</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19588,58 +19588,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>46</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N215">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
         <v>1.8</v>
       </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19648,13 +19648,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20110,7 +20110,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6979597</v>
+        <v>6979598</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,49 +20119,49 @@
         <v>28</v>
       </c>
       <c r="E221" s="2">
-        <v>45385.47916666666</v>
+        <v>45386.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N221">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O221">
+        <v>3.4</v>
+      </c>
+      <c r="P221">
         <v>3.25</v>
       </c>
-      <c r="P221">
-        <v>2.6</v>
-      </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>0</v>
@@ -20176,302 +20176,6 @@
         <v>0</v>
       </c>
       <c r="AA221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
-        <v>6979595</v>
-      </c>
-      <c r="C222" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" t="s">
-        <v>28</v>
-      </c>
-      <c r="E222" s="2">
-        <v>45385.49652777778</v>
-      </c>
-      <c r="F222" t="s">
-        <v>31</v>
-      </c>
-      <c r="G222" t="s">
-        <v>44</v>
-      </c>
-      <c r="K222">
-        <v>6.5</v>
-      </c>
-      <c r="L222">
-        <v>3.75</v>
-      </c>
-      <c r="M222">
-        <v>1.444</v>
-      </c>
-      <c r="N222">
-        <v>5.75</v>
-      </c>
-      <c r="O222">
-        <v>3.6</v>
-      </c>
-      <c r="P222">
-        <v>1.5</v>
-      </c>
-      <c r="Q222">
-        <v>1</v>
-      </c>
-      <c r="R222">
-        <v>1.85</v>
-      </c>
-      <c r="S222">
-        <v>1.95</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
-      <c r="U222">
-        <v>1.8</v>
-      </c>
-      <c r="V222">
-        <v>2</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <v>0</v>
-      </c>
-      <c r="Y222">
-        <v>0</v>
-      </c>
-      <c r="Z222">
-        <v>0</v>
-      </c>
-      <c r="AA222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223">
-        <v>6979596</v>
-      </c>
-      <c r="C223" t="s">
-        <v>28</v>
-      </c>
-      <c r="D223" t="s">
-        <v>28</v>
-      </c>
-      <c r="E223" s="2">
-        <v>45385.5625</v>
-      </c>
-      <c r="F223" t="s">
-        <v>30</v>
-      </c>
-      <c r="G223" t="s">
-        <v>37</v>
-      </c>
-      <c r="K223">
-        <v>2.35</v>
-      </c>
-      <c r="L223">
-        <v>3.25</v>
-      </c>
-      <c r="M223">
-        <v>2.625</v>
-      </c>
-      <c r="N223">
-        <v>2.8</v>
-      </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>2.2</v>
-      </c>
-      <c r="Q223">
-        <v>0.25</v>
-      </c>
-      <c r="R223">
-        <v>1.75</v>
-      </c>
-      <c r="S223">
-        <v>2.05</v>
-      </c>
-      <c r="T223">
-        <v>2</v>
-      </c>
-      <c r="U223">
-        <v>1.85</v>
-      </c>
-      <c r="V223">
-        <v>1.95</v>
-      </c>
-      <c r="W223">
-        <v>0</v>
-      </c>
-      <c r="X223">
-        <v>0</v>
-      </c>
-      <c r="Y223">
-        <v>0</v>
-      </c>
-      <c r="Z223">
-        <v>0</v>
-      </c>
-      <c r="AA223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224">
-        <v>6978762</v>
-      </c>
-      <c r="C224" t="s">
-        <v>28</v>
-      </c>
-      <c r="D224" t="s">
-        <v>28</v>
-      </c>
-      <c r="E224" s="2">
-        <v>45385.58333333334</v>
-      </c>
-      <c r="F224" t="s">
-        <v>45</v>
-      </c>
-      <c r="G224" t="s">
-        <v>42</v>
-      </c>
-      <c r="K224">
-        <v>1.1</v>
-      </c>
-      <c r="L224">
-        <v>8</v>
-      </c>
-      <c r="M224">
-        <v>17</v>
-      </c>
-      <c r="N224">
-        <v>1.071</v>
-      </c>
-      <c r="O224">
-        <v>9.5</v>
-      </c>
-      <c r="P224">
-        <v>29</v>
-      </c>
-      <c r="Q224">
-        <v>-2.75</v>
-      </c>
-      <c r="R224">
-        <v>1.85</v>
-      </c>
-      <c r="S224">
-        <v>1.95</v>
-      </c>
-      <c r="T224">
-        <v>3.5</v>
-      </c>
-      <c r="U224">
-        <v>1.95</v>
-      </c>
-      <c r="V224">
-        <v>1.85</v>
-      </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <v>0</v>
-      </c>
-      <c r="Y224">
-        <v>0</v>
-      </c>
-      <c r="Z224">
-        <v>0</v>
-      </c>
-      <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>6979598</v>
-      </c>
-      <c r="C225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="2">
-        <v>45386.52083333334</v>
-      </c>
-      <c r="F225" t="s">
-        <v>34</v>
-      </c>
-      <c r="G225" t="s">
-        <v>38</v>
-      </c>
-      <c r="K225">
-        <v>1.909</v>
-      </c>
-      <c r="L225">
-        <v>3.4</v>
-      </c>
-      <c r="M225">
-        <v>3.4</v>
-      </c>
-      <c r="N225">
-        <v>1.95</v>
-      </c>
-      <c r="O225">
-        <v>3.4</v>
-      </c>
-      <c r="P225">
-        <v>3.25</v>
-      </c>
-      <c r="Q225">
-        <v>-0.5</v>
-      </c>
-      <c r="R225">
-        <v>1.975</v>
-      </c>
-      <c r="S225">
-        <v>1.825</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>1.95</v>
-      </c>
-      <c r="V225">
-        <v>1.85</v>
-      </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <v>0</v>
-      </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-      <c r="AA225">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6979591</v>
+        <v>6979587</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,76 +19321,76 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K212">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L212">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="N212">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O212">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="Q212">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6979587</v>
+        <v>6979591</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19410,76 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K213">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="M213">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="N213">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="Q213">
+        <v>-1.75</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
+        <v>3</v>
+      </c>
+      <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.5</v>
+      </c>
+      <c r="AA213">
         <v>-0.5</v>
       </c>
-      <c r="R213">
-        <v>1.9</v>
-      </c>
-      <c r="S213">
-        <v>1.9</v>
-      </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.975</v>
-      </c>
-      <c r="V213">
-        <v>1.825</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.5</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6979589</v>
+        <v>6979588</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,58 +19499,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>3</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>46</v>
       </c>
       <c r="K214">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N214">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O214">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
         <v>1.8</v>
       </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19559,13 +19559,13 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19576,7 +19576,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6979588</v>
+        <v>6979589</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19588,58 +19588,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>46</v>
       </c>
       <c r="K215">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O215">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P215">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19648,13 +19648,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20103,80 +20103,6 @@
       </c>
       <c r="AC220">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>6979598</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45386.52083333334</v>
-      </c>
-      <c r="F221" t="s">
-        <v>34</v>
-      </c>
-      <c r="G221" t="s">
-        <v>38</v>
-      </c>
-      <c r="K221">
-        <v>1.909</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>3.4</v>
-      </c>
-      <c r="N221">
-        <v>2</v>
-      </c>
-      <c r="O221">
-        <v>3.4</v>
-      </c>
-      <c r="P221">
-        <v>3.25</v>
-      </c>
-      <c r="Q221">
-        <v>-0.25</v>
-      </c>
-      <c r="R221">
-        <v>1.775</v>
-      </c>
-      <c r="S221">
-        <v>2.025</v>
-      </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>1.95</v>
-      </c>
-      <c r="V221">
-        <v>1.85</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -109,19 +109,19 @@
     <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>2.5</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
       <c r="P4">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>-3</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>1.8</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2233,7 +2233,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2945,7 +2945,7 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3304,7 +3304,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,10 +3568,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3838,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
@@ -4992,7 +4992,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L62">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W62">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
         <v>32</v>
       </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L90">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N90">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
         <v>1.975</v>
       </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M91">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O91">
+        <v>7.5</v>
+      </c>
+      <c r="P91">
+        <v>1.125</v>
+      </c>
+      <c r="Q91">
+        <v>2.25</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
         <v>3.5</v>
       </c>
-      <c r="P91">
-        <v>5</v>
-      </c>
-      <c r="Q91">
-        <v>-0.75</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.825</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -8997,10 +8997,10 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9267,7 +9267,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10510,7 +10510,7 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s">
         <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -13005,7 +13005,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13094,7 +13094,7 @@
         <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -14070,10 +14070,10 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14515,10 +14515,10 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14782,7 +14782,7 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -15405,7 +15405,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>43</v>
@@ -15494,10 +15494,10 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16209,7 +16209,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16387,7 +16387,7 @@
         <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16562,7 +16562,7 @@
         <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16918,7 +16918,7 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,10 +17096,10 @@
         <v>45358.5</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17351,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6979566</v>
+        <v>7921659</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17363,76 +17363,76 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
         <v>1</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>46</v>
       </c>
       <c r="K190">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
+        <v>4.75</v>
+      </c>
+      <c r="N190">
+        <v>1.45</v>
+      </c>
+      <c r="O190">
+        <v>3.8</v>
+      </c>
+      <c r="P190">
+        <v>6</v>
+      </c>
+      <c r="Q190">
+        <v>-1</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
         <v>1.95</v>
       </c>
-      <c r="N190">
-        <v>2.7</v>
-      </c>
-      <c r="O190">
-        <v>3</v>
-      </c>
-      <c r="P190">
-        <v>2.45</v>
-      </c>
-      <c r="Q190">
+      <c r="W190">
+        <v>0.45</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
         <v>0</v>
       </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.8</v>
-      </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.75</v>
-      </c>
-      <c r="V190">
-        <v>2.05</v>
-      </c>
-      <c r="W190">
-        <v>1.7</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
-      <c r="Z190">
-        <v>1</v>
-      </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7921659</v>
+        <v>6979566</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,58 +17452,58 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>46</v>
       </c>
       <c r="K191">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N191">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O191">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P191">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
         <v>1.8</v>
       </c>
-      <c r="S191">
-        <v>2</v>
-      </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W191">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17512,16 +17512,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17719,7 +17719,7 @@
         <v>45363.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -17900,7 +17900,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18256,7 +18256,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18520,7 +18520,7 @@
         <v>45367.5</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
         <v>29</v>
@@ -18612,7 +18612,7 @@
         <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -19054,7 +19054,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19410,10 +19410,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F213" t="s">
+        <v>31</v>
+      </c>
+      <c r="G213" t="s">
         <v>32</v>
-      </c>
-      <c r="G213" t="s">
-        <v>31</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19502,7 +19502,7 @@
         <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>3</v>
@@ -19858,7 +19858,7 @@
         <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -20103,6 +20103,673 @@
       </c>
       <c r="AC220">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6979597</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45385.47916666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>36</v>
+      </c>
+      <c r="G221" t="s">
+        <v>40</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>46</v>
+      </c>
+      <c r="K221">
+        <v>2.3</v>
+      </c>
+      <c r="L221">
+        <v>3.3</v>
+      </c>
+      <c r="M221">
+        <v>2.7</v>
+      </c>
+      <c r="N221">
+        <v>2.6</v>
+      </c>
+      <c r="O221">
+        <v>3.2</v>
+      </c>
+      <c r="P221">
+        <v>2.45</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>1.95</v>
+      </c>
+      <c r="S221">
+        <v>1.85</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>1.95</v>
+      </c>
+      <c r="V221">
+        <v>1.85</v>
+      </c>
+      <c r="W221">
+        <v>1.6</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>-1</v>
+      </c>
+      <c r="Z221">
+        <v>0.95</v>
+      </c>
+      <c r="AA221">
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>-0.5</v>
+      </c>
+      <c r="AC221">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6979595</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45385.49652777778</v>
+      </c>
+      <c r="F222" t="s">
+        <v>32</v>
+      </c>
+      <c r="G222" t="s">
+        <v>44</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" t="s">
+        <v>48</v>
+      </c>
+      <c r="K222">
+        <v>6.5</v>
+      </c>
+      <c r="L222">
+        <v>3.75</v>
+      </c>
+      <c r="M222">
+        <v>1.444</v>
+      </c>
+      <c r="N222">
+        <v>5.25</v>
+      </c>
+      <c r="O222">
+        <v>3.6</v>
+      </c>
+      <c r="P222">
+        <v>1.55</v>
+      </c>
+      <c r="Q222">
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <v>1.8</v>
+      </c>
+      <c r="S222">
+        <v>2</v>
+      </c>
+      <c r="T222">
+        <v>2.75</v>
+      </c>
+      <c r="U222">
+        <v>1.875</v>
+      </c>
+      <c r="V222">
+        <v>1.925</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>0.55</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>-0</v>
+      </c>
+      <c r="AB222">
+        <v>0.875</v>
+      </c>
+      <c r="AC222">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>6979596</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45385.5625</v>
+      </c>
+      <c r="F223" t="s">
+        <v>30</v>
+      </c>
+      <c r="G223" t="s">
+        <v>37</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>48</v>
+      </c>
+      <c r="K223">
+        <v>2.35</v>
+      </c>
+      <c r="L223">
+        <v>3.25</v>
+      </c>
+      <c r="M223">
+        <v>2.625</v>
+      </c>
+      <c r="N223">
+        <v>2.375</v>
+      </c>
+      <c r="O223">
+        <v>3.25</v>
+      </c>
+      <c r="P223">
+        <v>2.625</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>1.8</v>
+      </c>
+      <c r="S223">
+        <v>2</v>
+      </c>
+      <c r="T223">
+        <v>2</v>
+      </c>
+      <c r="U223">
+        <v>1.85</v>
+      </c>
+      <c r="V223">
+        <v>1.95</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>1.625</v>
+      </c>
+      <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC223">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6978762</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45385.58333333334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>45</v>
+      </c>
+      <c r="G224" t="s">
+        <v>42</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>46</v>
+      </c>
+      <c r="K224">
+        <v>1.1</v>
+      </c>
+      <c r="L224">
+        <v>8</v>
+      </c>
+      <c r="M224">
+        <v>17</v>
+      </c>
+      <c r="N224">
+        <v>1.071</v>
+      </c>
+      <c r="O224">
+        <v>10</v>
+      </c>
+      <c r="P224">
+        <v>29</v>
+      </c>
+      <c r="Q224">
+        <v>-2.75</v>
+      </c>
+      <c r="R224">
+        <v>1.95</v>
+      </c>
+      <c r="S224">
+        <v>1.85</v>
+      </c>
+      <c r="T224">
+        <v>3.5</v>
+      </c>
+      <c r="U224">
+        <v>1.9</v>
+      </c>
+      <c r="V224">
+        <v>1.9</v>
+      </c>
+      <c r="W224">
+        <v>0.07099999999999995</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6979598</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45386.52083333334</v>
+      </c>
+      <c r="F225" t="s">
+        <v>35</v>
+      </c>
+      <c r="G225" t="s">
+        <v>38</v>
+      </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>46</v>
+      </c>
+      <c r="K225">
+        <v>1.909</v>
+      </c>
+      <c r="L225">
+        <v>3.4</v>
+      </c>
+      <c r="M225">
+        <v>3.4</v>
+      </c>
+      <c r="N225">
+        <v>2.375</v>
+      </c>
+      <c r="O225">
+        <v>3.1</v>
+      </c>
+      <c r="P225">
+        <v>2.75</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>1.775</v>
+      </c>
+      <c r="S225">
+        <v>2.025</v>
+      </c>
+      <c r="T225">
+        <v>2</v>
+      </c>
+      <c r="U225">
+        <v>1.825</v>
+      </c>
+      <c r="V225">
+        <v>1.975</v>
+      </c>
+      <c r="W225">
+        <v>1.375</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>-1</v>
+      </c>
+      <c r="Z225">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA225">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>0.825</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>6979600</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F226" t="s">
+        <v>39</v>
+      </c>
+      <c r="G226" t="s">
+        <v>41</v>
+      </c>
+      <c r="K226">
+        <v>3.4</v>
+      </c>
+      <c r="L226">
+        <v>3.3</v>
+      </c>
+      <c r="M226">
+        <v>2.05</v>
+      </c>
+      <c r="N226">
+        <v>3</v>
+      </c>
+      <c r="O226">
+        <v>3.4</v>
+      </c>
+      <c r="P226">
+        <v>2.15</v>
+      </c>
+      <c r="Q226">
+        <v>0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.875</v>
+      </c>
+      <c r="S226">
+        <v>1.925</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>1.825</v>
+      </c>
+      <c r="V226">
+        <v>1.975</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6979606</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F227" t="s">
+        <v>31</v>
+      </c>
+      <c r="G227" t="s">
+        <v>29</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>3.3</v>
+      </c>
+      <c r="M227">
+        <v>3.5</v>
+      </c>
+      <c r="N227">
+        <v>1.909</v>
+      </c>
+      <c r="O227">
+        <v>3.5</v>
+      </c>
+      <c r="P227">
+        <v>3.75</v>
+      </c>
+      <c r="Q227">
+        <v>-0.5</v>
+      </c>
+      <c r="R227">
+        <v>1.925</v>
+      </c>
+      <c r="S227">
+        <v>1.875</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
+        <v>1.8</v>
+      </c>
+      <c r="V227">
+        <v>2</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6979603</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45389.39583333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>40</v>
+      </c>
+      <c r="G228" t="s">
+        <v>30</v>
+      </c>
+      <c r="K228">
+        <v>1.95</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>3.7</v>
+      </c>
+      <c r="N228">
+        <v>1.8</v>
+      </c>
+      <c r="O228">
+        <v>3.4</v>
+      </c>
+      <c r="P228">
+        <v>4.333</v>
+      </c>
+      <c r="Q228">
+        <v>-0.5</v>
+      </c>
+      <c r="R228">
+        <v>1.8</v>
+      </c>
+      <c r="S228">
+        <v>2</v>
+      </c>
+      <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>2.025</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
+    <t>Spartak Subotica</t>
+  </si>
+  <si>
     <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
     <t>FK Backa Topola</t>
-  </si>
-  <si>
-    <t>FK Vozdovac</t>
   </si>
   <si>
     <t>FK Novi Pazar</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
+        <v>3.2</v>
+      </c>
+      <c r="M2">
         <v>3.6</v>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
       <c r="N2">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1.533</v>
+      </c>
+      <c r="O3">
         <v>3.6</v>
       </c>
-      <c r="N3">
-        <v>1.909</v>
-      </c>
-      <c r="O3">
-        <v>3.1</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
+        <v>3.1</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>2.4</v>
-      </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.7</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>2.5</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
       <c r="P5">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2144,7 +2144,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2233,7 +2233,7 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.925</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
       </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>4.5</v>
+      </c>
+      <c r="N32">
+        <v>1.909</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>1.533</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.85</v>
-      </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.975</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.825</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.825</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.925</v>
-      </c>
-      <c r="AB32">
-        <v>0.825</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,7 +3568,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3924,7 +3924,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
         <v>3</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N50">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,37 +4995,37 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5704,10 +5704,10 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -7306,10 +7306,10 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7395,10 +7395,10 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>3.25</v>
+      </c>
+      <c r="M84">
+        <v>3.25</v>
+      </c>
+      <c r="N84">
+        <v>2.55</v>
+      </c>
+      <c r="O84">
+        <v>3.2</v>
+      </c>
+      <c r="P84">
+        <v>2.55</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84">
+      <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
         <v>2.25</v>
       </c>
-      <c r="L84">
-        <v>3</v>
-      </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>1.363</v>
-      </c>
-      <c r="O84">
-        <v>3.8</v>
-      </c>
-      <c r="P84">
-        <v>9</v>
-      </c>
-      <c r="Q84">
-        <v>-1.25</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,73 +8018,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
+        <v>1.975</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
         <v>1.9</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.9</v>
       </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB85">
-        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8466,7 +8466,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9000,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9264,10 +9264,10 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10513,7 +10513,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -13091,7 +13091,7 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14070,7 +14070,7 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
         <v>35</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15405,7 +15405,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>43</v>
@@ -15494,7 +15494,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>35</v>
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16209,7 +16209,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16384,7 +16384,7 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
         <v>35</v>
@@ -16562,7 +16562,7 @@
         <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16918,10 +16918,10 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17099,7 +17099,7 @@
         <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17185,7 +17185,7 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
         <v>33</v>
@@ -17366,7 +17366,7 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17455,7 +17455,7 @@
         <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17719,7 +17719,7 @@
         <v>45363.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
         <v>29</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17900,7 +17900,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18520,10 +18520,10 @@
         <v>45367.5</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18609,10 +18609,10 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -19143,7 +19143,7 @@
         <v>45380.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
         <v>33</v>
@@ -19410,10 +19410,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F213" t="s">
+        <v>32</v>
+      </c>
+      <c r="G213" t="s">
         <v>31</v>
-      </c>
-      <c r="G213" t="s">
-        <v>32</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19769,7 +19769,7 @@
         <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19858,7 +19858,7 @@
         <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -19947,7 +19947,7 @@
         <v>41</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20211,7 +20211,7 @@
         <v>45385.49652777778</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20300,7 +20300,7 @@
         <v>45385.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G223" t="s">
         <v>37</v>
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6979600</v>
+        <v>6979606</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,49 +20564,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45388.54166666666</v>
+        <v>45388.625</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K226">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L226">
         <v>3.3</v>
       </c>
       <c r="M226">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N226">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
         <v>3.4</v>
       </c>
       <c r="P226">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6979606</v>
+        <v>6979603</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20638,49 +20638,49 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45388.625</v>
+        <v>45389.39583333334</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
         <v>29</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L227">
         <v>3.3</v>
       </c>
       <c r="M227">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N227">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P227">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q227">
         <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6979603</v>
+        <v>6978763</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20712,34 +20712,34 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45389.39583333334</v>
+        <v>45389.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K228">
-        <v>1.95</v>
+        <v>19</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M228">
-        <v>3.7</v>
+        <v>1.181</v>
       </c>
       <c r="N228">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="O228">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="P228">
-        <v>4.333</v>
+        <v>1.09</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>2.75</v>
       </c>
       <c r="R228">
         <v>1.8</v>
@@ -20748,13 +20748,13 @@
         <v>2</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>0</v>
@@ -20769,6 +20769,154 @@
         <v>0</v>
       </c>
       <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6979604</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45389.47916666666</v>
+      </c>
+      <c r="F229" t="s">
+        <v>37</v>
+      </c>
+      <c r="G229" t="s">
+        <v>31</v>
+      </c>
+      <c r="K229">
+        <v>1.85</v>
+      </c>
+      <c r="L229">
+        <v>3.25</v>
+      </c>
+      <c r="M229">
+        <v>4.2</v>
+      </c>
+      <c r="N229">
+        <v>1.75</v>
+      </c>
+      <c r="O229">
+        <v>3.4</v>
+      </c>
+      <c r="P229">
+        <v>4.5</v>
+      </c>
+      <c r="Q229">
+        <v>-0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.8</v>
+      </c>
+      <c r="S229">
+        <v>2</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
+        <v>1.85</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6979605</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45389.625</v>
+      </c>
+      <c r="F230" t="s">
+        <v>44</v>
+      </c>
+      <c r="G230" t="s">
+        <v>33</v>
+      </c>
+      <c r="K230">
+        <v>1.3</v>
+      </c>
+      <c r="L230">
+        <v>5</v>
+      </c>
+      <c r="M230">
+        <v>8.5</v>
+      </c>
+      <c r="N230">
+        <v>1.4</v>
+      </c>
+      <c r="O230">
+        <v>4.75</v>
+      </c>
+      <c r="P230">
+        <v>6.5</v>
+      </c>
+      <c r="Q230">
+        <v>-1.25</v>
+      </c>
+      <c r="R230">
+        <v>1.9</v>
+      </c>
+      <c r="S230">
+        <v>1.9</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.85</v>
+      </c>
+      <c r="V230">
+        <v>1.95</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC230"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>1.533</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
-      </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.925</v>
-      </c>
-      <c r="AB31">
-        <v>0.825</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.825</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.925</v>
+      </c>
+      <c r="AB32">
         <v>0.825</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N38">
+        <v>1.5</v>
+      </c>
+      <c r="O38">
+        <v>3.6</v>
+      </c>
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>1.85</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-      <c r="P38">
-        <v>3.75</v>
-      </c>
-      <c r="Q38">
-        <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>2.5</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
         <v>1.8</v>
       </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>1.85</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y38">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
+        <v>0.95</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8</v>
-      </c>
-      <c r="AB38">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,76 +3924,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L39">
+        <v>3.1</v>
+      </c>
+      <c r="M39">
+        <v>2.875</v>
+      </c>
+      <c r="N39">
+        <v>1.95</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
         <v>3.75</v>
       </c>
-      <c r="M39">
-        <v>7.5</v>
-      </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>6</v>
-      </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>1.8</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
         <v>1.85</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
-      <c r="V39">
-        <v>1.8</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L62">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W62">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>1.025</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
         <v>2.4</v>
       </c>
-      <c r="N140">
-        <v>3</v>
-      </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6979588</v>
+        <v>6979589</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,58 +19499,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>46</v>
       </c>
       <c r="K214">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P214">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19559,13 +19559,13 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19576,7 +19576,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6979589</v>
+        <v>6979588</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19588,58 +19588,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>46</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N215">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
         <v>1.8</v>
       </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19648,13 +19648,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6979606</v>
+        <v>6979600</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,64 +20564,79 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45388.625</v>
+        <v>45388.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>3</v>
+      </c>
+      <c r="J226" t="s">
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L226">
         <v>3.3</v>
       </c>
       <c r="M226">
+        <v>2.05</v>
+      </c>
+      <c r="N226">
+        <v>3.75</v>
+      </c>
+      <c r="O226">
         <v>3.5</v>
       </c>
-      <c r="N226">
+      <c r="P226">
         <v>1.909</v>
       </c>
-      <c r="O226">
-        <v>3.4</v>
-      </c>
-      <c r="P226">
-        <v>3.75</v>
-      </c>
       <c r="Q226">
+        <v>0.5</v>
+      </c>
+      <c r="R226">
+        <v>1.85</v>
+      </c>
+      <c r="S226">
+        <v>1.95</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>1.9</v>
+      </c>
+      <c r="V226">
+        <v>1.9</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>0.909</v>
+      </c>
+      <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
+        <v>0.95</v>
+      </c>
+      <c r="AB226">
+        <v>0.45</v>
+      </c>
+      <c r="AC226">
         <v>-0.5</v>
-      </c>
-      <c r="R226">
-        <v>1.975</v>
-      </c>
-      <c r="S226">
-        <v>1.825</v>
-      </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
-      <c r="U226">
-        <v>1.95</v>
-      </c>
-      <c r="V226">
-        <v>1.85</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
-        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20629,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6979603</v>
+        <v>6979606</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20638,64 +20653,79 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45389.39583333334</v>
+        <v>45388.625</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L227">
         <v>3.3</v>
       </c>
       <c r="M227">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N227">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O227">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20703,7 +20733,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6978763</v>
+        <v>6979603</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20712,64 +20742,79 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45389.45833333334</v>
+        <v>45389.39583333334</v>
       </c>
       <c r="F228" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>46</v>
       </c>
       <c r="K228">
-        <v>19</v>
+        <v>1.95</v>
       </c>
       <c r="L228">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M228">
-        <v>1.181</v>
+        <v>3.7</v>
       </c>
       <c r="N228">
-        <v>34</v>
+        <v>1.666</v>
       </c>
       <c r="O228">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>1.09</v>
+        <v>4.75</v>
       </c>
       <c r="Q228">
-        <v>2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>0.95</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20777,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6979604</v>
+        <v>6978763</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20786,34 +20831,43 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45389.47916666666</v>
+        <v>45389.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229" t="s">
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>1.85</v>
+        <v>19</v>
       </c>
       <c r="L229">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="M229">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="N229">
-        <v>1.75</v>
+        <v>29</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P229">
-        <v>4.5</v>
+        <v>1.062</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>2.75</v>
       </c>
       <c r="R229">
         <v>1.8</v>
@@ -20822,28 +20876,34 @@
         <v>2</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20851,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6979605</v>
+        <v>6979604</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20860,34 +20920,43 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45389.625</v>
+        <v>45389.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>46</v>
       </c>
       <c r="K230">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M230">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="N230">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
         <v>1.9</v>
@@ -20896,27 +20965,270 @@
         <v>1.9</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
+        <v>1.775</v>
+      </c>
+      <c r="V230">
+        <v>2.025</v>
+      </c>
+      <c r="W230">
+        <v>0.833</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6979605</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45389.625</v>
+      </c>
+      <c r="F231" t="s">
+        <v>44</v>
+      </c>
+      <c r="G231" t="s">
+        <v>33</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>46</v>
+      </c>
+      <c r="K231">
+        <v>1.3</v>
+      </c>
+      <c r="L231">
+        <v>5</v>
+      </c>
+      <c r="M231">
+        <v>8.5</v>
+      </c>
+      <c r="N231">
+        <v>1.4</v>
+      </c>
+      <c r="O231">
+        <v>4.75</v>
+      </c>
+      <c r="P231">
+        <v>5.75</v>
+      </c>
+      <c r="Q231">
+        <v>-1.25</v>
+      </c>
+      <c r="R231">
+        <v>1.9</v>
+      </c>
+      <c r="S231">
+        <v>1.9</v>
+      </c>
+      <c r="T231">
+        <v>3</v>
+      </c>
+      <c r="U231">
+        <v>1.875</v>
+      </c>
+      <c r="V231">
+        <v>1.925</v>
+      </c>
+      <c r="W231">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA231">
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6979601</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45390.45833333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>42</v>
+      </c>
+      <c r="G232" t="s">
+        <v>35</v>
+      </c>
+      <c r="K232">
+        <v>2.3</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
+        <v>2.9</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232">
+        <v>3.25</v>
+      </c>
+      <c r="P232">
+        <v>3.5</v>
+      </c>
+      <c r="Q232">
+        <v>-0.5</v>
+      </c>
+      <c r="R232">
+        <v>1.975</v>
+      </c>
+      <c r="S232">
+        <v>1.825</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
         <v>1.85</v>
       </c>
-      <c r="V230">
+      <c r="V232">
         <v>1.95</v>
       </c>
-      <c r="W230">
+      <c r="W232">
         <v>0</v>
       </c>
-      <c r="X230">
+      <c r="X232">
         <v>0</v>
       </c>
-      <c r="Y230">
+      <c r="Y232">
         <v>0</v>
       </c>
-      <c r="Z230">
+      <c r="Z232">
         <v>0</v>
       </c>
-      <c r="AA230">
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6979602</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45390.5625</v>
+      </c>
+      <c r="F233" t="s">
+        <v>38</v>
+      </c>
+      <c r="G233" t="s">
+        <v>36</v>
+      </c>
+      <c r="K233">
+        <v>2.2</v>
+      </c>
+      <c r="L233">
+        <v>3.1</v>
+      </c>
+      <c r="M233">
+        <v>3.2</v>
+      </c>
+      <c r="N233">
+        <v>2.15</v>
+      </c>
+      <c r="O233">
+        <v>3.1</v>
+      </c>
+      <c r="P233">
+        <v>3.3</v>
+      </c>
+      <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.825</v>
+      </c>
+      <c r="S233">
+        <v>1.975</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
+        <v>2</v>
+      </c>
+      <c r="V233">
+        <v>1.8</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
         <v>0</v>
       </c>
     </row>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Cukaricki</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>Spartak Subotica</t>
   </si>
   <si>
     <t>FK Vozdovac</t>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1.533</v>
+      </c>
+      <c r="O2">
         <v>3.6</v>
       </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
-      <c r="O2">
-        <v>3.1</v>
-      </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
       <c r="N3">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.925</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
       </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>4.5</v>
+      </c>
+      <c r="N32">
+        <v>1.909</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>1.533</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.85</v>
-      </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.975</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.825</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.825</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.925</v>
-      </c>
-      <c r="AB32">
-        <v>0.825</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,73 +3838,73 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
+        <v>3.1</v>
+      </c>
+      <c r="M38">
+        <v>2.875</v>
+      </c>
+      <c r="N38">
+        <v>1.95</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>3.75</v>
       </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>6</v>
-      </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>1.8</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
         <v>1.85</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>1.8</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,73 +3927,73 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
         <v>1.95</v>
       </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>3.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
         <v>1.8</v>
       </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>1.85</v>
-      </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
+        <v>0.95</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8</v>
-      </c>
-      <c r="AB39">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,58 +4280,58 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,58 +4369,58 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
         <v>3</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N50">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5704,7 +5704,7 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -7398,7 +7398,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
         <v>1.9</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.9</v>
       </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB84">
-        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,73 +8018,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3.25</v>
+      </c>
+      <c r="M85">
+        <v>3.25</v>
+      </c>
+      <c r="N85">
+        <v>2.55</v>
+      </c>
+      <c r="O85">
+        <v>3.2</v>
+      </c>
+      <c r="P85">
+        <v>2.55</v>
+      </c>
+      <c r="Q85">
         <v>0</v>
       </c>
-      <c r="J85" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85">
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
         <v>2.25</v>
       </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="N85">
-        <v>1.363</v>
-      </c>
-      <c r="O85">
-        <v>3.8</v>
-      </c>
-      <c r="P85">
-        <v>9</v>
-      </c>
-      <c r="Q85">
-        <v>-1.25</v>
-      </c>
-      <c r="R85">
-        <v>1.825</v>
-      </c>
-      <c r="S85">
-        <v>1.975</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M90">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O90">
+        <v>7.5</v>
+      </c>
+      <c r="P90">
+        <v>1.125</v>
+      </c>
+      <c r="Q90">
+        <v>2.25</v>
+      </c>
+      <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
         <v>3.5</v>
       </c>
-      <c r="P90">
-        <v>5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
+      <c r="U90">
         <v>1.825</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N91">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O91">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q91">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y91">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -9264,7 +9264,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6979522</v>
+        <v>6979516</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,49 +11489,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.775</v>
@@ -11540,7 +11540,7 @@
         <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6979516</v>
+        <v>6979522</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,49 +11578,49 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
         <v>1.775</v>
@@ -11629,7 +11629,7 @@
         <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>1.025</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16384,7 +16384,7 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
         <v>35</v>
@@ -16921,7 +16921,7 @@
         <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6979565</v>
+        <v>7921658</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17200,61 +17200,61 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L188">
         <v>3.1</v>
       </c>
       <c r="M188">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O188">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P188">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.75</v>
       </c>
-      <c r="V188">
-        <v>2.05</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>1.8</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7921658</v>
+        <v>6979565</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,40 +17289,40 @@
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
         <v>2.4</v>
       </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P189">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17331,19 +17331,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17351,7 +17351,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7921659</v>
+        <v>6979566</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17363,58 +17363,58 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>46</v>
       </c>
       <c r="K190">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
         <v>1.8</v>
       </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W190">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17423,16 +17423,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6979566</v>
+        <v>7921659</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,76 +17452,76 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>46</v>
       </c>
       <c r="K191">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
+        <v>4.75</v>
+      </c>
+      <c r="N191">
+        <v>1.45</v>
+      </c>
+      <c r="O191">
+        <v>3.8</v>
+      </c>
+      <c r="P191">
+        <v>6</v>
+      </c>
+      <c r="Q191">
+        <v>-1</v>
+      </c>
+      <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>1.85</v>
+      </c>
+      <c r="V191">
         <v>1.95</v>
       </c>
-      <c r="N191">
-        <v>2.7</v>
-      </c>
-      <c r="O191">
-        <v>3</v>
-      </c>
-      <c r="P191">
-        <v>2.45</v>
-      </c>
-      <c r="Q191">
+      <c r="W191">
+        <v>0.45</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
         <v>0</v>
       </c>
-      <c r="R191">
-        <v>2</v>
-      </c>
-      <c r="S191">
-        <v>1.8</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.75</v>
-      </c>
-      <c r="V191">
-        <v>2.05</v>
-      </c>
-      <c r="W191">
-        <v>1.7</v>
-      </c>
-      <c r="X191">
-        <v>-1</v>
-      </c>
-      <c r="Y191">
-        <v>-1</v>
-      </c>
-      <c r="Z191">
-        <v>1</v>
-      </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18523,7 +18523,7 @@
         <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18609,7 +18609,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19143,7 +19143,7 @@
         <v>45380.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
         <v>33</v>
@@ -19769,7 +19769,7 @@
         <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19947,7 +19947,7 @@
         <v>41</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20300,7 +20300,7 @@
         <v>45385.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
         <v>37</v>
@@ -20659,7 +20659,7 @@
         <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20748,7 +20748,7 @@
         <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -21106,6 +21106,15 @@
       <c r="G232" t="s">
         <v>35</v>
       </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>47</v>
+      </c>
       <c r="K232">
         <v>2.3</v>
       </c>
@@ -21116,22 +21125,22 @@
         <v>2.9</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P232">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q232">
         <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
         <v>2.25</v>
@@ -21143,19 +21152,25 @@
         <v>1.95</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB232">
+        <v>-0.5</v>
+      </c>
+      <c r="AC232">
+        <v>0.475</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21180,6 +21195,15 @@
       <c r="G233" t="s">
         <v>36</v>
       </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>46</v>
+      </c>
       <c r="K233">
         <v>2.2</v>
       </c>
@@ -21193,43 +21217,49 @@
         <v>2.15</v>
       </c>
       <c r="O233">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P233">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q233">
         <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -109,10 +109,10 @@
     <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>FK Vozdovac</t>
+    <t>FK Backa Topola</t>
   </si>
   <si>
-    <t>FK Backa Topola</t>
+    <t>FK Vozdovac</t>
   </si>
   <si>
     <t>FK Novi Pazar</t>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6979407</v>
+        <v>6979410</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>2.5</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
       <c r="P4">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.25</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6979410</v>
+        <v>6979407</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,43 +901,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
@@ -952,22 +952,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,58 +2147,58 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,58 +2236,58 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3568,7 +3568,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N38">
+        <v>1.5</v>
+      </c>
+      <c r="O38">
+        <v>3.6</v>
+      </c>
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>1.85</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-      <c r="P38">
-        <v>3.75</v>
-      </c>
-      <c r="Q38">
-        <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>2.5</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
         <v>1.8</v>
       </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>1.85</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y38">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
+        <v>0.95</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8</v>
-      </c>
-      <c r="AB38">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,76 +3924,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L39">
+        <v>3.1</v>
+      </c>
+      <c r="M39">
+        <v>2.875</v>
+      </c>
+      <c r="N39">
+        <v>1.95</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
         <v>3.75</v>
       </c>
-      <c r="M39">
-        <v>7.5</v>
-      </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>6</v>
-      </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>1.8</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
         <v>1.85</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
-      <c r="V39">
-        <v>1.8</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,37 +4995,37 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5707,7 +5707,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -7309,7 +7309,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -7840,10 +7840,10 @@
         <v>45220.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,7 +8908,7 @@
         <v>45228.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9000,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>45235.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10421,7 +10421,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11667,7 +11667,7 @@
         <v>45262.625</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11934,7 +11934,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12026,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -13269,7 +13269,7 @@
         <v>45278.5</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13803,7 +13803,7 @@
         <v>45281.625</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>45282.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>35</v>
@@ -14518,7 +14518,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N168">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>35</v>
@@ -15853,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16209,7 +16209,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16562,7 +16562,7 @@
         <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16918,7 +16918,7 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17099,7 +17099,7 @@
         <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7921658</v>
+        <v>6979565</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17200,40 +17200,40 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
         <v>3.1</v>
       </c>
       <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
         <v>2.4</v>
       </c>
-      <c r="N188">
-        <v>2.55</v>
-      </c>
       <c r="O188">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17242,19 +17242,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6979565</v>
+        <v>7921658</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,61 +17289,61 @@
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O189">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P189">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.75</v>
       </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>1.8</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>45363.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -17900,7 +17900,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18520,7 +18520,7 @@
         <v>45367.5</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
         <v>29</v>
@@ -18612,7 +18612,7 @@
         <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -19410,10 +19410,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F213" t="s">
+        <v>31</v>
+      </c>
+      <c r="G213" t="s">
         <v>32</v>
-      </c>
-      <c r="G213" t="s">
-        <v>31</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6979589</v>
+        <v>6979588</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,58 +19499,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>3</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>46</v>
       </c>
       <c r="K214">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N214">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O214">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
         <v>1.8</v>
       </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19559,13 +19559,13 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19576,7 +19576,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6979588</v>
+        <v>6979589</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19588,58 +19588,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>46</v>
       </c>
       <c r="K215">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O215">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P215">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19648,13 +19648,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19858,7 +19858,7 @@
         <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -20211,7 +20211,7 @@
         <v>45385.49652777778</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20656,7 +20656,7 @@
         <v>45388.625</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
         <v>29</v>
@@ -20926,7 +20926,7 @@
         <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H230">
         <v>2</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -103,10 +103,10 @@
     <t>Serbia Super Liga</t>
   </si>
   <si>
-    <t>FK Cukaricki</t>
+    <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>FK Cukaricki</t>
   </si>
   <si>
     <t>FK Backa Topola</t>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6983357</v>
+        <v>6979406</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,55 +634,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
+        <v>3.2</v>
+      </c>
+      <c r="M2">
         <v>3.6</v>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
       <c r="N2">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -691,16 +691,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6979406</v>
+        <v>6983357</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,55 +723,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1.533</v>
+      </c>
+      <c r="O3">
         <v>3.6</v>
       </c>
-      <c r="N3">
-        <v>1.909</v>
-      </c>
-      <c r="O3">
-        <v>3.1</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2322,7 +2322,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2770,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3835,7 +3835,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -3924,7 +3924,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45185.54513888889</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -5081,7 +5081,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5704,7 +5704,7 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6149,10 +6149,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -7398,7 +7398,7 @@
         <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45219.625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -8555,7 +8555,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -9264,7 +9264,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -9531,7 +9531,7 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -10246,7 +10246,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11756,7 +11756,7 @@
         <v>45263.375</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12382,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>45276.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13358,7 +13358,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14162,7 +14162,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45339.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16120,7 +16120,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16384,7 +16384,7 @@
         <v>45352.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
         <v>35</v>
@@ -16921,7 +16921,7 @@
         <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17185,7 +17185,7 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
         <v>33</v>
@@ -17366,7 +17366,7 @@
         <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18523,7 +18523,7 @@
         <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18609,7 +18609,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
         <v>31</v>
@@ -19143,7 +19143,7 @@
         <v>45380.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
         <v>33</v>
@@ -19769,7 +19769,7 @@
         <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19947,7 +19947,7 @@
         <v>41</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20300,7 +20300,7 @@
         <v>45385.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G223" t="s">
         <v>37</v>
@@ -20659,7 +20659,7 @@
         <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20748,7 +20748,7 @@
         <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H228">
         <v>3</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,61 +2144,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N19">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,61 +2233,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6979435</v>
+        <v>6979433</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
+        <v>3.1</v>
+      </c>
+      <c r="M38">
+        <v>2.875</v>
+      </c>
+      <c r="N38">
+        <v>1.95</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>3.75</v>
       </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>6</v>
-      </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>1.8</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
         <v>1.85</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>1.8</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6979433</v>
+        <v>6979435</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,76 +3924,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
         <v>1.95</v>
       </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>3.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
         <v>1.8</v>
       </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>1.85</v>
-      </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
+        <v>0.95</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8</v>
-      </c>
-      <c r="AB39">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
         <v>3</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N50">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>3.25</v>
+      </c>
+      <c r="M84">
+        <v>3.25</v>
+      </c>
+      <c r="N84">
+        <v>2.55</v>
+      </c>
+      <c r="O84">
+        <v>3.2</v>
+      </c>
+      <c r="P84">
+        <v>2.55</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84">
+      <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
         <v>2.25</v>
       </c>
-      <c r="L84">
-        <v>3</v>
-      </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>1.363</v>
-      </c>
-      <c r="O84">
-        <v>3.8</v>
-      </c>
-      <c r="P84">
-        <v>9</v>
-      </c>
-      <c r="Q84">
-        <v>-1.25</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,73 +8018,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
+        <v>1.975</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
         <v>1.9</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.9</v>
       </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB85">
-        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L90">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N90">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
         <v>1.975</v>
       </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M91">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O91">
+        <v>7.5</v>
+      </c>
+      <c r="P91">
+        <v>1.125</v>
+      </c>
+      <c r="Q91">
+        <v>2.25</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
         <v>3.5</v>
       </c>
-      <c r="P91">
-        <v>5</v>
-      </c>
-      <c r="Q91">
-        <v>-0.75</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.825</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6979536</v>
+        <v>6979530</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,55 +12913,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N140">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12970,19 +12970,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6979530</v>
+        <v>6979536</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,55 +13002,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
+        <v>3.1</v>
+      </c>
+      <c r="N141">
         <v>2.4</v>
       </c>
-      <c r="N141">
-        <v>3</v>
-      </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13059,19 +13059,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6979565</v>
+        <v>7921658</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17200,61 +17200,61 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L188">
         <v>3.1</v>
       </c>
       <c r="M188">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O188">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P188">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.75</v>
       </c>
-      <c r="V188">
-        <v>2.05</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>1.8</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7921658</v>
+        <v>6979565</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,40 +17289,40 @@
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
         <v>2.4</v>
       </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P189">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17331,19 +17331,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6979587</v>
+        <v>6979591</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,76 +19321,76 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K212">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="M212">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="N212">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="Q212">
+        <v>-1.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.5</v>
+      </c>
+      <c r="AA212">
         <v>-0.5</v>
       </c>
-      <c r="R212">
-        <v>1.9</v>
-      </c>
-      <c r="S212">
-        <v>1.9</v>
-      </c>
-      <c r="T212">
-        <v>2.75</v>
-      </c>
-      <c r="U212">
-        <v>1.975</v>
-      </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.5</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
-      <c r="AA212">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6979591</v>
+        <v>6979587</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19410,76 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L213">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="N213">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O213">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6979588</v>
+        <v>6979589</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,58 +19499,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>46</v>
       </c>
       <c r="K214">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P214">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19559,13 +19559,13 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19576,7 +19576,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6979589</v>
+        <v>6979588</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19588,58 +19588,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>46</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N215">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
         <v>1.8</v>
       </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19648,13 +19648,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -118,10 +118,10 @@
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P8">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>3.75</v>
       </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
+      <c r="U8">
         <v>1.8</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2945,7 +2945,7 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>1.533</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
-      </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.925</v>
-      </c>
-      <c r="AB31">
-        <v>0.825</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.825</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.925</v>
+      </c>
+      <c r="AB32">
         <v>0.825</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3838,7 +3838,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,58 +4280,58 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
       <c r="K43">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,58 +4369,58 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L62">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W62">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6979491</v>
+        <v>6978747</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M90">
-        <v>3.7</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="O90">
+        <v>7.5</v>
+      </c>
+      <c r="P90">
+        <v>1.125</v>
+      </c>
+      <c r="Q90">
+        <v>2.25</v>
+      </c>
+      <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
         <v>3.5</v>
       </c>
-      <c r="P90">
-        <v>5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
+      <c r="U90">
         <v>1.825</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6978747</v>
+        <v>6979491</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45227.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>1.285</v>
+        <v>3.7</v>
       </c>
       <c r="N91">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="O91">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="Q91">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y91">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10510,7 +10510,7 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>30</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" t="s">
         <v>35</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -13005,7 +13005,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13094,7 +13094,7 @@
         <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14073,7 +14073,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14515,7 +14515,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14782,7 +14782,7 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>29</v>
@@ -15497,7 +15497,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16387,7 +16387,7 @@
         <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -17096,7 +17096,7 @@
         <v>45358.5</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
         <v>31</v>
@@ -18256,7 +18256,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -19054,7 +19054,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6979589</v>
+        <v>6979588</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,58 +19499,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>3</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>46</v>
       </c>
       <c r="K214">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N214">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O214">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
         <v>1.8</v>
       </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19559,13 +19559,13 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19576,7 +19576,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6979588</v>
+        <v>6979589</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19588,58 +19588,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>46</v>
       </c>
       <c r="K215">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O215">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P215">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19648,13 +19648,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20478,7 +20478,7 @@
         <v>45386.52083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
         <v>38</v>
@@ -21104,7 +21104,7 @@
         <v>42</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H232">
         <v>1</v>

--- a/Serbia Super Liga/Serbia Super Liga.xlsx
+++ b/Serbia Super Liga/Serbia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>FK Novi Pazar</t>
   </si>
   <si>
-    <t>FK Napredak</t>
+    <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
+    <t>FK Napredak</t>
   </si>
   <si>
     <t>Mladost Lucani</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6979404</v>
+        <v>6978735</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>1.05</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>-3</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6978735</v>
+        <v>6979404</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>1.05</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>1.8</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1610,10 +1610,10 @@
         <v>45144.49652777778</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032917</v>
+        <v>7032914</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,61 +2144,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2207,13 +2207,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.4125</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032914</v>
+        <v>7032917</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,61 +2233,61 @@
         <v>45150.57986111111</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2296,13 +2296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.5249999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45151.57986111111</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2945,7 +2945,7 @@
         <v>45157.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6979431</v>
+        <v>6979427</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,56 +3212,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.925</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
       </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6979427</v>
+        <v>6979431</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,56 +3301,56 @@
         <v>45158.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>4.5</v>
+      </c>
+      <c r="N32">
+        <v>1.909</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>1.533</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.85</v>
-      </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.975</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.825</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.825</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.925</v>
-      </c>
-      <c r="AB32">
-        <v>0.825</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3838,7 +3838,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6979440</v>
+        <v>6978740</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,58 +4280,58 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.025</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>41</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>1.5</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6978740</v>
+        <v>6979440</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,58 +4369,58 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>1.025</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>41</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.02499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6979449</v>
+        <v>6979447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6979447</v>
+        <v>6979449</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N51">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,16 +5034,16 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5262,7 +5262,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6979453</v>
+        <v>6979458</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,58 +5882,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6979458</v>
+        <v>6979453</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>45199.54513888889</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6505,7 +6505,7 @@
         <v>45200.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6864,7 +6864,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6979475</v>
+        <v>6979476</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
         <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6979476</v>
+        <v>6979475</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6979484</v>
+        <v>6979481</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
         <v>1.9</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.9</v>
       </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB84">
-        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6979481</v>
+        <v>6979484</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,73 +8018,73 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3.25</v>
+      </c>
+      <c r="M85">
+        <v>3.25</v>
+      </c>
+      <c r="N85">
+        <v>2.55</v>
+      </c>
+      <c r="O85">
+        <v>3.2</v>
+      </c>
+      <c r="P85">
+        <v>2.55</v>
+      </c>
+      <c r="Q85">
         <v>0</v>
       </c>
-      <c r="J85" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85">
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
         <v>2.25</v>
       </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="N85">
-        <v>1.363</v>
-      </c>
-      <c r="O85">
-        <v>3.8</v>
-      </c>
-      <c r="P85">
-        <v>9</v>
-      </c>
-      <c r="Q85">
-        <v>-1.25</v>
-      </c>
-      <c r="R85">
-        <v>1.825</v>
-      </c>
-      <c r="S85">
-        <v>1.975</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8288,7 +8288,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8997,7 +8997,7 @@
         <v>45231.625</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -9086,7 +9086,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9620,7 +9620,7 @@
         <v>45236.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9979,7 +9979,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10510,7 +10510,7 @@
         <v>45252.5</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>30</v>
@@ -10780,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11136,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11845,10 +11845,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s">
         <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>45269.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12649,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -13005,7 +13005,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13094,7 +13094,7 @@
         <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14073,7 +14073,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14515,7 +14515,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14782,7 +14782,7 @@
         <v>45334.5</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>29</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6979547</v>
+        <v>6979545</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,10 +15316,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15331,43 +15331,43 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979545</v>
+        <v>6979547</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,10 +15405,10 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15420,43 +15420,43 @@
         <v>46</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N168">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15465,16 +15465,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>45347.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16387,7 +16387,7 @@
         <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -17096,7 +17096,7 @@
         <v>45358.5</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>31</v>
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7921658</v>
+        <v>6979565</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17200,40 +17200,40 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
         <v>3.1</v>
       </c>
       <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
         <v>2.4</v>
       </c>
-      <c r="N188">
-        <v>2.55</v>
-      </c>
       <c r="O188">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17242,19 +17242,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6979565</v>
+        <v>7921658</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45359.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,61 +17289,61 @@
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O189">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P189">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.75</v>
       </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>1.8</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17796,7 +17796,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6979577</v>
+        <v>6979578</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17808,10 +17808,10 @@
         <v>45363.5</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,46 +17823,46 @@
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17871,10 +17871,10 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17885,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6979578</v>
+        <v>6979577</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17897,10 +17897,10 @@
         <v>45363.5</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17912,46 +17912,46 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17960,10 +17960,10 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18256,7 +18256,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -19054,7 +19054,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19502,7 +19502,7 @@
         <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>3</v>
@@ -20478,7 +20478,7 @@
         <v>45386.52083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
         <v>38</v>
@@ -21104,7 +21104,7 @@
         <v>42</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21260,6 +21260,302 @@
       </c>
       <c r="AC233">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6998838</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45396.47916666666</v>
+      </c>
+      <c r="F234" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" t="s">
+        <v>31</v>
+      </c>
+      <c r="K234">
+        <v>2.3</v>
+      </c>
+      <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
+        <v>2.75</v>
+      </c>
+      <c r="N234">
+        <v>2.4</v>
+      </c>
+      <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
+        <v>2.5</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>1.85</v>
+      </c>
+      <c r="S234">
+        <v>1.95</v>
+      </c>
+      <c r="T234">
+        <v>2.75</v>
+      </c>
+      <c r="U234">
+        <v>1.825</v>
+      </c>
+      <c r="V234">
+        <v>1.975</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6979612</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45396.47916666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>35</v>
+      </c>
+      <c r="G235" t="s">
+        <v>43</v>
+      </c>
+      <c r="K235">
+        <v>1.5</v>
+      </c>
+      <c r="L235">
+        <v>4.1</v>
+      </c>
+      <c r="M235">
+        <v>5.5</v>
+      </c>
+      <c r="N235">
+        <v>1.727</v>
+      </c>
+      <c r="O235">
+        <v>3.75</v>
+      </c>
+      <c r="P235">
+        <v>4</v>
+      </c>
+      <c r="Q235">
+        <v>-0.75</v>
+      </c>
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
+        <v>1.8</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>1.9</v>
+      </c>
+      <c r="V235">
+        <v>1.9</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6979613</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F236" t="s">
+        <v>45</v>
+      </c>
+      <c r="G236" t="s">
+        <v>39</v>
+      </c>
+      <c r="K236">
+        <v>1.1</v>
+      </c>
+      <c r="L236">
+        <v>8.5</v>
+      </c>
+      <c r="M236">
+        <v>15</v>
+      </c>
+      <c r="N236">
+        <v>1.083</v>
+      </c>
+      <c r="O236">
+        <v>10</v>
+      </c>
+      <c 